--- a/BackTest/2019-11-24 BackTest BAT.xlsx
+++ b/BackTest/2019-11-24 BackTest BAT.xlsx
@@ -4371,17 +4371,13 @@
         <v>245</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>245</v>
-      </c>
-      <c r="K114" t="n">
-        <v>245</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
@@ -4410,22 +4406,14 @@
         <v>245</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>245</v>
-      </c>
-      <c r="K115" t="n">
-        <v>245</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4453,22 +4441,14 @@
         <v>245</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>245</v>
-      </c>
-      <c r="K116" t="n">
-        <v>245</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4707,14 +4687,12 @@
         <v>248</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>250</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
         <v>245</v>
       </c>
@@ -4750,14 +4728,12 @@
         <v>251.5</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>252</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
         <v>245</v>
       </c>
@@ -4793,14 +4769,12 @@
         <v>254</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>254</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
         <v>245</v>
       </c>
@@ -5044,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
@@ -5085,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
@@ -5093,11 +5067,11 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M131" t="n">
-        <v>1</v>
+        <v>1.052142857142857</v>
       </c>
     </row>
     <row r="132">
@@ -5129,14 +5103,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>245</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5170,14 +5138,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>245</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5211,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>245</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5252,14 +5208,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>245</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5293,14 +5243,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>245</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5331,19 +5275,13 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>245</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>1.048061224489796</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -5372,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5407,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5442,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -5477,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -5512,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -5547,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -5582,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
@@ -5617,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>

--- a/BackTest/2019-11-24 BackTest BAT.xlsx
+++ b/BackTest/2019-11-24 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C2" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D2" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E2" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F2" t="n">
-        <v>3271.4709</v>
+        <v>64.5579</v>
       </c>
       <c r="G2" t="n">
-        <v>256.5</v>
+        <v>263.2</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C3" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D3" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E3" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F3" t="n">
-        <v>4499.9926</v>
+        <v>3271.4709</v>
       </c>
       <c r="G3" t="n">
-        <v>256.5</v>
+        <v>263.1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>257</v>
       </c>
       <c r="F4" t="n">
-        <v>2599.4235</v>
+        <v>4499.9926</v>
       </c>
       <c r="G4" t="n">
-        <v>257</v>
+        <v>263.05</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C5" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D5" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E5" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F5" t="n">
-        <v>127</v>
+        <v>2599.4235</v>
       </c>
       <c r="G5" t="n">
-        <v>257.5</v>
+        <v>262.9833333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C6" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D6" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E6" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F6" t="n">
-        <v>111.48</v>
+        <v>127</v>
       </c>
       <c r="G6" t="n">
-        <v>259</v>
+        <v>262.9166666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C7" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D7" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E7" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F7" t="n">
-        <v>2885.2935</v>
+        <v>111.48</v>
       </c>
       <c r="G7" t="n">
-        <v>261</v>
+        <v>262.9</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>262</v>
       </c>
       <c r="F8" t="n">
-        <v>6499.9965</v>
+        <v>2885.2935</v>
       </c>
       <c r="G8" t="n">
-        <v>262</v>
+        <v>262.9166666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>262</v>
       </c>
       <c r="F9" t="n">
-        <v>109.6268</v>
+        <v>6499.9965</v>
       </c>
       <c r="G9" t="n">
-        <v>262</v>
+        <v>262.9333333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C10" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D10" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E10" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F10" t="n">
-        <v>428</v>
+        <v>109.6268</v>
       </c>
       <c r="G10" t="n">
-        <v>261.5</v>
+        <v>262.95</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C11" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D11" t="n">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E11" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F11" t="n">
-        <v>12513.6802</v>
+        <v>428</v>
       </c>
       <c r="G11" t="n">
-        <v>260.5</v>
+        <v>262.95</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C12" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D12" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E12" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F12" t="n">
-        <v>64.5579</v>
+        <v>12513.6802</v>
       </c>
       <c r="G12" t="n">
-        <v>260.5</v>
+        <v>262.8833333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>261</v>
       </c>
       <c r="F13" t="n">
-        <v>1033</v>
+        <v>64.5579</v>
       </c>
       <c r="G13" t="n">
-        <v>261</v>
+        <v>262.8166666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C14" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D14" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E14" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F14" t="n">
-        <v>297</v>
+        <v>1033</v>
       </c>
       <c r="G14" t="n">
-        <v>261.5</v>
+        <v>262.7166666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>262</v>
       </c>
       <c r="F15" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G15" t="n">
-        <v>262</v>
+        <v>262.6333333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C16" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D16" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E16" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F16" t="n">
-        <v>2161.8957</v>
+        <v>296</v>
       </c>
       <c r="G16" t="n">
-        <v>262.5</v>
+        <v>262.5666666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C17" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D17" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E17" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F17" t="n">
-        <v>1176.2058</v>
+        <v>2161.8957</v>
       </c>
       <c r="G17" t="n">
-        <v>262</v>
+        <v>262.5166666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C18" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D18" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E18" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F18" t="n">
-        <v>2159.1739</v>
+        <v>1176.2058</v>
       </c>
       <c r="G18" t="n">
-        <v>260.5</v>
+        <v>262.4166666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C19" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D19" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E19" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F19" t="n">
-        <v>12.7823</v>
+        <v>2159.1739</v>
       </c>
       <c r="G19" t="n">
-        <v>259.5</v>
+        <v>262.3333333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C20" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D20" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E20" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F20" t="n">
-        <v>419.37</v>
+        <v>12.7823</v>
       </c>
       <c r="G20" t="n">
-        <v>258.5</v>
+        <v>262.2333333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C21" t="n">
         <v>258</v>
       </c>
       <c r="D21" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E21" t="n">
         <v>258</v>
       </c>
       <c r="F21" t="n">
-        <v>139.1</v>
+        <v>419.37</v>
       </c>
       <c r="G21" t="n">
-        <v>258</v>
+        <v>262.0833333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C22" t="n">
         <v>258</v>
       </c>
       <c r="D22" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E22" t="n">
         <v>258</v>
       </c>
       <c r="F22" t="n">
-        <v>1132</v>
+        <v>139.1</v>
       </c>
       <c r="G22" t="n">
-        <v>258</v>
+        <v>261.9333333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C23" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D23" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E23" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F23" t="n">
-        <v>1897.297</v>
+        <v>1132</v>
       </c>
       <c r="G23" t="n">
-        <v>257.5</v>
+        <v>261.8333333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C24" t="n">
         <v>257</v>
       </c>
       <c r="D24" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E24" t="n">
         <v>257</v>
       </c>
       <c r="F24" t="n">
-        <v>4585</v>
+        <v>1897.297</v>
       </c>
       <c r="G24" t="n">
-        <v>257</v>
+        <v>261.6666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>257</v>
       </c>
       <c r="F25" t="n">
-        <v>9386.393700000001</v>
+        <v>4585</v>
       </c>
       <c r="G25" t="n">
-        <v>257</v>
+        <v>261.5333333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>257</v>
       </c>
       <c r="F26" t="n">
-        <v>721</v>
+        <v>9386.393700000001</v>
       </c>
       <c r="G26" t="n">
-        <v>257</v>
+        <v>261.45</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>257</v>
       </c>
       <c r="F27" t="n">
-        <v>558.5524</v>
+        <v>721</v>
       </c>
       <c r="G27" t="n">
-        <v>257</v>
+        <v>261.35</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>257</v>
       </c>
       <c r="F28" t="n">
-        <v>1227.745</v>
+        <v>558.5524</v>
       </c>
       <c r="G28" t="n">
-        <v>257</v>
+        <v>261.25</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D29" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E29" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F29" t="n">
-        <v>61559.8636</v>
+        <v>1227.745</v>
       </c>
       <c r="G29" t="n">
-        <v>258.5</v>
+        <v>261.1333333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C30" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D30" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E30" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F30" t="n">
-        <v>2971.5312</v>
+        <v>61559.8636</v>
       </c>
       <c r="G30" t="n">
-        <v>258.5</v>
+        <v>261.05</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>257</v>
       </c>
       <c r="F31" t="n">
-        <v>675.8495</v>
+        <v>2971.5312</v>
       </c>
       <c r="G31" t="n">
-        <v>257</v>
+        <v>260.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C32" t="n">
         <v>257</v>
       </c>
       <c r="D32" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E32" t="n">
         <v>257</v>
       </c>
       <c r="F32" t="n">
-        <v>16813.7114</v>
+        <v>675.8495</v>
       </c>
       <c r="G32" t="n">
-        <v>257</v>
+        <v>260.7666666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C33" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D33" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E33" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F33" t="n">
-        <v>698.25</v>
+        <v>16813.7114</v>
       </c>
       <c r="G33" t="n">
-        <v>258</v>
+        <v>260.65</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1559,16 +1559,16 @@
         <v>259</v>
       </c>
       <c r="D34" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E34" t="n">
         <v>259</v>
       </c>
       <c r="F34" t="n">
-        <v>713.4038</v>
+        <v>698.25</v>
       </c>
       <c r="G34" t="n">
-        <v>259</v>
+        <v>260.5666666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1594,16 +1594,16 @@
         <v>259</v>
       </c>
       <c r="D35" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E35" t="n">
         <v>259</v>
       </c>
       <c r="F35" t="n">
-        <v>249.9999</v>
+        <v>713.4038</v>
       </c>
       <c r="G35" t="n">
-        <v>259</v>
+        <v>260.4833333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>259</v>
       </c>
       <c r="F36" t="n">
-        <v>1600</v>
+        <v>249.9999</v>
       </c>
       <c r="G36" t="n">
-        <v>259</v>
+        <v>260.3666666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>259</v>
       </c>
       <c r="C37" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D37" t="n">
         <v>259</v>
       </c>
       <c r="E37" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F37" t="n">
-        <v>4355.5125</v>
+        <v>1600</v>
       </c>
       <c r="G37" t="n">
-        <v>258.5</v>
+        <v>260.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1696,19 @@
         <v>259</v>
       </c>
       <c r="C38" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D38" t="n">
         <v>259</v>
       </c>
       <c r="E38" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F38" t="n">
-        <v>773.6822</v>
+        <v>4355.5125</v>
       </c>
       <c r="G38" t="n">
-        <v>258.5</v>
+        <v>260.1833333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>259</v>
       </c>
       <c r="F39" t="n">
-        <v>536.91</v>
+        <v>773.6822</v>
       </c>
       <c r="G39" t="n">
-        <v>259</v>
+        <v>260.0833333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>259</v>
       </c>
       <c r="F40" t="n">
-        <v>1612</v>
+        <v>536.91</v>
       </c>
       <c r="G40" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>259</v>
       </c>
       <c r="F41" t="n">
-        <v>20</v>
+        <v>1612</v>
       </c>
       <c r="G41" t="n">
-        <v>259</v>
+        <v>259.9166666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C42" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D42" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E42" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F42" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G42" t="n">
-        <v>260</v>
+        <v>259.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C43" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D43" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E43" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F43" t="n">
-        <v>14880.3416</v>
+        <v>9</v>
       </c>
       <c r="G43" t="n">
-        <v>260</v>
+        <v>259.7333333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>259</v>
       </c>
       <c r="F44" t="n">
-        <v>18.3536</v>
+        <v>14880.3416</v>
       </c>
       <c r="G44" t="n">
-        <v>259</v>
+        <v>259.6333333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>259</v>
       </c>
       <c r="F45" t="n">
-        <v>1760.5609</v>
+        <v>18.3536</v>
       </c>
       <c r="G45" t="n">
-        <v>259</v>
+        <v>259.55</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>259</v>
       </c>
       <c r="F46" t="n">
-        <v>2500</v>
+        <v>1760.5609</v>
       </c>
       <c r="G46" t="n">
-        <v>259</v>
+        <v>259.4666666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C47" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D47" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E47" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F47" t="n">
-        <v>8274.4889</v>
+        <v>2500</v>
       </c>
       <c r="G47" t="n">
-        <v>259.5</v>
+        <v>259.3833333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>261</v>
       </c>
       <c r="C48" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D48" t="n">
         <v>261</v>
       </c>
       <c r="E48" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>8274.4889</v>
       </c>
       <c r="G48" t="n">
-        <v>260.5</v>
+        <v>259.3166666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C49" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D49" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E49" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F49" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>259.5</v>
+        <v>259.2666666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C50" t="n">
         <v>258</v>
       </c>
       <c r="D50" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E50" t="n">
         <v>258</v>
       </c>
       <c r="F50" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G50" t="n">
-        <v>258</v>
+        <v>259.1666666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C51" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D51" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E51" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F51" t="n">
-        <v>1831.4158</v>
+        <v>300</v>
       </c>
       <c r="G51" t="n">
-        <v>257.5</v>
+        <v>259.0666666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>257</v>
       </c>
       <c r="F52" t="n">
-        <v>14</v>
+        <v>1831.4158</v>
       </c>
       <c r="G52" t="n">
-        <v>257</v>
+        <v>258.95</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2221,19 +2221,19 @@
         <v>257</v>
       </c>
       <c r="C53" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D53" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E53" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F53" t="n">
-        <v>195251.8588</v>
+        <v>14</v>
       </c>
       <c r="G53" t="n">
-        <v>256.5</v>
+        <v>258.85</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2256,19 +2256,19 @@
         <v>257</v>
       </c>
       <c r="C54" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D54" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E54" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F54" t="n">
-        <v>5</v>
+        <v>195251.8588</v>
       </c>
       <c r="G54" t="n">
-        <v>256.5</v>
+        <v>258.75</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>257</v>
       </c>
       <c r="F55" t="n">
-        <v>4.3536</v>
+        <v>5</v>
       </c>
       <c r="G55" t="n">
-        <v>257</v>
+        <v>258.7166666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C56" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D56" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E56" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F56" t="n">
-        <v>2885.2935</v>
+        <v>4.3536</v>
       </c>
       <c r="G56" t="n">
-        <v>256.5</v>
+        <v>258.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C57" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D57" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E57" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F57" t="n">
-        <v>508.9999</v>
+        <v>2885.2935</v>
       </c>
       <c r="G57" t="n">
-        <v>256.5</v>
+        <v>258.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C58" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D58" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E58" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F58" t="n">
-        <v>1094</v>
+        <v>508.9999</v>
       </c>
       <c r="G58" t="n">
-        <v>256.5</v>
+        <v>258.6833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C59" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D59" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E59" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F59" t="n">
-        <v>408</v>
+        <v>1094</v>
       </c>
       <c r="G59" t="n">
-        <v>255.5</v>
+        <v>258.65</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C60" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D60" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E60" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F60" t="n">
-        <v>413.9481</v>
+        <v>408</v>
       </c>
       <c r="G60" t="n">
-        <v>255.5</v>
+        <v>258.6166666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C61" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D61" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E61" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F61" t="n">
-        <v>310.4611</v>
+        <v>413.9481</v>
       </c>
       <c r="G61" t="n">
-        <v>256.5</v>
+        <v>258.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>257</v>
       </c>
       <c r="F62" t="n">
-        <v>8173.4448</v>
+        <v>310.4611</v>
       </c>
       <c r="G62" t="n">
-        <v>257</v>
+        <v>258.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C63" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D63" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E63" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F63" t="n">
-        <v>4442.3411</v>
+        <v>8173.4448</v>
       </c>
       <c r="G63" t="n">
-        <v>256</v>
+        <v>258.6166666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C64" t="n">
         <v>255</v>
       </c>
       <c r="D64" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E64" t="n">
         <v>255</v>
       </c>
       <c r="F64" t="n">
-        <v>6965.6246</v>
+        <v>4442.3411</v>
       </c>
       <c r="G64" t="n">
-        <v>255</v>
+        <v>258.5833333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C65" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D65" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E65" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F65" t="n">
-        <v>15</v>
+        <v>6965.6246</v>
       </c>
       <c r="G65" t="n">
-        <v>254.5</v>
+        <v>258.55</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2676,19 +2676,19 @@
         <v>254</v>
       </c>
       <c r="C66" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D66" t="n">
         <v>254</v>
       </c>
       <c r="E66" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F66" t="n">
-        <v>20.1584</v>
+        <v>15</v>
       </c>
       <c r="G66" t="n">
-        <v>253.5</v>
+        <v>258.4833333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C67" t="n">
         <v>253</v>
       </c>
       <c r="D67" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E67" t="n">
         <v>253</v>
       </c>
       <c r="F67" t="n">
-        <v>14475.5759</v>
+        <v>20.1584</v>
       </c>
       <c r="G67" t="n">
-        <v>253</v>
+        <v>258.3666666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>253</v>
       </c>
       <c r="F68" t="n">
-        <v>2601.3369</v>
+        <v>14475.5759</v>
       </c>
       <c r="G68" t="n">
-        <v>253</v>
+        <v>258.2166666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>253</v>
       </c>
       <c r="F69" t="n">
-        <v>598.3901</v>
+        <v>2601.3369</v>
       </c>
       <c r="G69" t="n">
-        <v>253</v>
+        <v>258.0666666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>253</v>
       </c>
       <c r="F70" t="n">
-        <v>1162.1708</v>
+        <v>598.3901</v>
       </c>
       <c r="G70" t="n">
-        <v>253</v>
+        <v>257.9166666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C71" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D71" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E71" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F71" t="n">
-        <v>50</v>
+        <v>1162.1708</v>
       </c>
       <c r="G71" t="n">
-        <v>253.5</v>
+        <v>257.7833333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>254</v>
       </c>
       <c r="F72" t="n">
-        <v>82.03270000000001</v>
+        <v>50</v>
       </c>
       <c r="G72" t="n">
-        <v>254</v>
+        <v>257.6833333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C73" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D73" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E73" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F73" t="n">
-        <v>330</v>
+        <v>82.03270000000001</v>
       </c>
       <c r="G73" t="n">
-        <v>253</v>
+        <v>257.5666666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>252</v>
       </c>
       <c r="C74" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D74" t="n">
         <v>252</v>
       </c>
       <c r="E74" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F74" t="n">
-        <v>1401.2093</v>
+        <v>330</v>
       </c>
       <c r="G74" t="n">
-        <v>251</v>
+        <v>257.4166666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C75" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D75" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E75" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F75" t="n">
-        <v>2202.2162</v>
+        <v>1401.2093</v>
       </c>
       <c r="G75" t="n">
-        <v>250.5</v>
+        <v>257.2166666666666</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>251</v>
       </c>
       <c r="F76" t="n">
-        <v>1498.6683</v>
+        <v>2202.2162</v>
       </c>
       <c r="G76" t="n">
-        <v>251</v>
+        <v>257.0333333333334</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C77" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D77" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E77" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F77" t="n">
-        <v>35458.6068</v>
+        <v>1498.6683</v>
       </c>
       <c r="G77" t="n">
-        <v>250</v>
+        <v>256.8333333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3096,19 +3096,19 @@
         <v>250</v>
       </c>
       <c r="C78" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D78" t="n">
         <v>250</v>
       </c>
       <c r="E78" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F78" t="n">
-        <v>1891</v>
+        <v>35458.6068</v>
       </c>
       <c r="G78" t="n">
-        <v>249.5</v>
+        <v>256.6333333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,10 +3140,10 @@
         <v>250</v>
       </c>
       <c r="F79" t="n">
-        <v>200</v>
+        <v>1891</v>
       </c>
       <c r="G79" t="n">
-        <v>250</v>
+        <v>256.4666666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>250</v>
       </c>
       <c r="F80" t="n">
-        <v>2333</v>
+        <v>200</v>
       </c>
       <c r="G80" t="n">
-        <v>250</v>
+        <v>256.3166666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3201,19 +3201,19 @@
         <v>250</v>
       </c>
       <c r="C81" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D81" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E81" t="n">
         <v>250</v>
       </c>
       <c r="F81" t="n">
-        <v>1060</v>
+        <v>2333</v>
       </c>
       <c r="G81" t="n">
-        <v>251</v>
+        <v>256.1833333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C82" t="n">
         <v>252</v>
@@ -3242,13 +3242,13 @@
         <v>252</v>
       </c>
       <c r="E82" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F82" t="n">
-        <v>3836.0195</v>
+        <v>1060</v>
       </c>
       <c r="G82" t="n">
-        <v>252</v>
+        <v>256.0833333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C83" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D83" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E83" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F83" t="n">
-        <v>20</v>
+        <v>3836.0195</v>
       </c>
       <c r="G83" t="n">
-        <v>251</v>
+        <v>255.9833333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3306,19 +3306,19 @@
         <v>250</v>
       </c>
       <c r="C84" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D84" t="n">
         <v>250</v>
       </c>
       <c r="E84" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F84" t="n">
-        <v>3836.0195</v>
+        <v>20</v>
       </c>
       <c r="G84" t="n">
-        <v>249.5</v>
+        <v>255.8666666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3341,19 +3341,19 @@
         <v>250</v>
       </c>
       <c r="C85" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D85" t="n">
         <v>250</v>
       </c>
       <c r="E85" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F85" t="n">
-        <v>12.585</v>
+        <v>3836.0195</v>
       </c>
       <c r="G85" t="n">
-        <v>249.5</v>
+        <v>255.7333333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3376,19 +3376,19 @@
         <v>250</v>
       </c>
       <c r="C86" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D86" t="n">
         <v>250</v>
       </c>
       <c r="E86" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F86" t="n">
-        <v>613.1728000000001</v>
+        <v>12.585</v>
       </c>
       <c r="G86" t="n">
-        <v>249.5</v>
+        <v>255.6166666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C87" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E87" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F87" t="n">
-        <v>1813.1528</v>
+        <v>613.1728000000001</v>
       </c>
       <c r="G87" t="n">
-        <v>249.5</v>
+        <v>255.4833333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C88" t="n">
         <v>250</v>
       </c>
       <c r="D88" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E88" t="n">
         <v>250</v>
       </c>
       <c r="F88" t="n">
-        <v>572.3179</v>
+        <v>1813.1528</v>
       </c>
       <c r="G88" t="n">
-        <v>250</v>
+        <v>255.3666666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>250</v>
       </c>
       <c r="F89" t="n">
-        <v>232.8458</v>
+        <v>572.3179</v>
       </c>
       <c r="G89" t="n">
-        <v>250</v>
+        <v>255.25</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>250</v>
       </c>
       <c r="F90" t="n">
-        <v>62</v>
+        <v>232.8458</v>
       </c>
       <c r="G90" t="n">
-        <v>250</v>
+        <v>255.0833333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C91" t="n">
         <v>250</v>
       </c>
       <c r="D91" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E91" t="n">
         <v>250</v>
       </c>
       <c r="F91" t="n">
-        <v>174.7424</v>
+        <v>62</v>
       </c>
       <c r="G91" t="n">
-        <v>250</v>
+        <v>254.9666666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3586,19 +3586,19 @@
         <v>251</v>
       </c>
       <c r="C92" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D92" t="n">
         <v>251</v>
       </c>
       <c r="E92" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F92" t="n">
-        <v>577</v>
+        <v>174.7424</v>
       </c>
       <c r="G92" t="n">
-        <v>250.5</v>
+        <v>254.85</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C93" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D93" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E93" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F93" t="n">
-        <v>79.3651</v>
+        <v>577</v>
       </c>
       <c r="G93" t="n">
-        <v>251.5</v>
+        <v>254.75</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C94" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D94" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E94" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F94" t="n">
-        <v>179.5906</v>
+        <v>79.3651</v>
       </c>
       <c r="G94" t="n">
-        <v>251.5</v>
+        <v>254.6333333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C95" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D95" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E95" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F95" t="n">
-        <v>119.0476190476191</v>
+        <v>179.5906</v>
       </c>
       <c r="G95" t="n">
-        <v>251.5</v>
+        <v>254.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C96" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D96" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E96" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F96" t="n">
-        <v>244</v>
+        <v>119.0476190476191</v>
       </c>
       <c r="G96" t="n">
-        <v>251.5</v>
+        <v>254.3833333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C97" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D97" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E97" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F97" t="n">
-        <v>63</v>
+        <v>244</v>
       </c>
       <c r="G97" t="n">
-        <v>250.5</v>
+        <v>254.25</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>250</v>
       </c>
       <c r="F98" t="n">
-        <v>1702.72</v>
+        <v>63</v>
       </c>
       <c r="G98" t="n">
-        <v>250</v>
+        <v>254.1166666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3831,19 +3831,19 @@
         <v>250</v>
       </c>
       <c r="C99" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D99" t="n">
         <v>250</v>
       </c>
       <c r="E99" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F99" t="n">
-        <v>27.5689</v>
+        <v>1702.72</v>
       </c>
       <c r="G99" t="n">
-        <v>249.5</v>
+        <v>253.9666666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C100" t="n">
         <v>249</v>
       </c>
       <c r="D100" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E100" t="n">
         <v>249</v>
       </c>
       <c r="F100" t="n">
-        <v>36.9265</v>
+        <v>27.5689</v>
       </c>
       <c r="G100" t="n">
-        <v>249</v>
+        <v>253.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>249</v>
       </c>
       <c r="F101" t="n">
-        <v>1655.7927</v>
+        <v>36.9265</v>
       </c>
       <c r="G101" t="n">
-        <v>249</v>
+        <v>253.6333333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C102" t="n">
         <v>249</v>
       </c>
       <c r="D102" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E102" t="n">
         <v>249</v>
       </c>
       <c r="F102" t="n">
-        <v>1379.6883</v>
+        <v>1655.7927</v>
       </c>
       <c r="G102" t="n">
-        <v>249</v>
+        <v>253.4666666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3971,19 +3971,19 @@
         <v>250</v>
       </c>
       <c r="C103" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D103" t="n">
         <v>250</v>
       </c>
       <c r="E103" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F103" t="n">
-        <v>17.23</v>
+        <v>1379.6883</v>
       </c>
       <c r="G103" t="n">
-        <v>249.5</v>
+        <v>253.2666666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C104" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D104" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E104" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F104" t="n">
-        <v>332.8829</v>
+        <v>17.23</v>
       </c>
       <c r="G104" t="n">
-        <v>249</v>
+        <v>253.1166666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,10 +4050,10 @@
         <v>248</v>
       </c>
       <c r="F105" t="n">
-        <v>606.5692</v>
+        <v>332.8829</v>
       </c>
       <c r="G105" t="n">
-        <v>248</v>
+        <v>252.9333333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4085,10 +4085,10 @@
         <v>248</v>
       </c>
       <c r="F106" t="n">
-        <v>2832.6126</v>
+        <v>606.5692</v>
       </c>
       <c r="G106" t="n">
-        <v>248</v>
+        <v>252.75</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C107" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D107" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E107" t="n">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F107" t="n">
-        <v>448</v>
+        <v>2832.6126</v>
       </c>
       <c r="G107" t="n">
-        <v>248.5</v>
+        <v>252.5666666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C108" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D108" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E108" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F108" t="n">
-        <v>22179.9495</v>
+        <v>448</v>
       </c>
       <c r="G108" t="n">
-        <v>248.5</v>
+        <v>252.3833333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,10 +4190,10 @@
         <v>248</v>
       </c>
       <c r="F109" t="n">
-        <v>6907.4702</v>
+        <v>22179.9495</v>
       </c>
       <c r="G109" t="n">
-        <v>248</v>
+        <v>252.1666666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C110" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D110" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E110" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F110" t="n">
-        <v>3075.2319</v>
+        <v>6907.4702</v>
       </c>
       <c r="G110" t="n">
-        <v>246.5</v>
+        <v>252</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>247</v>
+      </c>
+      <c r="C111" t="n">
         <v>245</v>
       </c>
-      <c r="C111" t="n">
-        <v>244</v>
-      </c>
       <c r="D111" t="n">
+        <v>247</v>
+      </c>
+      <c r="E111" t="n">
         <v>245</v>
       </c>
-      <c r="E111" t="n">
-        <v>244</v>
-      </c>
       <c r="F111" t="n">
-        <v>8173.4448</v>
+        <v>3075.2319</v>
       </c>
       <c r="G111" t="n">
-        <v>244.5</v>
+        <v>251.7833333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4286,19 +4286,19 @@
         <v>245</v>
       </c>
       <c r="C112" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D112" t="n">
         <v>245</v>
       </c>
       <c r="E112" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F112" t="n">
-        <v>468.7953</v>
+        <v>8173.4448</v>
       </c>
       <c r="G112" t="n">
-        <v>244.5</v>
+        <v>251.5666666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,10 +4330,10 @@
         <v>245</v>
       </c>
       <c r="F113" t="n">
-        <v>643</v>
+        <v>468.7953</v>
       </c>
       <c r="G113" t="n">
-        <v>245</v>
+        <v>251.3666666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4365,10 +4365,10 @@
         <v>245</v>
       </c>
       <c r="F114" t="n">
-        <v>337</v>
+        <v>643</v>
       </c>
       <c r="G114" t="n">
-        <v>245</v>
+        <v>251.1833333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4400,19 +4400,23 @@
         <v>245</v>
       </c>
       <c r="F115" t="n">
-        <v>84.65389999999999</v>
+        <v>337</v>
       </c>
       <c r="G115" t="n">
+        <v>250.9833333333333</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
         <v>245</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>245</v>
+      </c>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
@@ -4435,20 +4439,28 @@
         <v>245</v>
       </c>
       <c r="F116" t="n">
-        <v>979.0999</v>
+        <v>84.65389999999999</v>
       </c>
       <c r="G116" t="n">
+        <v>250.7833333333333</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
         <v>245</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>245</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4470,10 +4482,10 @@
         <v>245</v>
       </c>
       <c r="F117" t="n">
-        <v>4315.6003</v>
+        <v>979.0999</v>
       </c>
       <c r="G117" t="n">
-        <v>245</v>
+        <v>250.6</v>
       </c>
       <c r="H117" t="n">
         <v>1</v>
@@ -4487,7 +4499,11 @@
       <c r="K117" t="n">
         <v>245</v>
       </c>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4509,10 +4525,10 @@
         <v>245</v>
       </c>
       <c r="F118" t="n">
-        <v>3752.8204</v>
+        <v>4315.6003</v>
       </c>
       <c r="G118" t="n">
-        <v>245</v>
+        <v>250.4</v>
       </c>
       <c r="H118" t="n">
         <v>1</v>
@@ -4526,11 +4542,7 @@
       <c r="K118" t="n">
         <v>245</v>
       </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4552,10 +4564,10 @@
         <v>245</v>
       </c>
       <c r="F119" t="n">
-        <v>362.8524</v>
+        <v>3752.8204</v>
       </c>
       <c r="G119" t="n">
-        <v>245</v>
+        <v>250.2166666666667</v>
       </c>
       <c r="H119" t="n">
         <v>1</v>
@@ -4586,19 +4598,19 @@
         <v>245</v>
       </c>
       <c r="C120" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D120" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E120" t="n">
         <v>245</v>
       </c>
       <c r="F120" t="n">
-        <v>364.3033</v>
+        <v>362.8524</v>
       </c>
       <c r="G120" t="n">
-        <v>245.5</v>
+        <v>250.05</v>
       </c>
       <c r="H120" t="n">
         <v>1</v>
@@ -4614,7 +4626,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M120" t="n">
@@ -4626,7 +4638,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C121" t="n">
         <v>246</v>
@@ -4635,31 +4647,23 @@
         <v>246</v>
       </c>
       <c r="E121" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F121" t="n">
-        <v>1981.6102</v>
+        <v>364.3033</v>
       </c>
       <c r="G121" t="n">
-        <v>246</v>
+        <v>249.8833333333333</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>246</v>
-      </c>
-      <c r="K121" t="n">
-        <v>245</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4669,38 +4673,36 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C122" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D122" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E122" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F122" t="n">
-        <v>1188.5245</v>
+        <v>1981.6102</v>
       </c>
       <c r="G122" t="n">
-        <v>248</v>
+        <v>249.7</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>246</v>
+      </c>
       <c r="K122" t="n">
-        <v>245</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4710,36 +4712,38 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C123" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D123" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E123" t="n">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F123" t="n">
-        <v>4</v>
+        <v>1188.5245</v>
       </c>
       <c r="G123" t="n">
-        <v>251.5</v>
+        <v>249.5833333333333</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>246</v>
+      </c>
       <c r="K123" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M123" t="n">
@@ -4751,36 +4755,38 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C124" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D124" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E124" t="n">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F124" t="n">
         <v>4</v>
       </c>
       <c r="G124" t="n">
-        <v>254</v>
+        <v>249.55</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>250</v>
+      </c>
       <c r="K124" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M124" t="n">
@@ -4795,19 +4801,19 @@
         <v>254</v>
       </c>
       <c r="C125" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D125" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E125" t="n">
         <v>254</v>
       </c>
       <c r="F125" t="n">
-        <v>25.2383</v>
+        <v>4</v>
       </c>
       <c r="G125" t="n">
-        <v>254.5</v>
+        <v>249.55</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4816,14 +4822,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>245</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4833,22 +4833,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C126" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D126" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E126" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F126" t="n">
-        <v>101</v>
+        <v>25.2383</v>
       </c>
       <c r="G126" t="n">
-        <v>254.5</v>
+        <v>249.55</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4857,14 +4857,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>245</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4874,22 +4868,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C127" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D127" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E127" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F127" t="n">
-        <v>19.5213</v>
+        <v>101</v>
       </c>
       <c r="G127" t="n">
-        <v>256</v>
+        <v>249.5833333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4898,14 +4892,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>245</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4915,22 +4903,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C128" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D128" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E128" t="n">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F128" t="n">
-        <v>4651.7195</v>
+        <v>19.5213</v>
       </c>
       <c r="G128" t="n">
-        <v>258</v>
+        <v>249.65</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4939,14 +4927,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>245</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4968,10 +4950,10 @@
         <v>259</v>
       </c>
       <c r="F129" t="n">
-        <v>4286.0219</v>
+        <v>4651.7195</v>
       </c>
       <c r="G129" t="n">
-        <v>259</v>
+        <v>249.75</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4980,14 +4962,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>245</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5009,26 +4985,20 @@
         <v>259</v>
       </c>
       <c r="F130" t="n">
-        <v>1765.72</v>
+        <v>4286.0219</v>
       </c>
       <c r="G130" t="n">
-        <v>259</v>
+        <v>249.85</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>245</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5050,10 +5020,10 @@
         <v>259</v>
       </c>
       <c r="F131" t="n">
-        <v>342.8818</v>
+        <v>1765.72</v>
       </c>
       <c r="G131" t="n">
-        <v>259</v>
+        <v>249.95</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5062,16 +5032,10 @@
         <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>245</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>1.052142857142857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -5091,10 +5055,10 @@
         <v>259</v>
       </c>
       <c r="F132" t="n">
-        <v>29.8158</v>
+        <v>342.8818</v>
       </c>
       <c r="G132" t="n">
-        <v>259</v>
+        <v>250.0333333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5126,10 +5090,10 @@
         <v>259</v>
       </c>
       <c r="F133" t="n">
-        <v>339.9999</v>
+        <v>29.8158</v>
       </c>
       <c r="G133" t="n">
-        <v>259</v>
+        <v>250.1166666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5161,10 +5125,10 @@
         <v>259</v>
       </c>
       <c r="F134" t="n">
-        <v>4475.9713</v>
+        <v>339.9999</v>
       </c>
       <c r="G134" t="n">
-        <v>259</v>
+        <v>250.2333333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5184,22 +5148,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C135" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D135" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E135" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F135" t="n">
-        <v>235</v>
+        <v>4475.9713</v>
       </c>
       <c r="G135" t="n">
-        <v>258.5</v>
+        <v>250.3833333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5231,10 +5195,10 @@
         <v>258</v>
       </c>
       <c r="F136" t="n">
-        <v>523.47</v>
+        <v>235</v>
       </c>
       <c r="G136" t="n">
-        <v>258</v>
+        <v>250.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5266,10 +5230,10 @@
         <v>258</v>
       </c>
       <c r="F137" t="n">
-        <v>50.7924</v>
+        <v>523.47</v>
       </c>
       <c r="G137" t="n">
-        <v>258</v>
+        <v>250.6166666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5289,28 +5253,28 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C138" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D138" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E138" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F138" t="n">
-        <v>235</v>
+        <v>50.7924</v>
       </c>
       <c r="G138" t="n">
-        <v>258.5</v>
+        <v>250.7666666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5324,28 +5288,28 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C139" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D139" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E139" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F139" t="n">
-        <v>4126</v>
+        <v>235</v>
       </c>
       <c r="G139" t="n">
-        <v>258.5</v>
+        <v>250.9166666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5371,10 +5335,10 @@
         <v>258</v>
       </c>
       <c r="F140" t="n">
-        <v>1020</v>
+        <v>4126</v>
       </c>
       <c r="G140" t="n">
-        <v>258</v>
+        <v>251.05</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5394,22 +5358,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C141" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D141" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E141" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F141" t="n">
-        <v>287</v>
+        <v>1020</v>
       </c>
       <c r="G141" t="n">
-        <v>257.5</v>
+        <v>251.1833333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5429,22 +5393,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C142" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D142" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E142" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F142" t="n">
-        <v>144</v>
+        <v>287</v>
       </c>
       <c r="G142" t="n">
-        <v>256.5</v>
+        <v>251.2666666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5464,22 +5428,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C143" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D143" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E143" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F143" t="n">
-        <v>742.8256</v>
+        <v>144</v>
       </c>
       <c r="G143" t="n">
-        <v>256.5</v>
+        <v>251.3333333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5499,22 +5463,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C144" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D144" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E144" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F144" t="n">
-        <v>161.0196</v>
+        <v>742.8256</v>
       </c>
       <c r="G144" t="n">
-        <v>257.5</v>
+        <v>251.45</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5546,10 +5510,10 @@
         <v>258</v>
       </c>
       <c r="F145" t="n">
-        <v>71.173</v>
+        <v>161.0196</v>
       </c>
       <c r="G145" t="n">
-        <v>258</v>
+        <v>251.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5564,6 +5528,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>258</v>
+      </c>
+      <c r="C146" t="n">
+        <v>258</v>
+      </c>
+      <c r="D146" t="n">
+        <v>258</v>
+      </c>
+      <c r="E146" t="n">
+        <v>258</v>
+      </c>
+      <c r="F146" t="n">
+        <v>71.173</v>
+      </c>
+      <c r="G146" t="n">
+        <v>251.7333333333333</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-24 BackTest BAT.xlsx
+++ b/BackTest/2019-11-24 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:N156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>64.5579</v>
       </c>
       <c r="G2" t="n">
+        <v>260.3333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>263.2</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>3271.4709</v>
       </c>
       <c r="G3" t="n">
+        <v>259.8</v>
+      </c>
+      <c r="H3" t="n">
         <v>263.1</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>4499.9926</v>
       </c>
       <c r="G4" t="n">
+        <v>259.3333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>263.05</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>2599.4235</v>
       </c>
       <c r="G5" t="n">
+        <v>258.8666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>262.9833333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>127</v>
       </c>
       <c r="G6" t="n">
+        <v>258.4666666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>262.9166666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>111.48</v>
       </c>
       <c r="G7" t="n">
+        <v>258.2</v>
+      </c>
+      <c r="H7" t="n">
         <v>262.9</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>2885.2935</v>
       </c>
       <c r="G8" t="n">
+        <v>258.1333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>262.9166666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>6499.9965</v>
       </c>
       <c r="G9" t="n">
+        <v>258.1333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>262.9333333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>109.6268</v>
       </c>
       <c r="G10" t="n">
+        <v>258.3333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>262.95</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>428</v>
       </c>
       <c r="G11" t="n">
+        <v>258.5333333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>262.95</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>12513.6802</v>
       </c>
       <c r="G12" t="n">
+        <v>258.8</v>
+      </c>
+      <c r="H12" t="n">
         <v>262.8833333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>64.5579</v>
       </c>
       <c r="G13" t="n">
+        <v>259</v>
+      </c>
+      <c r="H13" t="n">
         <v>262.8166666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>1033</v>
       </c>
       <c r="G14" t="n">
+        <v>259.2</v>
+      </c>
+      <c r="H14" t="n">
         <v>262.7166666666666</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>297</v>
       </c>
       <c r="G15" t="n">
+        <v>259.5333333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>262.6333333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>296</v>
       </c>
       <c r="G16" t="n">
+        <v>259.8666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>262.5666666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>2161.8957</v>
       </c>
       <c r="G17" t="n">
+        <v>260.2666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>262.5166666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>1176.2058</v>
       </c>
       <c r="G18" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="H18" t="n">
         <v>262.4166666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>2159.1739</v>
       </c>
       <c r="G19" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="H19" t="n">
         <v>262.3333333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>12.7823</v>
       </c>
       <c r="G20" t="n">
+        <v>260.9333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>262.2333333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>419.37</v>
       </c>
       <c r="G21" t="n">
+        <v>260.9333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>262.0833333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>139.1</v>
       </c>
       <c r="G22" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="H22" t="n">
         <v>261.9333333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>1132</v>
       </c>
       <c r="G23" t="n">
+        <v>260.5333333333334</v>
+      </c>
+      <c r="H23" t="n">
         <v>261.8333333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>1897.297</v>
       </c>
       <c r="G24" t="n">
+        <v>260.2</v>
+      </c>
+      <c r="H24" t="n">
         <v>261.6666666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>4585</v>
       </c>
       <c r="G25" t="n">
+        <v>259.8666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>261.5333333333334</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>9386.393700000001</v>
       </c>
       <c r="G26" t="n">
+        <v>259.6</v>
+      </c>
+      <c r="H26" t="n">
         <v>261.45</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>721</v>
       </c>
       <c r="G27" t="n">
+        <v>259.4</v>
+      </c>
+      <c r="H27" t="n">
         <v>261.35</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>558.5524</v>
       </c>
       <c r="G28" t="n">
+        <v>259.1333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>261.25</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>1227.745</v>
       </c>
       <c r="G29" t="n">
+        <v>258.8666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>261.1333333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>61559.8636</v>
       </c>
       <c r="G30" t="n">
+        <v>258.7333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>261.05</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>2971.5312</v>
       </c>
       <c r="G31" t="n">
+        <v>258.4</v>
+      </c>
+      <c r="H31" t="n">
         <v>260.9</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>675.8495</v>
       </c>
       <c r="G32" t="n">
+        <v>258</v>
+      </c>
+      <c r="H32" t="n">
         <v>260.7666666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>16813.7114</v>
       </c>
       <c r="G33" t="n">
+        <v>257.7333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>260.65</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>698.25</v>
       </c>
       <c r="G34" t="n">
+        <v>257.6666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>260.5666666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>713.4038</v>
       </c>
       <c r="G35" t="n">
+        <v>257.6666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>260.4833333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>249.9999</v>
       </c>
       <c r="G36" t="n">
+        <v>257.7333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>260.3666666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>1600</v>
       </c>
       <c r="G37" t="n">
+        <v>257.8</v>
+      </c>
+      <c r="H37" t="n">
         <v>260.3</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>4355.5125</v>
       </c>
       <c r="G38" t="n">
+        <v>257.8</v>
+      </c>
+      <c r="H38" t="n">
         <v>260.1833333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>773.6822</v>
       </c>
       <c r="G39" t="n">
+        <v>257.9333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>260.0833333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>536.91</v>
       </c>
       <c r="G40" t="n">
+        <v>258.0666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>260</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>1612</v>
       </c>
       <c r="G41" t="n">
+        <v>258.2</v>
+      </c>
+      <c r="H41" t="n">
         <v>259.9166666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>20</v>
       </c>
       <c r="G42" t="n">
+        <v>258.3333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>259.8</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>9</v>
       </c>
       <c r="G43" t="n">
+        <v>258.6</v>
+      </c>
+      <c r="H43" t="n">
         <v>259.7333333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>14880.3416</v>
       </c>
       <c r="G44" t="n">
+        <v>258.7333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>259.6333333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>18.3536</v>
       </c>
       <c r="G45" t="n">
+        <v>258.6666666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>259.55</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>1760.5609</v>
       </c>
       <c r="G46" t="n">
+        <v>258.8</v>
+      </c>
+      <c r="H46" t="n">
         <v>259.4666666666666</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>2500</v>
       </c>
       <c r="G47" t="n">
+        <v>258.9333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>259.3833333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>8274.4889</v>
       </c>
       <c r="G48" t="n">
+        <v>259.1333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>259.3166666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2096,15 +2242,18 @@
         <v>259.2666666666667</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>259.2666666666667</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>200</v>
       </c>
       <c r="G50" t="n">
+        <v>259.2</v>
+      </c>
+      <c r="H50" t="n">
         <v>259.1666666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>300</v>
       </c>
       <c r="G51" t="n">
+        <v>259.1333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>259.0666666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>1831.4158</v>
       </c>
       <c r="G52" t="n">
+        <v>259</v>
+      </c>
+      <c r="H52" t="n">
         <v>258.95</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>14</v>
       </c>
       <c r="G53" t="n">
+        <v>258.9333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>258.85</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>195251.8588</v>
       </c>
       <c r="G54" t="n">
+        <v>258.7333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>258.75</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>5</v>
       </c>
       <c r="G55" t="n">
+        <v>258.6</v>
+      </c>
+      <c r="H55" t="n">
         <v>258.7166666666666</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>4.3536</v>
       </c>
       <c r="G56" t="n">
+        <v>258.4666666666666</v>
+      </c>
+      <c r="H56" t="n">
         <v>258.7</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>2885.2935</v>
       </c>
       <c r="G57" t="n">
+        <v>258.2666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>258.7</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>508.9999</v>
       </c>
       <c r="G58" t="n">
+        <v>258</v>
+      </c>
+      <c r="H58" t="n">
         <v>258.6833333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>1094</v>
       </c>
       <c r="G59" t="n">
+        <v>257.8</v>
+      </c>
+      <c r="H59" t="n">
         <v>258.65</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>408</v>
       </c>
       <c r="G60" t="n">
+        <v>257.5333333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>258.6166666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>413.9481</v>
       </c>
       <c r="G61" t="n">
+        <v>257.3333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>258.6</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>310.4611</v>
       </c>
       <c r="G62" t="n">
+        <v>257.2</v>
+      </c>
+      <c r="H62" t="n">
         <v>258.6</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>8173.4448</v>
       </c>
       <c r="G63" t="n">
+        <v>257</v>
+      </c>
+      <c r="H63" t="n">
         <v>258.6166666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>4442.3411</v>
       </c>
       <c r="G64" t="n">
+        <v>256.6</v>
+      </c>
+      <c r="H64" t="n">
         <v>258.5833333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>6965.6246</v>
       </c>
       <c r="G65" t="n">
+        <v>256.4</v>
+      </c>
+      <c r="H65" t="n">
         <v>258.55</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>15</v>
       </c>
       <c r="G66" t="n">
+        <v>256.1333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>258.4833333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>20.1584</v>
       </c>
       <c r="G67" t="n">
+        <v>255.8666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>258.3666666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>14475.5759</v>
       </c>
       <c r="G68" t="n">
+        <v>255.6</v>
+      </c>
+      <c r="H68" t="n">
         <v>258.2166666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>2601.3369</v>
       </c>
       <c r="G69" t="n">
+        <v>255.4</v>
+      </c>
+      <c r="H69" t="n">
         <v>258.0666666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>598.3901</v>
       </c>
       <c r="G70" t="n">
+        <v>255.1333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>257.9166666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>1162.1708</v>
       </c>
       <c r="G71" t="n">
+        <v>254.8666666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>257.7833333333334</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>50</v>
       </c>
       <c r="G72" t="n">
+        <v>254.7333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>257.6833333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>82.03270000000001</v>
       </c>
       <c r="G73" t="n">
+        <v>254.5333333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>257.5666666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>330</v>
       </c>
       <c r="G74" t="n">
+        <v>254.2666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>257.4166666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>1401.2093</v>
       </c>
       <c r="G75" t="n">
+        <v>253.9333333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>257.2166666666666</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>2202.2162</v>
       </c>
       <c r="G76" t="n">
+        <v>253.6</v>
+      </c>
+      <c r="H76" t="n">
         <v>257.0333333333334</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>1498.6683</v>
       </c>
       <c r="G77" t="n">
+        <v>253.2</v>
+      </c>
+      <c r="H77" t="n">
         <v>256.8333333333333</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>35458.6068</v>
       </c>
       <c r="G78" t="n">
+        <v>252.6666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>256.6333333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>1891</v>
       </c>
       <c r="G79" t="n">
+        <v>252.3333333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>256.4666666666666</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>200</v>
       </c>
       <c r="G80" t="n">
+        <v>252</v>
+      </c>
+      <c r="H80" t="n">
         <v>256.3166666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>2333</v>
       </c>
       <c r="G81" t="n">
+        <v>251.7333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>256.1833333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>1060</v>
       </c>
       <c r="G82" t="n">
+        <v>251.6666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>256.0833333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>3836.0195</v>
       </c>
       <c r="G83" t="n">
+        <v>251.6</v>
+      </c>
+      <c r="H83" t="n">
         <v>255.9833333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>20</v>
       </c>
       <c r="G84" t="n">
+        <v>251.4</v>
+      </c>
+      <c r="H84" t="n">
         <v>255.8666666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>3836.0195</v>
       </c>
       <c r="G85" t="n">
+        <v>251.1333333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>255.7333333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>12.585</v>
       </c>
       <c r="G86" t="n">
+        <v>250.9333333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>255.6166666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>613.1728000000001</v>
       </c>
       <c r="G87" t="n">
+        <v>250.6</v>
+      </c>
+      <c r="H87" t="n">
         <v>255.4833333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>1813.1528</v>
       </c>
       <c r="G88" t="n">
+        <v>250.3333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>255.3666666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>572.3179</v>
       </c>
       <c r="G89" t="n">
+        <v>250.2</v>
+      </c>
+      <c r="H89" t="n">
         <v>255.25</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>232.8458</v>
       </c>
       <c r="G90" t="n">
+        <v>250.2</v>
+      </c>
+      <c r="H90" t="n">
         <v>255.0833333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>62</v>
       </c>
       <c r="G91" t="n">
+        <v>250.1333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>254.9666666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>174.7424</v>
       </c>
       <c r="G92" t="n">
+        <v>250.0666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>254.85</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>577</v>
       </c>
       <c r="G93" t="n">
+        <v>250.2</v>
+      </c>
+      <c r="H93" t="n">
         <v>254.75</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>79.3651</v>
       </c>
       <c r="G94" t="n">
+        <v>250.3333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>254.6333333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>179.5906</v>
       </c>
       <c r="G95" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="H95" t="n">
         <v>254.5</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>119.0476190476191</v>
       </c>
       <c r="G96" t="n">
+        <v>250.5333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>254.3833333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>244</v>
       </c>
       <c r="G97" t="n">
+        <v>250.4666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>254.25</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>63</v>
       </c>
       <c r="G98" t="n">
+        <v>250.3333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>254.1166666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>1702.72</v>
       </c>
       <c r="G99" t="n">
+        <v>250.3333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>253.9666666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>27.5689</v>
       </c>
       <c r="G100" t="n">
+        <v>250.3333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>253.8</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>36.9265</v>
       </c>
       <c r="G101" t="n">
+        <v>250.2666666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>253.6333333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>1655.7927</v>
       </c>
       <c r="G102" t="n">
+        <v>250.2666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>253.4666666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>1379.6883</v>
       </c>
       <c r="G103" t="n">
+        <v>250.2</v>
+      </c>
+      <c r="H103" t="n">
         <v>253.2666666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>17.23</v>
       </c>
       <c r="G104" t="n">
+        <v>250.2</v>
+      </c>
+      <c r="H104" t="n">
         <v>253.1166666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>332.8829</v>
       </c>
       <c r="G105" t="n">
+        <v>250.0666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>252.9333333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>606.5692</v>
       </c>
       <c r="G106" t="n">
+        <v>249.9333333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>252.75</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>2832.6126</v>
       </c>
       <c r="G107" t="n">
+        <v>249.8</v>
+      </c>
+      <c r="H107" t="n">
         <v>252.5666666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>448</v>
       </c>
       <c r="G108" t="n">
+        <v>249.6666666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>252.3833333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>22179.9495</v>
       </c>
       <c r="G109" t="n">
+        <v>249.4</v>
+      </c>
+      <c r="H109" t="n">
         <v>252.1666666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>6907.4702</v>
       </c>
       <c r="G110" t="n">
+        <v>249.2</v>
+      </c>
+      <c r="H110" t="n">
         <v>252</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>3075.2319</v>
       </c>
       <c r="G111" t="n">
+        <v>248.7333333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>251.7833333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>8173.4448</v>
       </c>
       <c r="G112" t="n">
+        <v>248.2666666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>251.5666666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>468.7953</v>
       </c>
       <c r="G113" t="n">
+        <v>247.9333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>251.3666666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>643</v>
       </c>
       <c r="G114" t="n">
+        <v>247.6</v>
+      </c>
+      <c r="H114" t="n">
         <v>251.1833333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,22 +4747,21 @@
         <v>337</v>
       </c>
       <c r="G115" t="n">
+        <v>247.3333333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>250.9833333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>245</v>
-      </c>
-      <c r="K115" t="n">
-        <v>245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4442,194 +4785,193 @@
         <v>84.65389999999999</v>
       </c>
       <c r="G116" t="n">
+        <v>247.0666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>250.7833333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>245</v>
-      </c>
-      <c r="K116" t="n">
-        <v>245</v>
-      </c>
-      <c r="L116" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>245</v>
+      </c>
+      <c r="C117" t="n">
+        <v>245</v>
+      </c>
+      <c r="D117" t="n">
+        <v>245</v>
+      </c>
+      <c r="E117" t="n">
+        <v>245</v>
+      </c>
+      <c r="F117" t="n">
+        <v>979.0999</v>
+      </c>
+      <c r="G117" t="n">
+        <v>246.8</v>
+      </c>
+      <c r="H117" t="n">
+        <v>250.6</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>245</v>
+      </c>
+      <c r="C118" t="n">
+        <v>245</v>
+      </c>
+      <c r="D118" t="n">
+        <v>245</v>
+      </c>
+      <c r="E118" t="n">
+        <v>245</v>
+      </c>
+      <c r="F118" t="n">
+        <v>4315.6003</v>
+      </c>
+      <c r="G118" t="n">
+        <v>246.5333333333333</v>
+      </c>
+      <c r="H118" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>245</v>
+      </c>
+      <c r="L118" t="n">
+        <v>245</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>245</v>
+      </c>
+      <c r="C119" t="n">
+        <v>245</v>
+      </c>
+      <c r="D119" t="n">
+        <v>245</v>
+      </c>
+      <c r="E119" t="n">
+        <v>245</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3752.8204</v>
+      </c>
+      <c r="G119" t="n">
+        <v>246.2</v>
+      </c>
+      <c r="H119" t="n">
+        <v>250.2166666666667</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>245</v>
+      </c>
+      <c r="L119" t="n">
+        <v>245</v>
+      </c>
+      <c r="M119" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>245</v>
-      </c>
-      <c r="C117" t="n">
-        <v>245</v>
-      </c>
-      <c r="D117" t="n">
-        <v>245</v>
-      </c>
-      <c r="E117" t="n">
-        <v>245</v>
-      </c>
-      <c r="F117" t="n">
-        <v>979.0999</v>
-      </c>
-      <c r="G117" t="n">
-        <v>250.6</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>245</v>
-      </c>
-      <c r="K117" t="n">
-        <v>245</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>245</v>
+      </c>
+      <c r="C120" t="n">
+        <v>245</v>
+      </c>
+      <c r="D120" t="n">
+        <v>245</v>
+      </c>
+      <c r="E120" t="n">
+        <v>245</v>
+      </c>
+      <c r="F120" t="n">
+        <v>362.8524</v>
+      </c>
+      <c r="G120" t="n">
+        <v>246</v>
+      </c>
+      <c r="H120" t="n">
+        <v>250.05</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>245</v>
+      </c>
+      <c r="L120" t="n">
+        <v>245</v>
+      </c>
+      <c r="M120" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>245</v>
-      </c>
-      <c r="C118" t="n">
-        <v>245</v>
-      </c>
-      <c r="D118" t="n">
-        <v>245</v>
-      </c>
-      <c r="E118" t="n">
-        <v>245</v>
-      </c>
-      <c r="F118" t="n">
-        <v>4315.6003</v>
-      </c>
-      <c r="G118" t="n">
-        <v>250.4</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>245</v>
-      </c>
-      <c r="K118" t="n">
-        <v>245</v>
-      </c>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>245</v>
-      </c>
-      <c r="C119" t="n">
-        <v>245</v>
-      </c>
-      <c r="D119" t="n">
-        <v>245</v>
-      </c>
-      <c r="E119" t="n">
-        <v>245</v>
-      </c>
-      <c r="F119" t="n">
-        <v>3752.8204</v>
-      </c>
-      <c r="G119" t="n">
-        <v>250.2166666666667</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>245</v>
-      </c>
-      <c r="K119" t="n">
-        <v>245</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>245</v>
-      </c>
-      <c r="C120" t="n">
-        <v>245</v>
-      </c>
-      <c r="D120" t="n">
-        <v>245</v>
-      </c>
-      <c r="E120" t="n">
-        <v>245</v>
-      </c>
-      <c r="F120" t="n">
-        <v>362.8524</v>
-      </c>
-      <c r="G120" t="n">
-        <v>250.05</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>245</v>
-      </c>
-      <c r="K120" t="n">
-        <v>245</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4653,18 +4995,29 @@
         <v>364.3033</v>
       </c>
       <c r="G121" t="n">
+        <v>245.8666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>249.8833333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>245</v>
+      </c>
+      <c r="L121" t="n">
+        <v>245</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4688,22 +5041,29 @@
         <v>1981.6102</v>
       </c>
       <c r="G122" t="n">
+        <v>245.7333333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>249.7</v>
       </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="K122" t="n">
         <v>246</v>
       </c>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>245</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4727,26 +5087,29 @@
         <v>1188.5245</v>
       </c>
       <c r="G123" t="n">
+        <v>245.8</v>
+      </c>
+      <c r="H123" t="n">
         <v>249.5833333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="n">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="K123" t="n">
         <v>246</v>
       </c>
-      <c r="L123" t="inlineStr">
+      <c r="L123" t="n">
+        <v>245</v>
+      </c>
+      <c r="M123" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,26 +5133,29 @@
         <v>4</v>
       </c>
       <c r="G124" t="n">
+        <v>246.1333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>249.55</v>
       </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>246</v>
-      </c>
-      <c r="L124" t="inlineStr">
+        <v>250</v>
+      </c>
+      <c r="L124" t="n">
+        <v>245</v>
+      </c>
+      <c r="M124" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4813,18 +5179,27 @@
         <v>4</v>
       </c>
       <c r="G125" t="n">
+        <v>246.6</v>
+      </c>
+      <c r="H125" t="n">
         <v>249.55</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>245</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4848,18 +5223,27 @@
         <v>25.2383</v>
       </c>
       <c r="G126" t="n">
+        <v>247.2</v>
+      </c>
+      <c r="H126" t="n">
         <v>249.55</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>245</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4883,18 +5267,27 @@
         <v>101</v>
       </c>
       <c r="G127" t="n">
+        <v>247.9333333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>249.5833333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>245</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4918,18 +5311,27 @@
         <v>19.5213</v>
       </c>
       <c r="G128" t="n">
+        <v>248.7333333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>249.65</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>245</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4953,18 +5355,27 @@
         <v>4651.7195</v>
       </c>
       <c r="G129" t="n">
+        <v>249.6666666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>249.75</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>245</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4988,18 +5399,27 @@
         <v>4286.0219</v>
       </c>
       <c r="G130" t="n">
+        <v>250.6</v>
+      </c>
+      <c r="H130" t="n">
         <v>249.85</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>245</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5023,18 +5443,27 @@
         <v>1765.72</v>
       </c>
       <c r="G131" t="n">
+        <v>251.5333333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>249.95</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>245</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5058,18 +5487,27 @@
         <v>342.8818</v>
       </c>
       <c r="G132" t="n">
+        <v>252.4666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>250.0333333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>245</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5093,18 +5531,27 @@
         <v>29.8158</v>
       </c>
       <c r="G133" t="n">
+        <v>253.4</v>
+      </c>
+      <c r="H133" t="n">
         <v>250.1166666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>245</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5128,18 +5575,27 @@
         <v>339.9999</v>
       </c>
       <c r="G134" t="n">
+        <v>254.3333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>250.2333333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>245</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5163,18 +5619,27 @@
         <v>4475.9713</v>
       </c>
       <c r="G135" t="n">
+        <v>255.2666666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>250.3833333333333</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>245</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5198,18 +5663,27 @@
         <v>235</v>
       </c>
       <c r="G136" t="n">
+        <v>256.0666666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>250.5</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>245</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5233,18 +5707,27 @@
         <v>523.47</v>
       </c>
       <c r="G137" t="n">
+        <v>256.8666666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>250.6166666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>245</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5268,18 +5751,27 @@
         <v>50.7924</v>
       </c>
       <c r="G138" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="H138" t="n">
         <v>250.7666666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>245</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5303,18 +5795,27 @@
         <v>235</v>
       </c>
       <c r="G139" t="n">
+        <v>257.8</v>
+      </c>
+      <c r="H139" t="n">
         <v>250.9166666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>245</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5338,18 +5839,27 @@
         <v>4126</v>
       </c>
       <c r="G140" t="n">
+        <v>258</v>
+      </c>
+      <c r="H140" t="n">
         <v>251.05</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>245</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5373,18 +5883,27 @@
         <v>1020</v>
       </c>
       <c r="G141" t="n">
+        <v>258.2666666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>251.1833333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>245</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5408,18 +5927,27 @@
         <v>287</v>
       </c>
       <c r="G142" t="n">
+        <v>258.4</v>
+      </c>
+      <c r="H142" t="n">
         <v>251.2666666666667</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>245</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5443,18 +5971,27 @@
         <v>144</v>
       </c>
       <c r="G143" t="n">
+        <v>258.3333333333333</v>
+      </c>
+      <c r="H143" t="n">
         <v>251.3333333333333</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>245</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5478,18 +6015,27 @@
         <v>742.8256</v>
       </c>
       <c r="G144" t="n">
+        <v>258.2</v>
+      </c>
+      <c r="H144" t="n">
         <v>251.45</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>245</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5513,18 +6059,27 @@
         <v>161.0196</v>
       </c>
       <c r="G145" t="n">
+        <v>258.1333333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>251.6</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>245</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,18 +6103,431 @@
         <v>71.173</v>
       </c>
       <c r="G146" t="n">
+        <v>258.0666666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>251.7333333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>245</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>259</v>
+      </c>
+      <c r="C147" t="n">
+        <v>259</v>
+      </c>
+      <c r="D147" t="n">
+        <v>259</v>
+      </c>
+      <c r="E147" t="n">
+        <v>259</v>
+      </c>
+      <c r="F147" t="n">
+        <v>7</v>
+      </c>
+      <c r="G147" t="n">
+        <v>258.0666666666667</v>
+      </c>
+      <c r="H147" t="n">
+        <v>251.9</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>245</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>260</v>
+      </c>
+      <c r="C148" t="n">
+        <v>260</v>
+      </c>
+      <c r="D148" t="n">
+        <v>260</v>
+      </c>
+      <c r="E148" t="n">
+        <v>260</v>
+      </c>
+      <c r="F148" t="n">
+        <v>900</v>
+      </c>
+      <c r="G148" t="n">
+        <v>258.1333333333333</v>
+      </c>
+      <c r="H148" t="n">
+        <v>252.0666666666667</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>245</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>261</v>
+      </c>
+      <c r="C149" t="n">
+        <v>261</v>
+      </c>
+      <c r="D149" t="n">
+        <v>261</v>
+      </c>
+      <c r="E149" t="n">
+        <v>261</v>
+      </c>
+      <c r="F149" t="n">
+        <v>143</v>
+      </c>
+      <c r="G149" t="n">
+        <v>258.2666666666667</v>
+      </c>
+      <c r="H149" t="n">
+        <v>252.25</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>245</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>263</v>
+      </c>
+      <c r="C150" t="n">
+        <v>263</v>
+      </c>
+      <c r="D150" t="n">
+        <v>263</v>
+      </c>
+      <c r="E150" t="n">
+        <v>263</v>
+      </c>
+      <c r="F150" t="n">
+        <v>380.2282</v>
+      </c>
+      <c r="G150" t="n">
+        <v>258.5333333333334</v>
+      </c>
+      <c r="H150" t="n">
+        <v>252.4666666666667</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>245</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>1.068469387755102</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>260</v>
+      </c>
+      <c r="C151" t="n">
+        <v>262</v>
+      </c>
+      <c r="D151" t="n">
+        <v>262</v>
+      </c>
+      <c r="E151" t="n">
+        <v>260</v>
+      </c>
+      <c r="F151" t="n">
+        <v>46.0328</v>
+      </c>
+      <c r="G151" t="n">
+        <v>258.8</v>
+      </c>
+      <c r="H151" t="n">
+        <v>252.6666666666667</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>262</v>
+      </c>
+      <c r="C152" t="n">
+        <v>262</v>
+      </c>
+      <c r="D152" t="n">
+        <v>262</v>
+      </c>
+      <c r="E152" t="n">
+        <v>262</v>
+      </c>
+      <c r="F152" t="n">
+        <v>558.3064000000001</v>
+      </c>
+      <c r="G152" t="n">
+        <v>259.0666666666667</v>
+      </c>
+      <c r="H152" t="n">
+        <v>252.8666666666667</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>260</v>
+      </c>
+      <c r="C153" t="n">
+        <v>260</v>
+      </c>
+      <c r="D153" t="n">
+        <v>260</v>
+      </c>
+      <c r="E153" t="n">
+        <v>260</v>
+      </c>
+      <c r="F153" t="n">
+        <v>668.7178</v>
+      </c>
+      <c r="G153" t="n">
+        <v>259.2</v>
+      </c>
+      <c r="H153" t="n">
+        <v>253.0166666666667</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>260</v>
+      </c>
+      <c r="C154" t="n">
+        <v>260</v>
+      </c>
+      <c r="D154" t="n">
+        <v>260</v>
+      </c>
+      <c r="E154" t="n">
+        <v>260</v>
+      </c>
+      <c r="F154" t="n">
+        <v>334.4828</v>
+      </c>
+      <c r="G154" t="n">
+        <v>259.2666666666667</v>
+      </c>
+      <c r="H154" t="n">
+        <v>253.15</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>261</v>
+      </c>
+      <c r="C155" t="n">
+        <v>261</v>
+      </c>
+      <c r="D155" t="n">
+        <v>261</v>
+      </c>
+      <c r="E155" t="n">
+        <v>261</v>
+      </c>
+      <c r="F155" t="n">
+        <v>7</v>
+      </c>
+      <c r="G155" t="n">
+        <v>259.4666666666666</v>
+      </c>
+      <c r="H155" t="n">
+        <v>253.3166666666667</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>263</v>
+      </c>
+      <c r="C156" t="n">
+        <v>263</v>
+      </c>
+      <c r="D156" t="n">
+        <v>263</v>
+      </c>
+      <c r="E156" t="n">
+        <v>263</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2</v>
+      </c>
+      <c r="G156" t="n">
+        <v>259.8</v>
+      </c>
+      <c r="H156" t="n">
+        <v>253.5</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-24 BackTest BAT.xlsx
+++ b/BackTest/2019-11-24 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N156"/>
+  <dimension ref="A1:M185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C2" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D2" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E2" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="F2" t="n">
-        <v>64.5579</v>
+        <v>2021.8972</v>
       </c>
       <c r="G2" t="n">
-        <v>260.3333333333333</v>
+        <v>158208.3221119691</v>
       </c>
       <c r="H2" t="n">
-        <v>263.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C3" t="n">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D3" t="n">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E3" t="n">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="F3" t="n">
-        <v>3271.4709</v>
+        <v>12.1031</v>
       </c>
       <c r="G3" t="n">
-        <v>259.8</v>
+        <v>158208.3221119691</v>
       </c>
       <c r="H3" t="n">
-        <v>263.1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C4" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D4" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E4" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="F4" t="n">
-        <v>4499.9926</v>
+        <v>63.9491</v>
       </c>
       <c r="G4" t="n">
-        <v>259.3333333333333</v>
+        <v>158208.3221119691</v>
       </c>
       <c r="H4" t="n">
-        <v>263.05</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C5" t="n">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="D5" t="n">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="E5" t="n">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="F5" t="n">
-        <v>2599.4235</v>
+        <v>216.5635</v>
       </c>
       <c r="G5" t="n">
-        <v>258.8666666666667</v>
+        <v>158424.8856119691</v>
       </c>
       <c r="H5" t="n">
-        <v>262.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C6" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D6" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E6" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F6" t="n">
-        <v>127</v>
+        <v>1237.0848</v>
       </c>
       <c r="G6" t="n">
-        <v>258.4666666666666</v>
+        <v>157187.8008119691</v>
       </c>
       <c r="H6" t="n">
-        <v>262.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C7" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D7" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E7" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F7" t="n">
-        <v>111.48</v>
+        <v>164.923</v>
       </c>
       <c r="G7" t="n">
-        <v>258.2</v>
+        <v>157352.7238119691</v>
       </c>
       <c r="H7" t="n">
-        <v>262.9</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C8" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D8" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E8" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F8" t="n">
-        <v>2885.2935</v>
+        <v>659.8630000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>258.1333333333333</v>
+        <v>157352.7238119691</v>
       </c>
       <c r="H8" t="n">
-        <v>262.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C9" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D9" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E9" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F9" t="n">
-        <v>6499.9965</v>
+        <v>1889.2203</v>
       </c>
       <c r="G9" t="n">
-        <v>258.1333333333333</v>
+        <v>155463.5035119691</v>
       </c>
       <c r="H9" t="n">
-        <v>262.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C10" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D10" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E10" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F10" t="n">
-        <v>109.6268</v>
+        <v>1190.3969</v>
       </c>
       <c r="G10" t="n">
-        <v>258.3333333333333</v>
+        <v>155463.5035119691</v>
       </c>
       <c r="H10" t="n">
-        <v>262.95</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C11" t="n">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D11" t="n">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E11" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F11" t="n">
-        <v>428</v>
+        <v>3271.4709</v>
       </c>
       <c r="G11" t="n">
-        <v>258.5333333333334</v>
+        <v>158734.9744119691</v>
       </c>
       <c r="H11" t="n">
-        <v>262.95</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C12" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D12" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E12" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F12" t="n">
-        <v>12513.6802</v>
+        <v>1518.8871</v>
       </c>
       <c r="G12" t="n">
-        <v>258.8</v>
+        <v>157216.0873119691</v>
       </c>
       <c r="H12" t="n">
-        <v>262.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C13" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D13" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E13" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F13" t="n">
-        <v>64.5579</v>
+        <v>943.3923</v>
       </c>
       <c r="G13" t="n">
-        <v>259</v>
+        <v>157216.0873119691</v>
       </c>
       <c r="H13" t="n">
-        <v>262.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C14" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D14" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E14" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F14" t="n">
-        <v>1033</v>
+        <v>9875.277899999999</v>
       </c>
       <c r="G14" t="n">
-        <v>259.2</v>
+        <v>147340.8094119691</v>
       </c>
       <c r="H14" t="n">
-        <v>262.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C15" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D15" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E15" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F15" t="n">
-        <v>297</v>
+        <v>9130.456200000001</v>
       </c>
       <c r="G15" t="n">
-        <v>259.5333333333334</v>
+        <v>147340.8094119691</v>
       </c>
       <c r="H15" t="n">
-        <v>262.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C16" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D16" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E16" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F16" t="n">
-        <v>296</v>
+        <v>6834.9941</v>
       </c>
       <c r="G16" t="n">
-        <v>259.8666666666667</v>
+        <v>147340.8094119691</v>
       </c>
       <c r="H16" t="n">
-        <v>262.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C17" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D17" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E17" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F17" t="n">
-        <v>2161.8957</v>
+        <v>934.0118</v>
       </c>
       <c r="G17" t="n">
-        <v>260.2666666666667</v>
+        <v>147340.8094119691</v>
       </c>
       <c r="H17" t="n">
-        <v>262.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C18" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D18" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E18" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F18" t="n">
-        <v>1176.2058</v>
+        <v>3578</v>
       </c>
       <c r="G18" t="n">
-        <v>260.6</v>
+        <v>147340.8094119691</v>
       </c>
       <c r="H18" t="n">
-        <v>262.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C19" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D19" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E19" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F19" t="n">
-        <v>2159.1739</v>
+        <v>4911.2355</v>
       </c>
       <c r="G19" t="n">
-        <v>260.8</v>
+        <v>147340.8094119691</v>
       </c>
       <c r="H19" t="n">
-        <v>262.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C20" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D20" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E20" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F20" t="n">
-        <v>12.7823</v>
+        <v>7218.0002</v>
       </c>
       <c r="G20" t="n">
-        <v>260.9333333333333</v>
+        <v>147340.8094119691</v>
       </c>
       <c r="H20" t="n">
-        <v>262.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C21" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D21" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E21" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F21" t="n">
-        <v>419.37</v>
+        <v>19265.4155</v>
       </c>
       <c r="G21" t="n">
-        <v>260.9333333333333</v>
+        <v>147340.8094119691</v>
       </c>
       <c r="H21" t="n">
-        <v>262.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C22" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D22" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E22" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F22" t="n">
-        <v>139.1</v>
+        <v>1509.434</v>
       </c>
       <c r="G22" t="n">
-        <v>260.8</v>
+        <v>145831.3754119691</v>
       </c>
       <c r="H22" t="n">
-        <v>261.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C23" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D23" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E23" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F23" t="n">
-        <v>1132</v>
+        <v>26</v>
       </c>
       <c r="G23" t="n">
-        <v>260.5333333333334</v>
+        <v>145805.3754119691</v>
       </c>
       <c r="H23" t="n">
-        <v>261.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1277,33 +1206,30 @@
         <v>259</v>
       </c>
       <c r="C24" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D24" t="n">
         <v>259</v>
       </c>
       <c r="E24" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F24" t="n">
-        <v>1897.297</v>
+        <v>12.2038</v>
       </c>
       <c r="G24" t="n">
-        <v>260.2</v>
+        <v>145793.1716119691</v>
       </c>
       <c r="H24" t="n">
-        <v>261.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C25" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D25" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E25" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F25" t="n">
-        <v>4585</v>
+        <v>201.4573643410853</v>
       </c>
       <c r="G25" t="n">
-        <v>259.8666666666667</v>
+        <v>145591.714247628</v>
       </c>
       <c r="H25" t="n">
-        <v>261.5333333333334</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C26" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D26" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E26" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F26" t="n">
-        <v>9386.393700000001</v>
+        <v>2929.913</v>
       </c>
       <c r="G26" t="n">
-        <v>259.6</v>
+        <v>142661.801247628</v>
       </c>
       <c r="H26" t="n">
-        <v>261.45</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C27" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D27" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E27" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F27" t="n">
-        <v>721</v>
+        <v>869</v>
       </c>
       <c r="G27" t="n">
-        <v>259.4</v>
+        <v>143530.801247628</v>
       </c>
       <c r="H27" t="n">
-        <v>261.35</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C28" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D28" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E28" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F28" t="n">
-        <v>558.5524</v>
+        <v>896.6378</v>
       </c>
       <c r="G28" t="n">
-        <v>259.1333333333333</v>
+        <v>143530.801247628</v>
       </c>
       <c r="H28" t="n">
-        <v>261.25</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C29" t="n">
         <v>257</v>
       </c>
       <c r="D29" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E29" t="n">
         <v>257</v>
       </c>
       <c r="F29" t="n">
-        <v>1227.745</v>
+        <v>2003.2493</v>
       </c>
       <c r="G29" t="n">
-        <v>258.8666666666667</v>
+        <v>141527.551947628</v>
       </c>
       <c r="H29" t="n">
-        <v>261.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C30" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D30" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E30" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F30" t="n">
-        <v>61559.8636</v>
+        <v>25.7504</v>
       </c>
       <c r="G30" t="n">
-        <v>258.7333333333333</v>
+        <v>141527.551947628</v>
       </c>
       <c r="H30" t="n">
-        <v>261.05</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1552,24 +1460,21 @@
         <v>257</v>
       </c>
       <c r="F31" t="n">
-        <v>2971.5312</v>
+        <v>64.5579</v>
       </c>
       <c r="G31" t="n">
-        <v>258.4</v>
+        <v>141527.551947628</v>
       </c>
       <c r="H31" t="n">
-        <v>260.9</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C32" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D32" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E32" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F32" t="n">
-        <v>675.8495</v>
+        <v>3271.4709</v>
       </c>
       <c r="G32" t="n">
-        <v>258</v>
+        <v>138256.081047628</v>
       </c>
       <c r="H32" t="n">
-        <v>260.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>1</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C33" t="n">
         <v>257</v>
       </c>
       <c r="D33" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E33" t="n">
         <v>257</v>
       </c>
       <c r="F33" t="n">
-        <v>16813.7114</v>
+        <v>4499.9926</v>
       </c>
       <c r="G33" t="n">
-        <v>257.7333333333333</v>
+        <v>142756.073647628</v>
       </c>
       <c r="H33" t="n">
-        <v>260.65</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>1</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C34" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D34" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E34" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F34" t="n">
-        <v>698.25</v>
+        <v>2599.4235</v>
       </c>
       <c r="G34" t="n">
-        <v>257.6666666666667</v>
+        <v>142756.073647628</v>
       </c>
       <c r="H34" t="n">
-        <v>260.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>1</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C35" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D35" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E35" t="n">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F35" t="n">
-        <v>713.4038</v>
+        <v>127</v>
       </c>
       <c r="G35" t="n">
-        <v>257.6666666666667</v>
+        <v>142883.073647628</v>
       </c>
       <c r="H35" t="n">
-        <v>260.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1733,33 +1626,30 @@
         <v>259</v>
       </c>
       <c r="C36" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D36" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E36" t="n">
         <v>259</v>
       </c>
       <c r="F36" t="n">
-        <v>249.9999</v>
+        <v>111.48</v>
       </c>
       <c r="G36" t="n">
-        <v>257.7333333333333</v>
+        <v>142994.553647628</v>
       </c>
       <c r="H36" t="n">
-        <v>260.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C37" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D37" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E37" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F37" t="n">
-        <v>1600</v>
+        <v>2885.2935</v>
       </c>
       <c r="G37" t="n">
-        <v>257.8</v>
+        <v>145879.847147628</v>
       </c>
       <c r="H37" t="n">
-        <v>260.3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>1</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C38" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D38" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E38" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F38" t="n">
-        <v>4355.5125</v>
+        <v>6499.9965</v>
       </c>
       <c r="G38" t="n">
-        <v>257.8</v>
+        <v>145879.847147628</v>
       </c>
       <c r="H38" t="n">
-        <v>260.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>1</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C39" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D39" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E39" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F39" t="n">
-        <v>773.6822</v>
+        <v>109.6268</v>
       </c>
       <c r="G39" t="n">
-        <v>257.9333333333333</v>
+        <v>145879.847147628</v>
       </c>
       <c r="H39" t="n">
-        <v>260.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C40" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D40" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E40" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F40" t="n">
-        <v>536.91</v>
+        <v>428</v>
       </c>
       <c r="G40" t="n">
-        <v>258.0666666666667</v>
+        <v>145451.847147628</v>
       </c>
       <c r="H40" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C41" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D41" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E41" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F41" t="n">
-        <v>1612</v>
+        <v>12513.6802</v>
       </c>
       <c r="G41" t="n">
-        <v>258.2</v>
+        <v>132938.166947628</v>
       </c>
       <c r="H41" t="n">
-        <v>259.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C42" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D42" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E42" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F42" t="n">
-        <v>20</v>
+        <v>64.5579</v>
       </c>
       <c r="G42" t="n">
-        <v>258.3333333333333</v>
+        <v>133002.724847628</v>
       </c>
       <c r="H42" t="n">
-        <v>259.8</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>1</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,7 +1868,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C43" t="n">
         <v>261</v>
@@ -2005,27 +1877,24 @@
         <v>261</v>
       </c>
       <c r="E43" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F43" t="n">
-        <v>9</v>
+        <v>1033</v>
       </c>
       <c r="G43" t="n">
-        <v>258.6</v>
+        <v>133002.724847628</v>
       </c>
       <c r="H43" t="n">
-        <v>259.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C44" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D44" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E44" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F44" t="n">
-        <v>14880.3416</v>
+        <v>297</v>
       </c>
       <c r="G44" t="n">
-        <v>258.7333333333333</v>
+        <v>133299.724847628</v>
       </c>
       <c r="H44" t="n">
-        <v>259.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C45" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D45" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E45" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F45" t="n">
-        <v>18.3536</v>
+        <v>296</v>
       </c>
       <c r="G45" t="n">
-        <v>258.6666666666667</v>
+        <v>133299.724847628</v>
       </c>
       <c r="H45" t="n">
-        <v>259.55</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C46" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D46" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E46" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F46" t="n">
-        <v>1760.5609</v>
+        <v>2161.8957</v>
       </c>
       <c r="G46" t="n">
-        <v>258.8</v>
+        <v>135461.620547628</v>
       </c>
       <c r="H46" t="n">
-        <v>259.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C47" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D47" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E47" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F47" t="n">
-        <v>2500</v>
+        <v>1176.2058</v>
       </c>
       <c r="G47" t="n">
-        <v>258.9333333333333</v>
+        <v>134285.414747628</v>
       </c>
       <c r="H47" t="n">
-        <v>259.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C48" t="n">
         <v>260</v>
       </c>
       <c r="D48" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E48" t="n">
         <v>260</v>
       </c>
       <c r="F48" t="n">
-        <v>8274.4889</v>
+        <v>2159.1739</v>
       </c>
       <c r="G48" t="n">
-        <v>259.1333333333333</v>
+        <v>132126.240847628</v>
       </c>
       <c r="H48" t="n">
-        <v>259.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C49" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D49" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E49" t="n">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>12.7823</v>
       </c>
       <c r="G49" t="n">
-        <v>259.2666666666667</v>
+        <v>132113.458547628</v>
       </c>
       <c r="H49" t="n">
-        <v>259.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C50" t="n">
         <v>258</v>
       </c>
       <c r="D50" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E50" t="n">
         <v>258</v>
       </c>
       <c r="F50" t="n">
-        <v>200</v>
+        <v>419.37</v>
       </c>
       <c r="G50" t="n">
-        <v>259.2</v>
+        <v>131694.0885476281</v>
       </c>
       <c r="H50" t="n">
-        <v>259.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>1</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C51" t="n">
         <v>258</v>
       </c>
       <c r="D51" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E51" t="n">
         <v>258</v>
       </c>
       <c r="F51" t="n">
-        <v>300</v>
+        <v>139.1</v>
       </c>
       <c r="G51" t="n">
-        <v>259.1333333333333</v>
+        <v>131694.0885476281</v>
       </c>
       <c r="H51" t="n">
-        <v>259.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>1</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C52" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D52" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E52" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F52" t="n">
-        <v>1831.4158</v>
+        <v>1132</v>
       </c>
       <c r="G52" t="n">
-        <v>259</v>
+        <v>131694.0885476281</v>
       </c>
       <c r="H52" t="n">
-        <v>258.95</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C53" t="n">
         <v>257</v>
       </c>
       <c r="D53" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E53" t="n">
         <v>257</v>
       </c>
       <c r="F53" t="n">
-        <v>14</v>
+        <v>1897.297</v>
       </c>
       <c r="G53" t="n">
-        <v>258.9333333333333</v>
+        <v>129796.791547628</v>
       </c>
       <c r="H53" t="n">
-        <v>258.85</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2417,33 +2256,30 @@
         <v>257</v>
       </c>
       <c r="C54" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D54" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E54" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F54" t="n">
-        <v>195251.8588</v>
+        <v>4585</v>
       </c>
       <c r="G54" t="n">
-        <v>258.7333333333333</v>
+        <v>129796.791547628</v>
       </c>
       <c r="H54" t="n">
-        <v>258.75</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2464,24 +2300,21 @@
         <v>257</v>
       </c>
       <c r="F55" t="n">
-        <v>5</v>
+        <v>9386.393700000001</v>
       </c>
       <c r="G55" t="n">
-        <v>258.6</v>
+        <v>129796.791547628</v>
       </c>
       <c r="H55" t="n">
-        <v>258.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2502,24 +2335,21 @@
         <v>257</v>
       </c>
       <c r="F56" t="n">
-        <v>4.3536</v>
+        <v>721</v>
       </c>
       <c r="G56" t="n">
-        <v>258.4666666666666</v>
+        <v>129796.791547628</v>
       </c>
       <c r="H56" t="n">
-        <v>258.7</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>1</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C57" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D57" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E57" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F57" t="n">
-        <v>2885.2935</v>
+        <v>558.5524</v>
       </c>
       <c r="G57" t="n">
-        <v>258.2666666666667</v>
+        <v>129796.791547628</v>
       </c>
       <c r="H57" t="n">
-        <v>258.7</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>1</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2578,24 +2405,21 @@
         <v>257</v>
       </c>
       <c r="F58" t="n">
-        <v>508.9999</v>
+        <v>1227.745</v>
       </c>
       <c r="G58" t="n">
-        <v>258</v>
+        <v>129796.791547628</v>
       </c>
       <c r="H58" t="n">
-        <v>258.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>1</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C59" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D59" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E59" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F59" t="n">
-        <v>1094</v>
+        <v>61559.8636</v>
       </c>
       <c r="G59" t="n">
-        <v>257.8</v>
+        <v>191356.655147628</v>
       </c>
       <c r="H59" t="n">
-        <v>258.65</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C60" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D60" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E60" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F60" t="n">
-        <v>408</v>
+        <v>2971.5312</v>
       </c>
       <c r="G60" t="n">
-        <v>257.5333333333334</v>
+        <v>188385.123947628</v>
       </c>
       <c r="H60" t="n">
-        <v>258.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C61" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D61" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E61" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F61" t="n">
-        <v>413.9481</v>
+        <v>675.8495</v>
       </c>
       <c r="G61" t="n">
-        <v>257.3333333333333</v>
+        <v>188385.123947628</v>
       </c>
       <c r="H61" t="n">
-        <v>258.6</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C62" t="n">
         <v>257</v>
       </c>
       <c r="D62" t="n">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E62" t="n">
         <v>257</v>
       </c>
       <c r="F62" t="n">
-        <v>310.4611</v>
+        <v>16813.7114</v>
       </c>
       <c r="G62" t="n">
-        <v>257.2</v>
+        <v>188385.123947628</v>
       </c>
       <c r="H62" t="n">
-        <v>258.6</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C63" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D63" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E63" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F63" t="n">
-        <v>8173.4448</v>
+        <v>698.25</v>
       </c>
       <c r="G63" t="n">
-        <v>257</v>
+        <v>189083.373947628</v>
       </c>
       <c r="H63" t="n">
-        <v>258.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C64" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D64" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E64" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F64" t="n">
-        <v>4442.3411</v>
+        <v>713.4038</v>
       </c>
       <c r="G64" t="n">
-        <v>256.6</v>
+        <v>189083.373947628</v>
       </c>
       <c r="H64" t="n">
-        <v>258.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C65" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D65" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E65" t="n">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F65" t="n">
-        <v>6965.6246</v>
+        <v>249.9999</v>
       </c>
       <c r="G65" t="n">
-        <v>256.4</v>
+        <v>189083.373947628</v>
       </c>
       <c r="H65" t="n">
-        <v>258.55</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C66" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D66" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E66" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F66" t="n">
-        <v>15</v>
+        <v>1600</v>
       </c>
       <c r="G66" t="n">
-        <v>256.1333333333333</v>
+        <v>189083.373947628</v>
       </c>
       <c r="H66" t="n">
-        <v>258.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C67" t="n">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D67" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E67" t="n">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F67" t="n">
-        <v>20.1584</v>
+        <v>4355.5125</v>
       </c>
       <c r="G67" t="n">
-        <v>255.8666666666667</v>
+        <v>184727.861447628</v>
       </c>
       <c r="H67" t="n">
-        <v>258.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C68" t="n">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D68" t="n">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E68" t="n">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F68" t="n">
-        <v>14475.5759</v>
+        <v>773.6822</v>
       </c>
       <c r="G68" t="n">
-        <v>255.6</v>
+        <v>185501.543647628</v>
       </c>
       <c r="H68" t="n">
-        <v>258.2166666666666</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C69" t="n">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D69" t="n">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E69" t="n">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F69" t="n">
-        <v>2601.3369</v>
+        <v>536.91</v>
       </c>
       <c r="G69" t="n">
-        <v>255.4</v>
+        <v>185501.543647628</v>
       </c>
       <c r="H69" t="n">
-        <v>258.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C70" t="n">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D70" t="n">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E70" t="n">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F70" t="n">
-        <v>598.3901</v>
+        <v>1612</v>
       </c>
       <c r="G70" t="n">
-        <v>255.1333333333333</v>
+        <v>185501.543647628</v>
       </c>
       <c r="H70" t="n">
-        <v>257.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C71" t="n">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D71" t="n">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E71" t="n">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F71" t="n">
-        <v>1162.1708</v>
+        <v>20</v>
       </c>
       <c r="G71" t="n">
-        <v>254.8666666666667</v>
+        <v>185501.543647628</v>
       </c>
       <c r="H71" t="n">
-        <v>257.7833333333334</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C72" t="n">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D72" t="n">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="E72" t="n">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F72" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="G72" t="n">
-        <v>254.7333333333333</v>
+        <v>185510.543647628</v>
       </c>
       <c r="H72" t="n">
-        <v>257.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C73" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D73" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E73" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F73" t="n">
-        <v>82.03270000000001</v>
+        <v>14880.3416</v>
       </c>
       <c r="G73" t="n">
-        <v>254.5333333333333</v>
+        <v>170630.2020476281</v>
       </c>
       <c r="H73" t="n">
-        <v>257.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C74" t="n">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D74" t="n">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E74" t="n">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="F74" t="n">
-        <v>330</v>
+        <v>18.3536</v>
       </c>
       <c r="G74" t="n">
-        <v>254.2666666666667</v>
+        <v>170630.2020476281</v>
       </c>
       <c r="H74" t="n">
-        <v>257.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C75" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D75" t="n">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="E75" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F75" t="n">
-        <v>1401.2093</v>
+        <v>1760.5609</v>
       </c>
       <c r="G75" t="n">
-        <v>253.9333333333333</v>
+        <v>170630.2020476281</v>
       </c>
       <c r="H75" t="n">
-        <v>257.2166666666666</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C76" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D76" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E76" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F76" t="n">
-        <v>2202.2162</v>
+        <v>2500</v>
       </c>
       <c r="G76" t="n">
-        <v>253.6</v>
+        <v>170630.2020476281</v>
       </c>
       <c r="H76" t="n">
-        <v>257.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C77" t="n">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="D77" t="n">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="E77" t="n">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="F77" t="n">
-        <v>1498.6683</v>
+        <v>8274.4889</v>
       </c>
       <c r="G77" t="n">
-        <v>253.2</v>
+        <v>178904.6909476281</v>
       </c>
       <c r="H77" t="n">
-        <v>256.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C78" t="n">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D78" t="n">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="E78" t="n">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="F78" t="n">
-        <v>35458.6068</v>
+        <v>2</v>
       </c>
       <c r="G78" t="n">
-        <v>252.6666666666667</v>
+        <v>178906.6909476281</v>
       </c>
       <c r="H78" t="n">
-        <v>256.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C79" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D79" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E79" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F79" t="n">
-        <v>1891</v>
+        <v>200</v>
       </c>
       <c r="G79" t="n">
-        <v>252.3333333333333</v>
+        <v>178706.6909476281</v>
       </c>
       <c r="H79" t="n">
-        <v>256.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C80" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D80" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E80" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F80" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G80" t="n">
-        <v>252</v>
+        <v>178706.6909476281</v>
       </c>
       <c r="H80" t="n">
-        <v>256.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C81" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D81" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E81" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F81" t="n">
-        <v>2333</v>
+        <v>1831.4158</v>
       </c>
       <c r="G81" t="n">
-        <v>251.7333333333333</v>
+        <v>176875.2751476281</v>
       </c>
       <c r="H81" t="n">
-        <v>256.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C82" t="n">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D82" t="n">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E82" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F82" t="n">
-        <v>1060</v>
+        <v>14</v>
       </c>
       <c r="G82" t="n">
-        <v>251.6666666666667</v>
+        <v>176875.2751476281</v>
       </c>
       <c r="H82" t="n">
-        <v>256.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C83" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D83" t="n">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E83" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F83" t="n">
-        <v>3836.0195</v>
+        <v>195251.8588</v>
       </c>
       <c r="G83" t="n">
-        <v>251.6</v>
+        <v>-18376.58365237192</v>
       </c>
       <c r="H83" t="n">
-        <v>255.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C84" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D84" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E84" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F84" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G84" t="n">
-        <v>251.4</v>
+        <v>-18371.58365237192</v>
       </c>
       <c r="H84" t="n">
-        <v>255.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C85" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D85" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E85" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F85" t="n">
-        <v>3836.0195</v>
+        <v>4.3536</v>
       </c>
       <c r="G85" t="n">
-        <v>251.1333333333333</v>
+        <v>-18371.58365237192</v>
       </c>
       <c r="H85" t="n">
-        <v>255.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3373,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C86" t="n">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D86" t="n">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E86" t="n">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F86" t="n">
-        <v>12.585</v>
+        <v>2885.2935</v>
       </c>
       <c r="G86" t="n">
-        <v>250.9333333333333</v>
+        <v>-21256.87715237192</v>
       </c>
       <c r="H86" t="n">
-        <v>255.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3408,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C87" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D87" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E87" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F87" t="n">
-        <v>613.1728000000001</v>
+        <v>508.9999</v>
       </c>
       <c r="G87" t="n">
-        <v>250.6</v>
+        <v>-20747.87725237192</v>
       </c>
       <c r="H87" t="n">
-        <v>255.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3443,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C88" t="n">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D88" t="n">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E88" t="n">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F88" t="n">
-        <v>1813.1528</v>
+        <v>1094</v>
       </c>
       <c r="G88" t="n">
-        <v>250.3333333333333</v>
+        <v>-21841.87725237192</v>
       </c>
       <c r="H88" t="n">
-        <v>255.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3478,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C89" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D89" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E89" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F89" t="n">
-        <v>572.3179</v>
+        <v>408</v>
       </c>
       <c r="G89" t="n">
-        <v>250.2</v>
+        <v>-22249.87725237192</v>
       </c>
       <c r="H89" t="n">
-        <v>255.25</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3513,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C90" t="n">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D90" t="n">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E90" t="n">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F90" t="n">
-        <v>232.8458</v>
+        <v>413.9481</v>
       </c>
       <c r="G90" t="n">
-        <v>250.2</v>
+        <v>-21835.92915237192</v>
       </c>
       <c r="H90" t="n">
-        <v>255.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3548,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C91" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D91" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E91" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F91" t="n">
-        <v>62</v>
+        <v>310.4611</v>
       </c>
       <c r="G91" t="n">
-        <v>250.1333333333333</v>
+        <v>-21525.46805237192</v>
       </c>
       <c r="H91" t="n">
-        <v>254.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3583,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C92" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D92" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E92" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F92" t="n">
-        <v>174.7424</v>
+        <v>8173.4448</v>
       </c>
       <c r="G92" t="n">
-        <v>250.0666666666667</v>
+        <v>-21525.46805237192</v>
       </c>
       <c r="H92" t="n">
-        <v>254.85</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3618,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C93" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D93" t="n">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E93" t="n">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F93" t="n">
-        <v>577</v>
+        <v>4442.3411</v>
       </c>
       <c r="G93" t="n">
-        <v>250.2</v>
+        <v>-25967.80915237192</v>
       </c>
       <c r="H93" t="n">
-        <v>254.75</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3653,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C94" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D94" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E94" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F94" t="n">
-        <v>79.3651</v>
+        <v>6965.6246</v>
       </c>
       <c r="G94" t="n">
-        <v>250.3333333333333</v>
+        <v>-25967.80915237192</v>
       </c>
       <c r="H94" t="n">
-        <v>254.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3688,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C95" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D95" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E95" t="n">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F95" t="n">
-        <v>179.5906</v>
+        <v>15</v>
       </c>
       <c r="G95" t="n">
-        <v>250.4</v>
+        <v>-25982.80915237192</v>
       </c>
       <c r="H95" t="n">
-        <v>254.5</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3723,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C96" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D96" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E96" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F96" t="n">
-        <v>119.0476190476191</v>
+        <v>20.1584</v>
       </c>
       <c r="G96" t="n">
-        <v>250.5333333333333</v>
+        <v>-26002.96755237192</v>
       </c>
       <c r="H96" t="n">
-        <v>254.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +3758,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C97" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D97" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E97" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F97" t="n">
-        <v>244</v>
+        <v>14475.5759</v>
       </c>
       <c r="G97" t="n">
-        <v>250.4666666666667</v>
+        <v>-26002.96755237192</v>
       </c>
       <c r="H97" t="n">
-        <v>254.25</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +3793,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C98" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D98" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E98" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F98" t="n">
-        <v>63</v>
+        <v>2601.3369</v>
       </c>
       <c r="G98" t="n">
-        <v>250.3333333333333</v>
+        <v>-26002.96755237192</v>
       </c>
       <c r="H98" t="n">
-        <v>254.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +3828,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C99" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D99" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E99" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F99" t="n">
-        <v>1702.72</v>
+        <v>598.3901</v>
       </c>
       <c r="G99" t="n">
-        <v>250.3333333333333</v>
+        <v>-26002.96755237192</v>
       </c>
       <c r="H99" t="n">
-        <v>253.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +3863,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C100" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D100" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E100" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F100" t="n">
-        <v>27.5689</v>
+        <v>1162.1708</v>
       </c>
       <c r="G100" t="n">
-        <v>250.3333333333333</v>
+        <v>-26002.96755237192</v>
       </c>
       <c r="H100" t="n">
-        <v>253.8</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +3898,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C101" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D101" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E101" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F101" t="n">
-        <v>36.9265</v>
+        <v>50</v>
       </c>
       <c r="G101" t="n">
-        <v>250.2666666666667</v>
+        <v>-25952.96755237192</v>
       </c>
       <c r="H101" t="n">
-        <v>253.6333333333333</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
+        <v>253</v>
+      </c>
+      <c r="K101" t="n">
+        <v>253</v>
+      </c>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +3937,41 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C102" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D102" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E102" t="n">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F102" t="n">
-        <v>1655.7927</v>
+        <v>82.03270000000001</v>
       </c>
       <c r="G102" t="n">
-        <v>250.2666666666667</v>
+        <v>-25952.96755237192</v>
       </c>
       <c r="H102" t="n">
-        <v>253.4666666666667</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+        <v>254</v>
+      </c>
+      <c r="K102" t="n">
+        <v>253</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,36 +3980,41 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C103" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D103" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E103" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F103" t="n">
-        <v>1379.6883</v>
+        <v>330</v>
       </c>
       <c r="G103" t="n">
-        <v>250.2</v>
+        <v>-26282.96755237192</v>
       </c>
       <c r="H103" t="n">
-        <v>253.2666666666667</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+        <v>254</v>
+      </c>
+      <c r="K103" t="n">
+        <v>253</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +4023,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C104" t="n">
         <v>250</v>
       </c>
       <c r="D104" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E104" t="n">
         <v>250</v>
       </c>
       <c r="F104" t="n">
-        <v>17.23</v>
+        <v>1401.2093</v>
       </c>
       <c r="G104" t="n">
-        <v>250.2</v>
+        <v>-27684.17685237192</v>
       </c>
       <c r="H104" t="n">
-        <v>253.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,36 +4058,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C105" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D105" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E105" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F105" t="n">
-        <v>332.8829</v>
+        <v>2202.2162</v>
       </c>
       <c r="G105" t="n">
-        <v>250.0666666666667</v>
+        <v>-25481.96065237192</v>
       </c>
       <c r="H105" t="n">
-        <v>252.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,36 +4093,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C106" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D106" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E106" t="n">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F106" t="n">
-        <v>606.5692</v>
+        <v>1498.6683</v>
       </c>
       <c r="G106" t="n">
-        <v>249.9333333333333</v>
+        <v>-25481.96065237192</v>
       </c>
       <c r="H106" t="n">
-        <v>252.75</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="K106" t="n">
+        <v>251</v>
+      </c>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,36 +4132,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C107" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D107" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E107" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F107" t="n">
-        <v>2832.6126</v>
+        <v>35458.6068</v>
       </c>
       <c r="G107" t="n">
-        <v>249.8</v>
+        <v>-60940.56745237192</v>
       </c>
       <c r="H107" t="n">
-        <v>252.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>251</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,36 +4173,41 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>250</v>
+      </c>
+      <c r="C108" t="n">
+        <v>250</v>
+      </c>
+      <c r="D108" t="n">
+        <v>250</v>
+      </c>
+      <c r="E108" t="n">
+        <v>250</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1891</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-59049.56745237192</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
         <v>249</v>
       </c>
-      <c r="C108" t="n">
-        <v>249</v>
-      </c>
-      <c r="D108" t="n">
-        <v>249</v>
-      </c>
-      <c r="E108" t="n">
-        <v>249</v>
-      </c>
-      <c r="F108" t="n">
-        <v>448</v>
-      </c>
-      <c r="G108" t="n">
-        <v>249.6666666666667</v>
-      </c>
-      <c r="H108" t="n">
-        <v>252.3833333333333</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="K108" t="n">
+        <v>251</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,36 +4216,41 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C109" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D109" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E109" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F109" t="n">
-        <v>22179.9495</v>
+        <v>200</v>
       </c>
       <c r="G109" t="n">
-        <v>249.4</v>
+        <v>-59049.56745237192</v>
       </c>
       <c r="H109" t="n">
-        <v>252.1666666666667</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+        <v>250</v>
+      </c>
+      <c r="K109" t="n">
+        <v>251</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,36 +4259,41 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C110" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D110" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E110" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F110" t="n">
-        <v>6907.4702</v>
+        <v>2333</v>
       </c>
       <c r="G110" t="n">
-        <v>249.2</v>
+        <v>-59049.56745237192</v>
       </c>
       <c r="H110" t="n">
-        <v>252</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+        <v>250</v>
+      </c>
+      <c r="K110" t="n">
+        <v>251</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,36 +4302,41 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C111" t="n">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="D111" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E111" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F111" t="n">
-        <v>3075.2319</v>
+        <v>1060</v>
       </c>
       <c r="G111" t="n">
-        <v>248.7333333333333</v>
+        <v>-57989.56745237192</v>
       </c>
       <c r="H111" t="n">
-        <v>251.7833333333333</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+        <v>250</v>
+      </c>
+      <c r="K111" t="n">
+        <v>251</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,36 +4345,41 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C112" t="n">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D112" t="n">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="E112" t="n">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F112" t="n">
-        <v>8173.4448</v>
+        <v>3836.0195</v>
       </c>
       <c r="G112" t="n">
-        <v>248.2666666666667</v>
+        <v>-57989.56745237192</v>
       </c>
       <c r="H112" t="n">
-        <v>251.5666666666667</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+        <v>252</v>
+      </c>
+      <c r="K112" t="n">
+        <v>251</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4656,36 +4388,41 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C113" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D113" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E113" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F113" t="n">
-        <v>468.7953</v>
+        <v>20</v>
       </c>
       <c r="G113" t="n">
-        <v>247.9333333333333</v>
+        <v>-58009.56745237192</v>
       </c>
       <c r="H113" t="n">
-        <v>251.3666666666667</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+        <v>252</v>
+      </c>
+      <c r="K113" t="n">
+        <v>251</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4694,36 +4431,41 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C114" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D114" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E114" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F114" t="n">
-        <v>643</v>
+        <v>3836.0195</v>
       </c>
       <c r="G114" t="n">
-        <v>247.6</v>
+        <v>-61845.58695237192</v>
       </c>
       <c r="H114" t="n">
-        <v>251.1833333333333</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+        <v>250</v>
+      </c>
+      <c r="K114" t="n">
+        <v>251</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,36 +4474,41 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C115" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D115" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E115" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F115" t="n">
-        <v>337</v>
+        <v>12.585</v>
       </c>
       <c r="G115" t="n">
-        <v>247.3333333333333</v>
+        <v>-61833.00195237192</v>
       </c>
       <c r="H115" t="n">
-        <v>250.9833333333333</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+        <v>249</v>
+      </c>
+      <c r="K115" t="n">
+        <v>251</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,36 +4517,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C116" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D116" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E116" t="n">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F116" t="n">
-        <v>84.65389999999999</v>
+        <v>613.1728000000001</v>
       </c>
       <c r="G116" t="n">
-        <v>247.0666666666667</v>
+        <v>-62446.17475237192</v>
       </c>
       <c r="H116" t="n">
-        <v>250.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>251</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,36 +4558,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C117" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D117" t="n">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E117" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F117" t="n">
-        <v>979.0999</v>
+        <v>1813.1528</v>
       </c>
       <c r="G117" t="n">
-        <v>246.8</v>
+        <v>-60633.02195237192</v>
       </c>
       <c r="H117" t="n">
-        <v>250.6</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>251</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4846,40 +4599,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C118" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D118" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E118" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F118" t="n">
-        <v>4315.6003</v>
+        <v>572.3179</v>
       </c>
       <c r="G118" t="n">
-        <v>246.5333333333333</v>
+        <v>-60633.02195237192</v>
       </c>
       <c r="H118" t="n">
-        <v>250.4</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>245</v>
-      </c>
-      <c r="L118" t="n">
-        <v>245</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+        <v>251</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4888,44 +4640,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C119" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D119" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E119" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F119" t="n">
-        <v>3752.8204</v>
+        <v>232.8458</v>
       </c>
       <c r="G119" t="n">
-        <v>246.2</v>
+        <v>-60633.02195237192</v>
       </c>
       <c r="H119" t="n">
-        <v>250.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>245</v>
-      </c>
-      <c r="L119" t="n">
-        <v>245</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+        <v>251</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4934,44 +4681,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C120" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D120" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E120" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F120" t="n">
-        <v>362.8524</v>
+        <v>62</v>
       </c>
       <c r="G120" t="n">
-        <v>246</v>
+        <v>-60633.02195237192</v>
       </c>
       <c r="H120" t="n">
-        <v>250.05</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>245</v>
-      </c>
-      <c r="L120" t="n">
-        <v>245</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+        <v>251</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4980,44 +4722,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C121" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D121" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E121" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F121" t="n">
-        <v>364.3033</v>
+        <v>174.7424</v>
       </c>
       <c r="G121" t="n">
-        <v>245.8666666666667</v>
+        <v>-60633.02195237192</v>
       </c>
       <c r="H121" t="n">
-        <v>249.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>245</v>
-      </c>
-      <c r="L121" t="n">
-        <v>245</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+        <v>251</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5026,44 +4763,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C122" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D122" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E122" t="n">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F122" t="n">
-        <v>1981.6102</v>
+        <v>577</v>
       </c>
       <c r="G122" t="n">
-        <v>245.7333333333333</v>
+        <v>-60056.02195237192</v>
       </c>
       <c r="H122" t="n">
-        <v>249.7</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>246</v>
-      </c>
-      <c r="L122" t="n">
-        <v>245</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+        <v>251</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5072,44 +4804,39 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C123" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D123" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E123" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F123" t="n">
-        <v>1188.5245</v>
+        <v>79.3651</v>
       </c>
       <c r="G123" t="n">
-        <v>245.8</v>
+        <v>-59976.65685237192</v>
       </c>
       <c r="H123" t="n">
-        <v>249.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>246</v>
-      </c>
-      <c r="L123" t="n">
-        <v>245</v>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+        <v>251</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5118,44 +4845,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C124" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D124" t="n">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E124" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F124" t="n">
-        <v>4</v>
+        <v>179.5906</v>
       </c>
       <c r="G124" t="n">
-        <v>246.1333333333333</v>
+        <v>-60156.24745237192</v>
       </c>
       <c r="H124" t="n">
-        <v>249.55</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>250</v>
-      </c>
-      <c r="L124" t="n">
-        <v>245</v>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+        <v>251</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5164,42 +4886,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C125" t="n">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D125" t="n">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E125" t="n">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F125" t="n">
-        <v>4</v>
+        <v>119.0476190476191</v>
       </c>
       <c r="G125" t="n">
-        <v>246.6</v>
+        <v>-60037.1998333243</v>
       </c>
       <c r="H125" t="n">
-        <v>249.55</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>245</v>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>251</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,42 +4927,39 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C126" t="n">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D126" t="n">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E126" t="n">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F126" t="n">
-        <v>25.2383</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
-        <v>247.2</v>
+        <v>-60281.1998333243</v>
       </c>
       <c r="H126" t="n">
-        <v>249.55</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>245</v>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>251</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5252,42 +4968,39 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C127" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D127" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E127" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F127" t="n">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="G127" t="n">
-        <v>247.9333333333333</v>
+        <v>-60344.1998333243</v>
       </c>
       <c r="H127" t="n">
-        <v>249.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>245</v>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>251</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5296,42 +5009,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C128" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D128" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E128" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F128" t="n">
-        <v>19.5213</v>
+        <v>1702.72</v>
       </c>
       <c r="G128" t="n">
-        <v>248.7333333333333</v>
+        <v>-60344.1998333243</v>
       </c>
       <c r="H128" t="n">
-        <v>249.65</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>245</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>251</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5340,42 +5050,39 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C129" t="n">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D129" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E129" t="n">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F129" t="n">
-        <v>4651.7195</v>
+        <v>27.5689</v>
       </c>
       <c r="G129" t="n">
-        <v>249.6666666666667</v>
+        <v>-60371.7687333243</v>
       </c>
       <c r="H129" t="n">
-        <v>249.75</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>245</v>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>251</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5384,42 +5091,39 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C130" t="n">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D130" t="n">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E130" t="n">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F130" t="n">
-        <v>4286.0219</v>
+        <v>36.9265</v>
       </c>
       <c r="G130" t="n">
-        <v>250.6</v>
+        <v>-60371.7687333243</v>
       </c>
       <c r="H130" t="n">
-        <v>249.85</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>245</v>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>251</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5428,42 +5132,39 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C131" t="n">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D131" t="n">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E131" t="n">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F131" t="n">
-        <v>1765.72</v>
+        <v>1655.7927</v>
       </c>
       <c r="G131" t="n">
-        <v>251.5333333333333</v>
+        <v>-60371.7687333243</v>
       </c>
       <c r="H131" t="n">
-        <v>249.95</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>245</v>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>251</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5472,42 +5173,39 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C132" t="n">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D132" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E132" t="n">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F132" t="n">
-        <v>342.8818</v>
+        <v>1379.6883</v>
       </c>
       <c r="G132" t="n">
-        <v>252.4666666666667</v>
+        <v>-60371.7687333243</v>
       </c>
       <c r="H132" t="n">
-        <v>250.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>245</v>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>251</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5516,42 +5214,39 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C133" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D133" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E133" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F133" t="n">
-        <v>29.8158</v>
+        <v>17.23</v>
       </c>
       <c r="G133" t="n">
-        <v>253.4</v>
+        <v>-60354.5387333243</v>
       </c>
       <c r="H133" t="n">
-        <v>250.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>245</v>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>251</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5560,42 +5255,39 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C134" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D134" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E134" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="F134" t="n">
-        <v>339.9999</v>
+        <v>332.8829</v>
       </c>
       <c r="G134" t="n">
-        <v>254.3333333333333</v>
+        <v>-60687.42163332429</v>
       </c>
       <c r="H134" t="n">
-        <v>250.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>245</v>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>251</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5604,42 +5296,39 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C135" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D135" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E135" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="F135" t="n">
-        <v>4475.9713</v>
+        <v>606.5692</v>
       </c>
       <c r="G135" t="n">
-        <v>255.2666666666667</v>
+        <v>-60687.42163332429</v>
       </c>
       <c r="H135" t="n">
-        <v>250.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>245</v>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>251</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5648,42 +5337,39 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C136" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D136" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E136" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F136" t="n">
-        <v>235</v>
+        <v>2832.6126</v>
       </c>
       <c r="G136" t="n">
-        <v>256.0666666666667</v>
+        <v>-60687.42163332429</v>
       </c>
       <c r="H136" t="n">
-        <v>250.5</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>245</v>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>251</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5692,42 +5378,39 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C137" t="n">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D137" t="n">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E137" t="n">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F137" t="n">
-        <v>523.47</v>
+        <v>448</v>
       </c>
       <c r="G137" t="n">
-        <v>256.8666666666667</v>
+        <v>-60239.42163332429</v>
       </c>
       <c r="H137" t="n">
-        <v>250.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>245</v>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>251</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5736,42 +5419,39 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C138" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D138" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E138" t="n">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F138" t="n">
-        <v>50.7924</v>
+        <v>22179.9495</v>
       </c>
       <c r="G138" t="n">
-        <v>257.4</v>
+        <v>-82419.3711333243</v>
       </c>
       <c r="H138" t="n">
-        <v>250.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>245</v>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>251</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5780,42 +5460,39 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C139" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D139" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E139" t="n">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="F139" t="n">
-        <v>235</v>
+        <v>6907.4702</v>
       </c>
       <c r="G139" t="n">
-        <v>257.8</v>
+        <v>-82419.3711333243</v>
       </c>
       <c r="H139" t="n">
-        <v>250.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>245</v>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N139" t="n">
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>251</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5824,42 +5501,41 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C140" t="n">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="D140" t="n">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="E140" t="n">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="F140" t="n">
-        <v>4126</v>
+        <v>3075.2319</v>
       </c>
       <c r="G140" t="n">
-        <v>258</v>
+        <v>-85494.6030333243</v>
       </c>
       <c r="H140" t="n">
-        <v>251.05</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>245</v>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N140" t="n">
+        <v>248</v>
+      </c>
+      <c r="K140" t="n">
+        <v>251</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5868,42 +5544,41 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C141" t="n">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="D141" t="n">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="E141" t="n">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="F141" t="n">
-        <v>1020</v>
+        <v>8173.4448</v>
       </c>
       <c r="G141" t="n">
-        <v>258.2666666666667</v>
+        <v>-93668.04783332429</v>
       </c>
       <c r="H141" t="n">
-        <v>251.1833333333333</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
         <v>245</v>
       </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N141" t="n">
+      <c r="K141" t="n">
+        <v>251</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5912,42 +5587,41 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C142" t="n">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D142" t="n">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E142" t="n">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="F142" t="n">
-        <v>287</v>
+        <v>468.7953</v>
       </c>
       <c r="G142" t="n">
-        <v>258.4</v>
+        <v>-93199.2525333243</v>
       </c>
       <c r="H142" t="n">
-        <v>251.2666666666667</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>245</v>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N142" t="n">
+        <v>244</v>
+      </c>
+      <c r="K142" t="n">
+        <v>251</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,42 +5630,41 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C143" t="n">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D143" t="n">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E143" t="n">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F143" t="n">
-        <v>144</v>
+        <v>643</v>
       </c>
       <c r="G143" t="n">
-        <v>258.3333333333333</v>
+        <v>-93199.2525333243</v>
       </c>
       <c r="H143" t="n">
-        <v>251.3333333333333</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
         <v>245</v>
       </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N143" t="n">
+      <c r="K143" t="n">
+        <v>251</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6000,42 +5673,41 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C144" t="n">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D144" t="n">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E144" t="n">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="F144" t="n">
-        <v>742.8256</v>
+        <v>337</v>
       </c>
       <c r="G144" t="n">
-        <v>258.2</v>
+        <v>-93199.2525333243</v>
       </c>
       <c r="H144" t="n">
-        <v>251.45</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
         <v>245</v>
       </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N144" t="n">
+      <c r="K144" t="n">
+        <v>251</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6044,42 +5716,41 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C145" t="n">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="D145" t="n">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="E145" t="n">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="F145" t="n">
-        <v>161.0196</v>
+        <v>84.65389999999999</v>
       </c>
       <c r="G145" t="n">
-        <v>258.1333333333333</v>
+        <v>-93199.2525333243</v>
       </c>
       <c r="H145" t="n">
-        <v>251.6</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
         <v>245</v>
       </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N145" t="n">
+      <c r="K145" t="n">
+        <v>251</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6088,42 +5759,41 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C146" t="n">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="D146" t="n">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="E146" t="n">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="F146" t="n">
-        <v>71.173</v>
+        <v>979.0999</v>
       </c>
       <c r="G146" t="n">
-        <v>258.0666666666667</v>
+        <v>-93199.2525333243</v>
       </c>
       <c r="H146" t="n">
-        <v>251.7333333333333</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
         <v>245</v>
       </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N146" t="n">
+      <c r="K146" t="n">
+        <v>251</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6132,42 +5802,41 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="C147" t="n">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="D147" t="n">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="E147" t="n">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="F147" t="n">
-        <v>7</v>
+        <v>4315.6003</v>
       </c>
       <c r="G147" t="n">
-        <v>258.0666666666667</v>
+        <v>-93199.2525333243</v>
       </c>
       <c r="H147" t="n">
-        <v>251.9</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
         <v>245</v>
       </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N147" t="n">
+      <c r="K147" t="n">
+        <v>251</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6176,42 +5845,39 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C148" t="n">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D148" t="n">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E148" t="n">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="F148" t="n">
-        <v>900</v>
+        <v>3752.8204</v>
       </c>
       <c r="G148" t="n">
-        <v>258.1333333333333</v>
+        <v>-93199.2525333243</v>
       </c>
       <c r="H148" t="n">
-        <v>252.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>245</v>
-      </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N148" t="n">
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>251</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6220,42 +5886,41 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C149" t="n">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D149" t="n">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E149" t="n">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F149" t="n">
-        <v>143</v>
+        <v>362.8524</v>
       </c>
       <c r="G149" t="n">
-        <v>258.2666666666667</v>
+        <v>-93199.2525333243</v>
       </c>
       <c r="H149" t="n">
-        <v>252.25</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>0</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
         <v>245</v>
       </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N149" t="n">
+      <c r="K149" t="n">
+        <v>251</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6264,43 +5929,42 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="C150" t="n">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="D150" t="n">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="E150" t="n">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="F150" t="n">
-        <v>380.2282</v>
+        <v>364.3033</v>
       </c>
       <c r="G150" t="n">
-        <v>258.5333333333334</v>
+        <v>-92834.9492333243</v>
       </c>
       <c r="H150" t="n">
-        <v>252.4666666666667</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>1</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
         <v>245</v>
       </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N150" t="n">
-        <v>1.068469387755102</v>
+      <c r="K150" t="n">
+        <v>251</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -6308,36 +5972,41 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C151" t="n">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D151" t="n">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="E151" t="n">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="F151" t="n">
-        <v>46.0328</v>
+        <v>1981.6102</v>
       </c>
       <c r="G151" t="n">
-        <v>258.8</v>
+        <v>-92834.9492333243</v>
       </c>
       <c r="H151" t="n">
-        <v>252.6666666666667</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>1</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="n">
+        <v>246</v>
+      </c>
+      <c r="K151" t="n">
+        <v>251</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6346,36 +6015,41 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C152" t="n">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D152" t="n">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E152" t="n">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F152" t="n">
-        <v>558.3064000000001</v>
+        <v>1188.5245</v>
       </c>
       <c r="G152" t="n">
-        <v>259.0666666666667</v>
+        <v>-91646.4247333243</v>
       </c>
       <c r="H152" t="n">
-        <v>252.8666666666667</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>1</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="n">
+        <v>246</v>
+      </c>
+      <c r="K152" t="n">
+        <v>251</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6384,36 +6058,41 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C153" t="n">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D153" t="n">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E153" t="n">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F153" t="n">
-        <v>668.7178</v>
+        <v>4</v>
       </c>
       <c r="G153" t="n">
-        <v>259.2</v>
+        <v>-91642.4247333243</v>
       </c>
       <c r="H153" t="n">
-        <v>253.0166666666667</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>1</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="n">
+        <v>250</v>
+      </c>
+      <c r="K153" t="n">
+        <v>251</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6422,36 +6101,39 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C154" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D154" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E154" t="n">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F154" t="n">
-        <v>334.4828</v>
+        <v>4</v>
       </c>
       <c r="G154" t="n">
-        <v>259.2666666666667</v>
+        <v>-91638.4247333243</v>
       </c>
       <c r="H154" t="n">
-        <v>253.15</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>1</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="n">
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>251</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6460,36 +6142,39 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C155" t="n">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D155" t="n">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E155" t="n">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F155" t="n">
-        <v>7</v>
+        <v>25.2383</v>
       </c>
       <c r="G155" t="n">
-        <v>259.4666666666666</v>
+        <v>-91663.66303332429</v>
       </c>
       <c r="H155" t="n">
-        <v>253.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>1</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="n">
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>251</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6498,36 +6183,1228 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
+        <v>255</v>
+      </c>
+      <c r="C156" t="n">
+        <v>255</v>
+      </c>
+      <c r="D156" t="n">
+        <v>255</v>
+      </c>
+      <c r="E156" t="n">
+        <v>255</v>
+      </c>
+      <c r="F156" t="n">
+        <v>101</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-91562.66303332429</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>251</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>256</v>
+      </c>
+      <c r="C157" t="n">
+        <v>257</v>
+      </c>
+      <c r="D157" t="n">
+        <v>257</v>
+      </c>
+      <c r="E157" t="n">
+        <v>256</v>
+      </c>
+      <c r="F157" t="n">
+        <v>19.5213</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-91543.1417333243</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>251</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>259</v>
+      </c>
+      <c r="C158" t="n">
+        <v>259</v>
+      </c>
+      <c r="D158" t="n">
+        <v>259</v>
+      </c>
+      <c r="E158" t="n">
+        <v>259</v>
+      </c>
+      <c r="F158" t="n">
+        <v>4651.7195</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-86891.42223332429</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>251</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>259</v>
+      </c>
+      <c r="C159" t="n">
+        <v>259</v>
+      </c>
+      <c r="D159" t="n">
+        <v>259</v>
+      </c>
+      <c r="E159" t="n">
+        <v>259</v>
+      </c>
+      <c r="F159" t="n">
+        <v>4286.0219</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-86891.42223332429</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>251</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>259</v>
+      </c>
+      <c r="C160" t="n">
+        <v>259</v>
+      </c>
+      <c r="D160" t="n">
+        <v>259</v>
+      </c>
+      <c r="E160" t="n">
+        <v>259</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1765.72</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-86891.42223332429</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>251</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>259</v>
+      </c>
+      <c r="C161" t="n">
+        <v>259</v>
+      </c>
+      <c r="D161" t="n">
+        <v>259</v>
+      </c>
+      <c r="E161" t="n">
+        <v>259</v>
+      </c>
+      <c r="F161" t="n">
+        <v>342.8818</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-86891.42223332429</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>251</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>259</v>
+      </c>
+      <c r="C162" t="n">
+        <v>259</v>
+      </c>
+      <c r="D162" t="n">
+        <v>259</v>
+      </c>
+      <c r="E162" t="n">
+        <v>259</v>
+      </c>
+      <c r="F162" t="n">
+        <v>29.8158</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-86891.42223332429</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>251</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>259</v>
+      </c>
+      <c r="C163" t="n">
+        <v>259</v>
+      </c>
+      <c r="D163" t="n">
+        <v>259</v>
+      </c>
+      <c r="E163" t="n">
+        <v>259</v>
+      </c>
+      <c r="F163" t="n">
+        <v>339.9999</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-86891.42223332429</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>251</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>259</v>
+      </c>
+      <c r="C164" t="n">
+        <v>259</v>
+      </c>
+      <c r="D164" t="n">
+        <v>259</v>
+      </c>
+      <c r="E164" t="n">
+        <v>259</v>
+      </c>
+      <c r="F164" t="n">
+        <v>4475.9713</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-86891.42223332429</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>251</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>258</v>
+      </c>
+      <c r="C165" t="n">
+        <v>258</v>
+      </c>
+      <c r="D165" t="n">
+        <v>258</v>
+      </c>
+      <c r="E165" t="n">
+        <v>258</v>
+      </c>
+      <c r="F165" t="n">
+        <v>235</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-87126.42223332429</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>251</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>258</v>
+      </c>
+      <c r="C166" t="n">
+        <v>258</v>
+      </c>
+      <c r="D166" t="n">
+        <v>258</v>
+      </c>
+      <c r="E166" t="n">
+        <v>258</v>
+      </c>
+      <c r="F166" t="n">
+        <v>523.47</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-87126.42223332429</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>251</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>258</v>
+      </c>
+      <c r="C167" t="n">
+        <v>258</v>
+      </c>
+      <c r="D167" t="n">
+        <v>258</v>
+      </c>
+      <c r="E167" t="n">
+        <v>258</v>
+      </c>
+      <c r="F167" t="n">
+        <v>50.7924</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-87126.42223332429</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>251</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>259</v>
+      </c>
+      <c r="C168" t="n">
+        <v>259</v>
+      </c>
+      <c r="D168" t="n">
+        <v>259</v>
+      </c>
+      <c r="E168" t="n">
+        <v>259</v>
+      </c>
+      <c r="F168" t="n">
+        <v>235</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-86891.42223332429</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>251</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>258</v>
+      </c>
+      <c r="C169" t="n">
+        <v>258</v>
+      </c>
+      <c r="D169" t="n">
+        <v>258</v>
+      </c>
+      <c r="E169" t="n">
+        <v>258</v>
+      </c>
+      <c r="F169" t="n">
+        <v>4126</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-91017.42223332429</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>251</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>258</v>
+      </c>
+      <c r="C170" t="n">
+        <v>258</v>
+      </c>
+      <c r="D170" t="n">
+        <v>258</v>
+      </c>
+      <c r="E170" t="n">
+        <v>258</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1020</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-91017.42223332429</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>251</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>257</v>
+      </c>
+      <c r="C171" t="n">
+        <v>257</v>
+      </c>
+      <c r="D171" t="n">
+        <v>257</v>
+      </c>
+      <c r="E171" t="n">
+        <v>257</v>
+      </c>
+      <c r="F171" t="n">
+        <v>287</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-91304.42223332429</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>251</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>256</v>
+      </c>
+      <c r="C172" t="n">
+        <v>256</v>
+      </c>
+      <c r="D172" t="n">
+        <v>256</v>
+      </c>
+      <c r="E172" t="n">
+        <v>256</v>
+      </c>
+      <c r="F172" t="n">
+        <v>144</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-91448.42223332429</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>251</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>257</v>
+      </c>
+      <c r="C173" t="n">
+        <v>257</v>
+      </c>
+      <c r="D173" t="n">
+        <v>257</v>
+      </c>
+      <c r="E173" t="n">
+        <v>257</v>
+      </c>
+      <c r="F173" t="n">
+        <v>742.8256</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-90705.5966333243</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>251</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>258</v>
+      </c>
+      <c r="C174" t="n">
+        <v>258</v>
+      </c>
+      <c r="D174" t="n">
+        <v>258</v>
+      </c>
+      <c r="E174" t="n">
+        <v>258</v>
+      </c>
+      <c r="F174" t="n">
+        <v>161.0196</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-90544.5770333243</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>251</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>258</v>
+      </c>
+      <c r="C175" t="n">
+        <v>258</v>
+      </c>
+      <c r="D175" t="n">
+        <v>258</v>
+      </c>
+      <c r="E175" t="n">
+        <v>258</v>
+      </c>
+      <c r="F175" t="n">
+        <v>71.173</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-90544.5770333243</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>251</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>259</v>
+      </c>
+      <c r="C176" t="n">
+        <v>259</v>
+      </c>
+      <c r="D176" t="n">
+        <v>259</v>
+      </c>
+      <c r="E176" t="n">
+        <v>259</v>
+      </c>
+      <c r="F176" t="n">
+        <v>7</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-90537.5770333243</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>251</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>260</v>
+      </c>
+      <c r="C177" t="n">
+        <v>260</v>
+      </c>
+      <c r="D177" t="n">
+        <v>260</v>
+      </c>
+      <c r="E177" t="n">
+        <v>260</v>
+      </c>
+      <c r="F177" t="n">
+        <v>900</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-89637.5770333243</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>251</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>261</v>
+      </c>
+      <c r="C178" t="n">
+        <v>261</v>
+      </c>
+      <c r="D178" t="n">
+        <v>261</v>
+      </c>
+      <c r="E178" t="n">
+        <v>261</v>
+      </c>
+      <c r="F178" t="n">
+        <v>143</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-89494.5770333243</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>251</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
         <v>263</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C179" t="n">
         <v>263</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D179" t="n">
         <v>263</v>
       </c>
-      <c r="E156" t="n">
+      <c r="E179" t="n">
         <v>263</v>
       </c>
-      <c r="F156" t="n">
+      <c r="F179" t="n">
+        <v>380.2282</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-89114.3488333243</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>251</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>260</v>
+      </c>
+      <c r="C180" t="n">
+        <v>262</v>
+      </c>
+      <c r="D180" t="n">
+        <v>262</v>
+      </c>
+      <c r="E180" t="n">
+        <v>260</v>
+      </c>
+      <c r="F180" t="n">
+        <v>46.0328</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-89160.3816333243</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>251</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>262</v>
+      </c>
+      <c r="C181" t="n">
+        <v>262</v>
+      </c>
+      <c r="D181" t="n">
+        <v>262</v>
+      </c>
+      <c r="E181" t="n">
+        <v>262</v>
+      </c>
+      <c r="F181" t="n">
+        <v>558.3064000000001</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-89160.3816333243</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>251</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>260</v>
+      </c>
+      <c r="C182" t="n">
+        <v>260</v>
+      </c>
+      <c r="D182" t="n">
+        <v>260</v>
+      </c>
+      <c r="E182" t="n">
+        <v>260</v>
+      </c>
+      <c r="F182" t="n">
+        <v>668.7178</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-89829.0994333243</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>251</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>260</v>
+      </c>
+      <c r="C183" t="n">
+        <v>260</v>
+      </c>
+      <c r="D183" t="n">
+        <v>260</v>
+      </c>
+      <c r="E183" t="n">
+        <v>260</v>
+      </c>
+      <c r="F183" t="n">
+        <v>334.4828</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-89829.0994333243</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>251</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>261</v>
+      </c>
+      <c r="C184" t="n">
+        <v>261</v>
+      </c>
+      <c r="D184" t="n">
+        <v>261</v>
+      </c>
+      <c r="E184" t="n">
+        <v>261</v>
+      </c>
+      <c r="F184" t="n">
+        <v>7</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-89822.0994333243</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>251</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>263</v>
+      </c>
+      <c r="C185" t="n">
+        <v>263</v>
+      </c>
+      <c r="D185" t="n">
+        <v>263</v>
+      </c>
+      <c r="E185" t="n">
+        <v>263</v>
+      </c>
+      <c r="F185" t="n">
         <v>2</v>
       </c>
-      <c r="G156" t="n">
-        <v>259.8</v>
-      </c>
-      <c r="H156" t="n">
-        <v>253.5</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>1</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="n">
+      <c r="G185" t="n">
+        <v>-89820.0994333243</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>251</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-24 BackTest BAT.xlsx
+++ b/BackTest/2019-11-24 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M185"/>
+  <dimension ref="A1:N143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C2" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D2" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E2" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F2" t="n">
-        <v>2021.8972</v>
+        <v>297</v>
       </c>
       <c r="G2" t="n">
-        <v>158208.3221119691</v>
+        <v>261.5</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C3" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D3" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E3" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F3" t="n">
-        <v>12.1031</v>
+        <v>296</v>
       </c>
       <c r="G3" t="n">
-        <v>158208.3221119691</v>
+        <v>262</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C4" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D4" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E4" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F4" t="n">
-        <v>63.9491</v>
+        <v>2161.8957</v>
       </c>
       <c r="G4" t="n">
-        <v>158208.3221119691</v>
+        <v>262.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C5" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D5" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E5" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F5" t="n">
-        <v>216.5635</v>
+        <v>1176.2058</v>
       </c>
       <c r="G5" t="n">
-        <v>158424.8856119691</v>
+        <v>262</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C6" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D6" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E6" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F6" t="n">
-        <v>1237.0848</v>
+        <v>2159.1739</v>
       </c>
       <c r="G6" t="n">
-        <v>157187.8008119691</v>
+        <v>260.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C7" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D7" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E7" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F7" t="n">
-        <v>164.923</v>
+        <v>12.7823</v>
       </c>
       <c r="G7" t="n">
-        <v>157352.7238119691</v>
+        <v>259.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C8" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D8" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E8" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F8" t="n">
-        <v>659.8630000000001</v>
+        <v>419.37</v>
       </c>
       <c r="G8" t="n">
-        <v>157352.7238119691</v>
+        <v>258.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C9" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D9" t="n">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E9" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F9" t="n">
-        <v>1889.2203</v>
+        <v>139.1</v>
       </c>
       <c r="G9" t="n">
-        <v>155463.5035119691</v>
+        <v>258</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C10" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D10" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E10" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F10" t="n">
-        <v>1190.3969</v>
+        <v>1132</v>
       </c>
       <c r="G10" t="n">
-        <v>155463.5035119691</v>
+        <v>258</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C11" t="n">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D11" t="n">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E11" t="n">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F11" t="n">
-        <v>3271.4709</v>
+        <v>1897.297</v>
       </c>
       <c r="G11" t="n">
-        <v>158734.9744119691</v>
+        <v>257.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C12" t="n">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D12" t="n">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E12" t="n">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F12" t="n">
-        <v>1518.8871</v>
+        <v>4585</v>
       </c>
       <c r="G12" t="n">
-        <v>157216.0873119691</v>
+        <v>257</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C13" t="n">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D13" t="n">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E13" t="n">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F13" t="n">
-        <v>943.3923</v>
+        <v>9386.393700000001</v>
       </c>
       <c r="G13" t="n">
-        <v>157216.0873119691</v>
+        <v>257</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C14" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D14" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E14" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F14" t="n">
-        <v>9875.277899999999</v>
+        <v>721</v>
       </c>
       <c r="G14" t="n">
-        <v>147340.8094119691</v>
+        <v>257</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C15" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D15" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E15" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F15" t="n">
-        <v>9130.456200000001</v>
+        <v>558.5524</v>
       </c>
       <c r="G15" t="n">
-        <v>147340.8094119691</v>
+        <v>257</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C16" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D16" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E16" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F16" t="n">
-        <v>6834.9941</v>
+        <v>1227.745</v>
       </c>
       <c r="G16" t="n">
-        <v>147340.8094119691</v>
+        <v>257</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C17" t="n">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D17" t="n">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E17" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F17" t="n">
-        <v>934.0118</v>
+        <v>61559.8636</v>
       </c>
       <c r="G17" t="n">
-        <v>147340.8094119691</v>
+        <v>258.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C18" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D18" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E18" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F18" t="n">
-        <v>3578</v>
+        <v>2971.5312</v>
       </c>
       <c r="G18" t="n">
-        <v>147340.8094119691</v>
+        <v>258.5</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C19" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D19" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E19" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F19" t="n">
-        <v>4911.2355</v>
+        <v>675.8495</v>
       </c>
       <c r="G19" t="n">
-        <v>147340.8094119691</v>
+        <v>257</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C20" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D20" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E20" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F20" t="n">
-        <v>7218.0002</v>
+        <v>16813.7114</v>
       </c>
       <c r="G20" t="n">
-        <v>147340.8094119691</v>
+        <v>257</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C21" t="n">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D21" t="n">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E21" t="n">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F21" t="n">
-        <v>19265.4155</v>
+        <v>698.25</v>
       </c>
       <c r="G21" t="n">
-        <v>147340.8094119691</v>
+        <v>258</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C22" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D22" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E22" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F22" t="n">
-        <v>1509.434</v>
+        <v>713.4038</v>
       </c>
       <c r="G22" t="n">
-        <v>145831.3754119691</v>
+        <v>259</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C23" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D23" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E23" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F23" t="n">
-        <v>26</v>
+        <v>249.9999</v>
       </c>
       <c r="G23" t="n">
-        <v>145805.3754119691</v>
+        <v>259</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1215,10 +1242,10 @@
         <v>259</v>
       </c>
       <c r="F24" t="n">
-        <v>12.2038</v>
+        <v>1600</v>
       </c>
       <c r="G24" t="n">
-        <v>145793.1716119691</v>
+        <v>259</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C25" t="n">
         <v>258</v>
       </c>
       <c r="D25" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E25" t="n">
         <v>258</v>
       </c>
       <c r="F25" t="n">
-        <v>201.4573643410853</v>
+        <v>4355.5125</v>
       </c>
       <c r="G25" t="n">
-        <v>145591.714247628</v>
+        <v>258.5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C26" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D26" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E26" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F26" t="n">
-        <v>2929.913</v>
+        <v>773.6822</v>
       </c>
       <c r="G26" t="n">
-        <v>142661.801247628</v>
+        <v>258.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1311,19 +1341,19 @@
         <v>259</v>
       </c>
       <c r="C27" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D27" t="n">
         <v>259</v>
       </c>
       <c r="E27" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F27" t="n">
-        <v>869</v>
+        <v>536.91</v>
       </c>
       <c r="G27" t="n">
-        <v>143530.801247628</v>
+        <v>259</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C28" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D28" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E28" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F28" t="n">
-        <v>896.6378</v>
+        <v>1612</v>
       </c>
       <c r="G28" t="n">
-        <v>143530.801247628</v>
+        <v>259</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C29" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D29" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E29" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F29" t="n">
-        <v>2003.2493</v>
+        <v>20</v>
       </c>
       <c r="G29" t="n">
-        <v>141527.551947628</v>
+        <v>259</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C30" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D30" t="n">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E30" t="n">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F30" t="n">
-        <v>25.7504</v>
+        <v>9</v>
       </c>
       <c r="G30" t="n">
-        <v>141527.551947628</v>
+        <v>260</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C31" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D31" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E31" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F31" t="n">
-        <v>64.5579</v>
+        <v>14880.3416</v>
       </c>
       <c r="G31" t="n">
-        <v>141527.551947628</v>
+        <v>260</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,34 +1511,35 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C32" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D32" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E32" t="n">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F32" t="n">
-        <v>3271.4709</v>
+        <v>18.3536</v>
       </c>
       <c r="G32" t="n">
-        <v>138256.081047628</v>
+        <v>259</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1512,34 +1547,35 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C33" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D33" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E33" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F33" t="n">
-        <v>4499.9926</v>
+        <v>1760.5609</v>
       </c>
       <c r="G33" t="n">
-        <v>142756.073647628</v>
+        <v>259</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1547,34 +1583,35 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C34" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D34" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E34" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F34" t="n">
-        <v>2599.4235</v>
+        <v>2500</v>
       </c>
       <c r="G34" t="n">
-        <v>142756.073647628</v>
+        <v>259</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C35" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D35" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E35" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F35" t="n">
-        <v>127</v>
+        <v>8274.4889</v>
       </c>
       <c r="G35" t="n">
-        <v>142883.073647628</v>
+        <v>259.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,34 +1655,35 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C36" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D36" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E36" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F36" t="n">
-        <v>111.48</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>142994.553647628</v>
+        <v>260.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1652,34 +1691,35 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C37" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D37" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E37" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F37" t="n">
-        <v>2885.2935</v>
+        <v>200</v>
       </c>
       <c r="G37" t="n">
-        <v>145879.847147628</v>
+        <v>259.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C38" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D38" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E38" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F38" t="n">
-        <v>6499.9965</v>
+        <v>300</v>
       </c>
       <c r="G38" t="n">
-        <v>145879.847147628</v>
+        <v>258</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C39" t="n">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D39" t="n">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E39" t="n">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F39" t="n">
-        <v>109.6268</v>
+        <v>1831.4158</v>
       </c>
       <c r="G39" t="n">
-        <v>145879.847147628</v>
+        <v>257.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C40" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D40" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E40" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F40" t="n">
-        <v>428</v>
+        <v>14</v>
       </c>
       <c r="G40" t="n">
-        <v>145451.847147628</v>
+        <v>257</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C41" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D41" t="n">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E41" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F41" t="n">
-        <v>12513.6802</v>
+        <v>195251.8588</v>
       </c>
       <c r="G41" t="n">
-        <v>132938.166947628</v>
+        <v>256.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,34 +1871,35 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C42" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D42" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E42" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F42" t="n">
-        <v>64.5579</v>
+        <v>5</v>
       </c>
       <c r="G42" t="n">
-        <v>133002.724847628</v>
+        <v>256.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C43" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D43" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E43" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F43" t="n">
-        <v>1033</v>
+        <v>4.3536</v>
       </c>
       <c r="G43" t="n">
-        <v>133002.724847628</v>
+        <v>257</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C44" t="n">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D44" t="n">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E44" t="n">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F44" t="n">
-        <v>297</v>
+        <v>2885.2935</v>
       </c>
       <c r="G44" t="n">
-        <v>133299.724847628</v>
+        <v>256.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C45" t="n">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D45" t="n">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E45" t="n">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F45" t="n">
-        <v>296</v>
+        <v>508.9999</v>
       </c>
       <c r="G45" t="n">
-        <v>133299.724847628</v>
+        <v>256.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C46" t="n">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D46" t="n">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E46" t="n">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F46" t="n">
-        <v>2161.8957</v>
+        <v>1094</v>
       </c>
       <c r="G46" t="n">
-        <v>135461.620547628</v>
+        <v>256.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C47" t="n">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D47" t="n">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E47" t="n">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F47" t="n">
-        <v>1176.2058</v>
+        <v>408</v>
       </c>
       <c r="G47" t="n">
-        <v>134285.414747628</v>
+        <v>255.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C48" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D48" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E48" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F48" t="n">
-        <v>2159.1739</v>
+        <v>413.9481</v>
       </c>
       <c r="G48" t="n">
-        <v>132126.240847628</v>
+        <v>255.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C49" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D49" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E49" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F49" t="n">
-        <v>12.7823</v>
+        <v>310.4611</v>
       </c>
       <c r="G49" t="n">
-        <v>132113.458547628</v>
+        <v>256.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C50" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D50" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E50" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F50" t="n">
-        <v>419.37</v>
+        <v>8173.4448</v>
       </c>
       <c r="G50" t="n">
-        <v>131694.0885476281</v>
+        <v>257</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C51" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D51" t="n">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E51" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F51" t="n">
-        <v>139.1</v>
+        <v>4442.3411</v>
       </c>
       <c r="G51" t="n">
-        <v>131694.0885476281</v>
+        <v>256</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C52" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D52" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E52" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F52" t="n">
-        <v>1132</v>
+        <v>6965.6246</v>
       </c>
       <c r="G52" t="n">
-        <v>131694.0885476281</v>
+        <v>255</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C53" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D53" t="n">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E53" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F53" t="n">
-        <v>1897.297</v>
+        <v>15</v>
       </c>
       <c r="G53" t="n">
-        <v>129796.791547628</v>
+        <v>254.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C54" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D54" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E54" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F54" t="n">
-        <v>4585</v>
+        <v>20.1584</v>
       </c>
       <c r="G54" t="n">
-        <v>129796.791547628</v>
+        <v>253.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C55" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D55" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E55" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F55" t="n">
-        <v>9386.393700000001</v>
+        <v>14475.5759</v>
       </c>
       <c r="G55" t="n">
-        <v>129796.791547628</v>
+        <v>253</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C56" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D56" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E56" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F56" t="n">
-        <v>721</v>
+        <v>2601.3369</v>
       </c>
       <c r="G56" t="n">
-        <v>129796.791547628</v>
+        <v>253</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C57" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D57" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E57" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F57" t="n">
-        <v>558.5524</v>
+        <v>598.3901</v>
       </c>
       <c r="G57" t="n">
-        <v>129796.791547628</v>
+        <v>253</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C58" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D58" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E58" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F58" t="n">
-        <v>1227.745</v>
+        <v>1162.1708</v>
       </c>
       <c r="G58" t="n">
-        <v>129796.791547628</v>
+        <v>253</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C59" t="n">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D59" t="n">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E59" t="n">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F59" t="n">
-        <v>61559.8636</v>
+        <v>50</v>
       </c>
       <c r="G59" t="n">
-        <v>191356.655147628</v>
+        <v>253.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C60" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D60" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E60" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F60" t="n">
-        <v>2971.5312</v>
+        <v>82.03270000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>188385.123947628</v>
+        <v>254</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C61" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D61" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E61" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F61" t="n">
-        <v>675.8495</v>
+        <v>330</v>
       </c>
       <c r="G61" t="n">
-        <v>188385.123947628</v>
+        <v>253</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C62" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D62" t="n">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E62" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F62" t="n">
-        <v>16813.7114</v>
+        <v>1401.2093</v>
       </c>
       <c r="G62" t="n">
-        <v>188385.123947628</v>
+        <v>251</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C63" t="n">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D63" t="n">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E63" t="n">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F63" t="n">
-        <v>698.25</v>
+        <v>2202.2162</v>
       </c>
       <c r="G63" t="n">
-        <v>189083.373947628</v>
+        <v>250.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C64" t="n">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D64" t="n">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="E64" t="n">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F64" t="n">
-        <v>713.4038</v>
+        <v>1498.6683</v>
       </c>
       <c r="G64" t="n">
-        <v>189083.373947628</v>
+        <v>251</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C65" t="n">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D65" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E65" t="n">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F65" t="n">
-        <v>249.9999</v>
+        <v>35458.6068</v>
       </c>
       <c r="G65" t="n">
-        <v>189083.373947628</v>
+        <v>250</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C66" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D66" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E66" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F66" t="n">
-        <v>1600</v>
+        <v>1891</v>
       </c>
       <c r="G66" t="n">
-        <v>189083.373947628</v>
+        <v>249.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C67" t="n">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D67" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E67" t="n">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F67" t="n">
-        <v>4355.5125</v>
+        <v>200</v>
       </c>
       <c r="G67" t="n">
-        <v>184727.861447628</v>
+        <v>250</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C68" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D68" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E68" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F68" t="n">
-        <v>773.6822</v>
+        <v>2333</v>
       </c>
       <c r="G68" t="n">
-        <v>185501.543647628</v>
+        <v>250</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C69" t="n">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D69" t="n">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E69" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F69" t="n">
-        <v>536.91</v>
+        <v>1060</v>
       </c>
       <c r="G69" t="n">
-        <v>185501.543647628</v>
+        <v>251</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C70" t="n">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D70" t="n">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E70" t="n">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F70" t="n">
-        <v>1612</v>
+        <v>3836.0195</v>
       </c>
       <c r="G70" t="n">
-        <v>185501.543647628</v>
+        <v>252</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C71" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D71" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E71" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F71" t="n">
         <v>20</v>
       </c>
       <c r="G71" t="n">
-        <v>185501.543647628</v>
+        <v>251</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C72" t="n">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D72" t="n">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="E72" t="n">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="F72" t="n">
-        <v>9</v>
+        <v>3836.0195</v>
       </c>
       <c r="G72" t="n">
-        <v>185510.543647628</v>
+        <v>249.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C73" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D73" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E73" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F73" t="n">
-        <v>14880.3416</v>
+        <v>12.585</v>
       </c>
       <c r="G73" t="n">
-        <v>170630.2020476281</v>
+        <v>249.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C74" t="n">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D74" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E74" t="n">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F74" t="n">
-        <v>18.3536</v>
+        <v>613.1728000000001</v>
       </c>
       <c r="G74" t="n">
-        <v>170630.2020476281</v>
+        <v>249.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C75" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D75" t="n">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E75" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F75" t="n">
-        <v>1760.5609</v>
+        <v>1813.1528</v>
       </c>
       <c r="G75" t="n">
-        <v>170630.2020476281</v>
+        <v>249.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C76" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D76" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E76" t="n">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F76" t="n">
-        <v>2500</v>
+        <v>572.3179</v>
       </c>
       <c r="G76" t="n">
-        <v>170630.2020476281</v>
+        <v>250</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C77" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D77" t="n">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="E77" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F77" t="n">
-        <v>8274.4889</v>
+        <v>232.8458</v>
       </c>
       <c r="G77" t="n">
-        <v>178904.6909476281</v>
+        <v>250</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C78" t="n">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D78" t="n">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="E78" t="n">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="G78" t="n">
-        <v>178906.6909476281</v>
+        <v>250</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C79" t="n">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D79" t="n">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="E79" t="n">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F79" t="n">
-        <v>200</v>
+        <v>174.7424</v>
       </c>
       <c r="G79" t="n">
-        <v>178706.6909476281</v>
+        <v>250</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C80" t="n">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D80" t="n">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E80" t="n">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F80" t="n">
-        <v>300</v>
+        <v>577</v>
       </c>
       <c r="G80" t="n">
-        <v>178706.6909476281</v>
+        <v>250.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C81" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D81" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E81" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F81" t="n">
-        <v>1831.4158</v>
+        <v>79.3651</v>
       </c>
       <c r="G81" t="n">
-        <v>176875.2751476281</v>
+        <v>251.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C82" t="n">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D82" t="n">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E82" t="n">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F82" t="n">
-        <v>14</v>
+        <v>179.5906</v>
       </c>
       <c r="G82" t="n">
-        <v>176875.2751476281</v>
+        <v>251.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C83" t="n">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D83" t="n">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E83" t="n">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F83" t="n">
-        <v>195251.8588</v>
+        <v>119.0476190476191</v>
       </c>
       <c r="G83" t="n">
-        <v>-18376.58365237192</v>
+        <v>251.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C84" t="n">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D84" t="n">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E84" t="n">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F84" t="n">
-        <v>5</v>
+        <v>244</v>
       </c>
       <c r="G84" t="n">
-        <v>-18371.58365237192</v>
+        <v>251.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C85" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D85" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E85" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F85" t="n">
-        <v>4.3536</v>
+        <v>63</v>
       </c>
       <c r="G85" t="n">
-        <v>-18371.58365237192</v>
+        <v>250.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C86" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D86" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E86" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F86" t="n">
-        <v>2885.2935</v>
+        <v>1702.72</v>
       </c>
       <c r="G86" t="n">
-        <v>-21256.87715237192</v>
+        <v>250</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C87" t="n">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D87" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E87" t="n">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F87" t="n">
-        <v>508.9999</v>
+        <v>27.5689</v>
       </c>
       <c r="G87" t="n">
-        <v>-20747.87725237192</v>
+        <v>249.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C88" t="n">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D88" t="n">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E88" t="n">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F88" t="n">
-        <v>1094</v>
+        <v>36.9265</v>
       </c>
       <c r="G88" t="n">
-        <v>-21841.87725237192</v>
+        <v>249</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C89" t="n">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D89" t="n">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E89" t="n">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F89" t="n">
-        <v>408</v>
+        <v>1655.7927</v>
       </c>
       <c r="G89" t="n">
-        <v>-22249.87725237192</v>
+        <v>249</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C90" t="n">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D90" t="n">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E90" t="n">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F90" t="n">
-        <v>413.9481</v>
+        <v>1379.6883</v>
       </c>
       <c r="G90" t="n">
-        <v>-21835.92915237192</v>
+        <v>249</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C91" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D91" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E91" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F91" t="n">
-        <v>310.4611</v>
+        <v>17.23</v>
       </c>
       <c r="G91" t="n">
-        <v>-21525.46805237192</v>
+        <v>249.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C92" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D92" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E92" t="n">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F92" t="n">
-        <v>8173.4448</v>
+        <v>332.8829</v>
       </c>
       <c r="G92" t="n">
-        <v>-21525.46805237192</v>
+        <v>249</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C93" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D93" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E93" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F93" t="n">
-        <v>4442.3411</v>
+        <v>606.5692</v>
       </c>
       <c r="G93" t="n">
-        <v>-25967.80915237192</v>
+        <v>248</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C94" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D94" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E94" t="n">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F94" t="n">
-        <v>6965.6246</v>
+        <v>2832.6126</v>
       </c>
       <c r="G94" t="n">
-        <v>-25967.80915237192</v>
+        <v>248</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C95" t="n">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D95" t="n">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E95" t="n">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F95" t="n">
-        <v>15</v>
+        <v>448</v>
       </c>
       <c r="G95" t="n">
-        <v>-25982.80915237192</v>
+        <v>248.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C96" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D96" t="n">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E96" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F96" t="n">
-        <v>20.1584</v>
+        <v>22179.9495</v>
       </c>
       <c r="G96" t="n">
-        <v>-26002.96755237192</v>
+        <v>248.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C97" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D97" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E97" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F97" t="n">
-        <v>14475.5759</v>
+        <v>6907.4702</v>
       </c>
       <c r="G97" t="n">
-        <v>-26002.96755237192</v>
+        <v>248</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C98" t="n">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D98" t="n">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E98" t="n">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F98" t="n">
-        <v>2601.3369</v>
+        <v>3075.2319</v>
       </c>
       <c r="G98" t="n">
-        <v>-26002.96755237192</v>
+        <v>246.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +3923,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C99" t="n">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D99" t="n">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E99" t="n">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F99" t="n">
-        <v>598.3901</v>
+        <v>8173.4448</v>
       </c>
       <c r="G99" t="n">
-        <v>-26002.96755237192</v>
+        <v>244.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +3959,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C100" t="n">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D100" t="n">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E100" t="n">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F100" t="n">
-        <v>1162.1708</v>
+        <v>468.7953</v>
       </c>
       <c r="G100" t="n">
-        <v>-26002.96755237192</v>
+        <v>244.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,346 +3995,349 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C101" t="n">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D101" t="n">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E101" t="n">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F101" t="n">
-        <v>50</v>
+        <v>643</v>
       </c>
       <c r="G101" t="n">
-        <v>-25952.96755237192</v>
+        <v>245</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>253</v>
-      </c>
-      <c r="K101" t="n">
-        <v>253</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C102" t="n">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D102" t="n">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E102" t="n">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F102" t="n">
-        <v>82.03270000000001</v>
+        <v>337</v>
       </c>
       <c r="G102" t="n">
-        <v>-25952.96755237192</v>
+        <v>245</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>254</v>
-      </c>
-      <c r="K102" t="n">
-        <v>253</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>245</v>
+      </c>
+      <c r="C103" t="n">
+        <v>245</v>
+      </c>
+      <c r="D103" t="n">
+        <v>245</v>
+      </c>
+      <c r="E103" t="n">
+        <v>245</v>
+      </c>
+      <c r="F103" t="n">
+        <v>84.65389999999999</v>
+      </c>
+      <c r="G103" t="n">
+        <v>245</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>245</v>
+      </c>
+      <c r="C104" t="n">
+        <v>245</v>
+      </c>
+      <c r="D104" t="n">
+        <v>245</v>
+      </c>
+      <c r="E104" t="n">
+        <v>245</v>
+      </c>
+      <c r="F104" t="n">
+        <v>979.0999</v>
+      </c>
+      <c r="G104" t="n">
+        <v>245</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>245</v>
+      </c>
+      <c r="K104" t="n">
+        <v>245</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>245</v>
+      </c>
+      <c r="C105" t="n">
+        <v>245</v>
+      </c>
+      <c r="D105" t="n">
+        <v>245</v>
+      </c>
+      <c r="E105" t="n">
+        <v>245</v>
+      </c>
+      <c r="F105" t="n">
+        <v>4315.6003</v>
+      </c>
+      <c r="G105" t="n">
+        <v>245</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>245</v>
+      </c>
+      <c r="K105" t="n">
+        <v>245</v>
+      </c>
+      <c r="L105" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>252</v>
-      </c>
-      <c r="C103" t="n">
-        <v>252</v>
-      </c>
-      <c r="D103" t="n">
-        <v>252</v>
-      </c>
-      <c r="E103" t="n">
-        <v>252</v>
-      </c>
-      <c r="F103" t="n">
-        <v>330</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-26282.96755237192</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>254</v>
-      </c>
-      <c r="K103" t="n">
-        <v>253</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>245</v>
+      </c>
+      <c r="C106" t="n">
+        <v>245</v>
+      </c>
+      <c r="D106" t="n">
+        <v>245</v>
+      </c>
+      <c r="E106" t="n">
+        <v>245</v>
+      </c>
+      <c r="F106" t="n">
+        <v>3752.8204</v>
+      </c>
+      <c r="G106" t="n">
+        <v>245</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>245</v>
+      </c>
+      <c r="K106" t="n">
+        <v>245</v>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>252</v>
-      </c>
-      <c r="C104" t="n">
-        <v>250</v>
-      </c>
-      <c r="D104" t="n">
-        <v>252</v>
-      </c>
-      <c r="E104" t="n">
-        <v>250</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1401.2093</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-27684.17685237192</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>251</v>
-      </c>
-      <c r="C105" t="n">
-        <v>251</v>
-      </c>
-      <c r="D105" t="n">
-        <v>251</v>
-      </c>
-      <c r="E105" t="n">
-        <v>251</v>
-      </c>
-      <c r="F105" t="n">
-        <v>2202.2162</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-25481.96065237192</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>251</v>
-      </c>
-      <c r="C106" t="n">
-        <v>251</v>
-      </c>
-      <c r="D106" t="n">
-        <v>251</v>
-      </c>
-      <c r="E106" t="n">
-        <v>251</v>
-      </c>
-      <c r="F106" t="n">
-        <v>1498.6683</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-25481.96065237192</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>251</v>
-      </c>
-      <c r="K106" t="n">
-        <v>251</v>
-      </c>
-      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C107" t="n">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D107" t="n">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E107" t="n">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F107" t="n">
-        <v>35458.6068</v>
+        <v>362.8524</v>
       </c>
       <c r="G107" t="n">
-        <v>-60940.56745237192</v>
+        <v>245</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>245</v>
+      </c>
       <c r="K107" t="n">
-        <v>251</v>
-      </c>
-      <c r="L107" t="inlineStr">
+        <v>245</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>245</v>
+      </c>
+      <c r="C108" t="n">
+        <v>246</v>
+      </c>
+      <c r="D108" t="n">
+        <v>246</v>
+      </c>
+      <c r="E108" t="n">
+        <v>245</v>
+      </c>
+      <c r="F108" t="n">
+        <v>364.3033</v>
+      </c>
+      <c r="G108" t="n">
+        <v>245.5</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>245</v>
+      </c>
+      <c r="K108" t="n">
+        <v>245</v>
+      </c>
+      <c r="L108" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>250</v>
-      </c>
-      <c r="C108" t="n">
-        <v>250</v>
-      </c>
-      <c r="D108" t="n">
-        <v>250</v>
-      </c>
-      <c r="E108" t="n">
-        <v>250</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1891</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-59049.56745237192</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>249</v>
-      </c>
-      <c r="K108" t="n">
-        <v>251</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C109" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D109" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E109" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F109" t="n">
-        <v>200</v>
+        <v>1981.6102</v>
       </c>
       <c r="G109" t="n">
-        <v>-59049.56745237192</v>
+        <v>246</v>
       </c>
       <c r="H109" t="n">
         <v>1</v>
@@ -4240,10 +4346,10 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K109" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4253,6 +4359,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4271,10 +4378,10 @@
         <v>250</v>
       </c>
       <c r="F110" t="n">
-        <v>2333</v>
+        <v>1188.5245</v>
       </c>
       <c r="G110" t="n">
-        <v>-59049.56745237192</v>
+        <v>248</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
@@ -4283,10 +4390,10 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K110" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4296,40 +4403,39 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C111" t="n">
+        <v>253</v>
+      </c>
+      <c r="D111" t="n">
+        <v>253</v>
+      </c>
+      <c r="E111" t="n">
         <v>252</v>
       </c>
-      <c r="D111" t="n">
-        <v>252</v>
-      </c>
-      <c r="E111" t="n">
-        <v>250</v>
-      </c>
       <c r="F111" t="n">
-        <v>1060</v>
+        <v>4</v>
       </c>
       <c r="G111" t="n">
-        <v>-57989.56745237192</v>
+        <v>251.5</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>250</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4339,40 +4445,39 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C112" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D112" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E112" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F112" t="n">
-        <v>3836.0195</v>
+        <v>4</v>
       </c>
       <c r="G112" t="n">
-        <v>-57989.56745237192</v>
+        <v>254</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>252</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4382,40 +4487,39 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C113" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D113" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E113" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F113" t="n">
-        <v>20</v>
+        <v>25.2383</v>
       </c>
       <c r="G113" t="n">
-        <v>-58009.56745237192</v>
+        <v>254.5</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>252</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4425,40 +4529,39 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C114" t="n">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D114" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E114" t="n">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F114" t="n">
-        <v>3836.0195</v>
+        <v>101</v>
       </c>
       <c r="G114" t="n">
-        <v>-61845.58695237192</v>
+        <v>254.5</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>250</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4468,40 +4571,39 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C115" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D115" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E115" t="n">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="F115" t="n">
-        <v>12.585</v>
+        <v>19.5213</v>
       </c>
       <c r="G115" t="n">
-        <v>-61833.00195237192</v>
+        <v>256</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>249</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4511,28 +4613,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C116" t="n">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D116" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E116" t="n">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="F116" t="n">
-        <v>613.1728000000001</v>
+        <v>4651.7195</v>
       </c>
       <c r="G116" t="n">
-        <v>-62446.17475237192</v>
+        <v>258</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4542,7 +4645,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4552,28 +4655,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C117" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D117" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E117" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F117" t="n">
-        <v>1813.1528</v>
+        <v>4286.0219</v>
       </c>
       <c r="G117" t="n">
-        <v>-60633.02195237192</v>
+        <v>259</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4583,7 +4687,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4593,28 +4697,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C118" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D118" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E118" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F118" t="n">
-        <v>572.3179</v>
+        <v>1765.72</v>
       </c>
       <c r="G118" t="n">
-        <v>-60633.02195237192</v>
+        <v>259</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4624,7 +4729,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4634,28 +4739,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C119" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D119" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E119" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F119" t="n">
-        <v>232.8458</v>
+        <v>342.8818</v>
       </c>
       <c r="G119" t="n">
-        <v>-60633.02195237192</v>
+        <v>259</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4665,7 +4771,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4675,28 +4781,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C120" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D120" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E120" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F120" t="n">
-        <v>62</v>
+        <v>29.8158</v>
       </c>
       <c r="G120" t="n">
-        <v>-60633.02195237192</v>
+        <v>259</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4706,7 +4813,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -4716,28 +4823,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C121" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D121" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E121" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F121" t="n">
-        <v>174.7424</v>
+        <v>339.9999</v>
       </c>
       <c r="G121" t="n">
-        <v>-60633.02195237192</v>
+        <v>259</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4747,7 +4855,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -4757,28 +4865,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C122" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D122" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E122" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F122" t="n">
-        <v>577</v>
+        <v>4475.9713</v>
       </c>
       <c r="G122" t="n">
-        <v>-60056.02195237192</v>
+        <v>259</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4788,7 +4897,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -4798,28 +4907,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C123" t="n">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D123" t="n">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E123" t="n">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F123" t="n">
-        <v>79.3651</v>
+        <v>235</v>
       </c>
       <c r="G123" t="n">
-        <v>-59976.65685237192</v>
+        <v>258.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4829,7 +4939,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -4839,28 +4949,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C124" t="n">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D124" t="n">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E124" t="n">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F124" t="n">
-        <v>179.5906</v>
+        <v>523.47</v>
       </c>
       <c r="G124" t="n">
-        <v>-60156.24745237192</v>
+        <v>258</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4870,7 +4981,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -4880,28 +4991,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C125" t="n">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D125" t="n">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E125" t="n">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F125" t="n">
-        <v>119.0476190476191</v>
+        <v>50.7924</v>
       </c>
       <c r="G125" t="n">
-        <v>-60037.1998333243</v>
+        <v>258</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4911,7 +5023,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -4921,28 +5033,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C126" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D126" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E126" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="F126" t="n">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="G126" t="n">
-        <v>-60281.1998333243</v>
+        <v>258.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4952,7 +5065,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -4962,28 +5075,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C127" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D127" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E127" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F127" t="n">
-        <v>63</v>
+        <v>4126</v>
       </c>
       <c r="G127" t="n">
-        <v>-60344.1998333243</v>
+        <v>258.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4993,7 +5107,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5003,28 +5117,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C128" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D128" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E128" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F128" t="n">
-        <v>1702.72</v>
+        <v>1020</v>
       </c>
       <c r="G128" t="n">
-        <v>-60344.1998333243</v>
+        <v>258</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5034,7 +5149,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5044,28 +5159,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C129" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D129" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E129" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F129" t="n">
-        <v>27.5689</v>
+        <v>287</v>
       </c>
       <c r="G129" t="n">
-        <v>-60371.7687333243</v>
+        <v>257.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5075,7 +5191,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5085,28 +5201,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C130" t="n">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D130" t="n">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E130" t="n">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F130" t="n">
-        <v>36.9265</v>
+        <v>144</v>
       </c>
       <c r="G130" t="n">
-        <v>-60371.7687333243</v>
+        <v>256.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5116,7 +5233,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5126,28 +5243,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C131" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D131" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="E131" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F131" t="n">
-        <v>1655.7927</v>
+        <v>742.8256</v>
       </c>
       <c r="G131" t="n">
-        <v>-60371.7687333243</v>
+        <v>256.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5157,7 +5275,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5167,28 +5285,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C132" t="n">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="D132" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E132" t="n">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="F132" t="n">
-        <v>1379.6883</v>
+        <v>161.0196</v>
       </c>
       <c r="G132" t="n">
-        <v>-60371.7687333243</v>
+        <v>257.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5198,7 +5317,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5208,28 +5327,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C133" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D133" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E133" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F133" t="n">
-        <v>17.23</v>
+        <v>71.173</v>
       </c>
       <c r="G133" t="n">
-        <v>-60354.5387333243</v>
+        <v>258</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5239,7 +5359,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5249,28 +5369,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C134" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="D134" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="E134" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="F134" t="n">
-        <v>332.8829</v>
+        <v>7</v>
       </c>
       <c r="G134" t="n">
-        <v>-60687.42163332429</v>
+        <v>258.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5280,7 +5401,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5290,28 +5411,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C135" t="n">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D135" t="n">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="E135" t="n">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="F135" t="n">
-        <v>606.5692</v>
+        <v>900</v>
       </c>
       <c r="G135" t="n">
-        <v>-60687.42163332429</v>
+        <v>259.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5321,7 +5443,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5331,28 +5453,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C136" t="n">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D136" t="n">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E136" t="n">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="F136" t="n">
-        <v>2832.6126</v>
+        <v>143</v>
       </c>
       <c r="G136" t="n">
-        <v>-60687.42163332429</v>
+        <v>260.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5362,7 +5485,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5372,28 +5495,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="C137" t="n">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="D137" t="n">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="E137" t="n">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="F137" t="n">
-        <v>448</v>
+        <v>380.2282</v>
       </c>
       <c r="G137" t="n">
-        <v>-60239.42163332429</v>
+        <v>262</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5403,7 +5527,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5413,28 +5537,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C138" t="n">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="D138" t="n">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="E138" t="n">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="F138" t="n">
-        <v>22179.9495</v>
+        <v>46.0328</v>
       </c>
       <c r="G138" t="n">
-        <v>-82419.3711333243</v>
+        <v>262.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5444,7 +5569,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5454,28 +5579,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C139" t="n">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="D139" t="n">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="E139" t="n">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="F139" t="n">
-        <v>6907.4702</v>
+        <v>558.3064000000001</v>
       </c>
       <c r="G139" t="n">
-        <v>-82419.3711333243</v>
+        <v>262</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5485,7 +5611,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5495,40 +5621,39 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="C140" t="n">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="D140" t="n">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="E140" t="n">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="F140" t="n">
-        <v>3075.2319</v>
+        <v>668.7178</v>
       </c>
       <c r="G140" t="n">
-        <v>-85494.6030333243</v>
+        <v>261</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>248</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5538,40 +5663,39 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="C141" t="n">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="D141" t="n">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="E141" t="n">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="F141" t="n">
-        <v>8173.4448</v>
+        <v>334.4828</v>
       </c>
       <c r="G141" t="n">
-        <v>-93668.04783332429</v>
+        <v>260</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>245</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5581,40 +5705,39 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="C142" t="n">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="D142" t="n">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="E142" t="n">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="F142" t="n">
-        <v>468.7953</v>
+        <v>7</v>
       </c>
       <c r="G142" t="n">
-        <v>-93199.2525333243</v>
+        <v>260.5</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>244</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5624,1788 +5747,50 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="C143" t="n">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="D143" t="n">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="E143" t="n">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="F143" t="n">
-        <v>643</v>
+        <v>2</v>
       </c>
       <c r="G143" t="n">
-        <v>-93199.2525333243</v>
+        <v>262</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>245</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>245</v>
-      </c>
-      <c r="C144" t="n">
-        <v>245</v>
-      </c>
-      <c r="D144" t="n">
-        <v>245</v>
-      </c>
-      <c r="E144" t="n">
-        <v>245</v>
-      </c>
-      <c r="F144" t="n">
-        <v>337</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-93199.2525333243</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>245</v>
-      </c>
-      <c r="K144" t="n">
-        <v>251</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>245</v>
-      </c>
-      <c r="C145" t="n">
-        <v>245</v>
-      </c>
-      <c r="D145" t="n">
-        <v>245</v>
-      </c>
-      <c r="E145" t="n">
-        <v>245</v>
-      </c>
-      <c r="F145" t="n">
-        <v>84.65389999999999</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-93199.2525333243</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>245</v>
-      </c>
-      <c r="K145" t="n">
-        <v>251</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>245</v>
-      </c>
-      <c r="C146" t="n">
-        <v>245</v>
-      </c>
-      <c r="D146" t="n">
-        <v>245</v>
-      </c>
-      <c r="E146" t="n">
-        <v>245</v>
-      </c>
-      <c r="F146" t="n">
-        <v>979.0999</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-93199.2525333243</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>245</v>
-      </c>
-      <c r="K146" t="n">
-        <v>251</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>245</v>
-      </c>
-      <c r="C147" t="n">
-        <v>245</v>
-      </c>
-      <c r="D147" t="n">
-        <v>245</v>
-      </c>
-      <c r="E147" t="n">
-        <v>245</v>
-      </c>
-      <c r="F147" t="n">
-        <v>4315.6003</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-93199.2525333243</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>245</v>
-      </c>
-      <c r="K147" t="n">
-        <v>251</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>245</v>
-      </c>
-      <c r="C148" t="n">
-        <v>245</v>
-      </c>
-      <c r="D148" t="n">
-        <v>245</v>
-      </c>
-      <c r="E148" t="n">
-        <v>245</v>
-      </c>
-      <c r="F148" t="n">
-        <v>3752.8204</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-93199.2525333243</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>251</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>245</v>
-      </c>
-      <c r="C149" t="n">
-        <v>245</v>
-      </c>
-      <c r="D149" t="n">
-        <v>245</v>
-      </c>
-      <c r="E149" t="n">
-        <v>245</v>
-      </c>
-      <c r="F149" t="n">
-        <v>362.8524</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-93199.2525333243</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>245</v>
-      </c>
-      <c r="K149" t="n">
-        <v>251</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>245</v>
-      </c>
-      <c r="C150" t="n">
-        <v>246</v>
-      </c>
-      <c r="D150" t="n">
-        <v>246</v>
-      </c>
-      <c r="E150" t="n">
-        <v>245</v>
-      </c>
-      <c r="F150" t="n">
-        <v>364.3033</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-92834.9492333243</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>245</v>
-      </c>
-      <c r="K150" t="n">
-        <v>251</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>246</v>
-      </c>
-      <c r="C151" t="n">
-        <v>246</v>
-      </c>
-      <c r="D151" t="n">
-        <v>246</v>
-      </c>
-      <c r="E151" t="n">
-        <v>246</v>
-      </c>
-      <c r="F151" t="n">
-        <v>1981.6102</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-92834.9492333243</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>246</v>
-      </c>
-      <c r="K151" t="n">
-        <v>251</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>250</v>
-      </c>
-      <c r="C152" t="n">
-        <v>250</v>
-      </c>
-      <c r="D152" t="n">
-        <v>250</v>
-      </c>
-      <c r="E152" t="n">
-        <v>250</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1188.5245</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-91646.4247333243</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>246</v>
-      </c>
-      <c r="K152" t="n">
-        <v>251</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>252</v>
-      </c>
-      <c r="C153" t="n">
-        <v>253</v>
-      </c>
-      <c r="D153" t="n">
-        <v>253</v>
-      </c>
-      <c r="E153" t="n">
-        <v>252</v>
-      </c>
-      <c r="F153" t="n">
-        <v>4</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-91642.4247333243</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>250</v>
-      </c>
-      <c r="K153" t="n">
-        <v>251</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>254</v>
-      </c>
-      <c r="C154" t="n">
-        <v>255</v>
-      </c>
-      <c r="D154" t="n">
-        <v>255</v>
-      </c>
-      <c r="E154" t="n">
-        <v>254</v>
-      </c>
-      <c r="F154" t="n">
-        <v>4</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-91638.4247333243</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>251</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>254</v>
-      </c>
-      <c r="C155" t="n">
-        <v>254</v>
-      </c>
-      <c r="D155" t="n">
-        <v>254</v>
-      </c>
-      <c r="E155" t="n">
-        <v>254</v>
-      </c>
-      <c r="F155" t="n">
-        <v>25.2383</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-91663.66303332429</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>251</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>255</v>
-      </c>
-      <c r="C156" t="n">
-        <v>255</v>
-      </c>
-      <c r="D156" t="n">
-        <v>255</v>
-      </c>
-      <c r="E156" t="n">
-        <v>255</v>
-      </c>
-      <c r="F156" t="n">
-        <v>101</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-91562.66303332429</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>251</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>256</v>
-      </c>
-      <c r="C157" t="n">
-        <v>257</v>
-      </c>
-      <c r="D157" t="n">
-        <v>257</v>
-      </c>
-      <c r="E157" t="n">
-        <v>256</v>
-      </c>
-      <c r="F157" t="n">
-        <v>19.5213</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-91543.1417333243</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>251</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>259</v>
-      </c>
-      <c r="C158" t="n">
-        <v>259</v>
-      </c>
-      <c r="D158" t="n">
-        <v>259</v>
-      </c>
-      <c r="E158" t="n">
-        <v>259</v>
-      </c>
-      <c r="F158" t="n">
-        <v>4651.7195</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-86891.42223332429</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>251</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>259</v>
-      </c>
-      <c r="C159" t="n">
-        <v>259</v>
-      </c>
-      <c r="D159" t="n">
-        <v>259</v>
-      </c>
-      <c r="E159" t="n">
-        <v>259</v>
-      </c>
-      <c r="F159" t="n">
-        <v>4286.0219</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-86891.42223332429</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>251</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>259</v>
-      </c>
-      <c r="C160" t="n">
-        <v>259</v>
-      </c>
-      <c r="D160" t="n">
-        <v>259</v>
-      </c>
-      <c r="E160" t="n">
-        <v>259</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1765.72</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-86891.42223332429</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>251</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>259</v>
-      </c>
-      <c r="C161" t="n">
-        <v>259</v>
-      </c>
-      <c r="D161" t="n">
-        <v>259</v>
-      </c>
-      <c r="E161" t="n">
-        <v>259</v>
-      </c>
-      <c r="F161" t="n">
-        <v>342.8818</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-86891.42223332429</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>251</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>259</v>
-      </c>
-      <c r="C162" t="n">
-        <v>259</v>
-      </c>
-      <c r="D162" t="n">
-        <v>259</v>
-      </c>
-      <c r="E162" t="n">
-        <v>259</v>
-      </c>
-      <c r="F162" t="n">
-        <v>29.8158</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-86891.42223332429</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>251</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>259</v>
-      </c>
-      <c r="C163" t="n">
-        <v>259</v>
-      </c>
-      <c r="D163" t="n">
-        <v>259</v>
-      </c>
-      <c r="E163" t="n">
-        <v>259</v>
-      </c>
-      <c r="F163" t="n">
-        <v>339.9999</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-86891.42223332429</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>251</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>259</v>
-      </c>
-      <c r="C164" t="n">
-        <v>259</v>
-      </c>
-      <c r="D164" t="n">
-        <v>259</v>
-      </c>
-      <c r="E164" t="n">
-        <v>259</v>
-      </c>
-      <c r="F164" t="n">
-        <v>4475.9713</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-86891.42223332429</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>251</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>258</v>
-      </c>
-      <c r="C165" t="n">
-        <v>258</v>
-      </c>
-      <c r="D165" t="n">
-        <v>258</v>
-      </c>
-      <c r="E165" t="n">
-        <v>258</v>
-      </c>
-      <c r="F165" t="n">
-        <v>235</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-87126.42223332429</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>251</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>258</v>
-      </c>
-      <c r="C166" t="n">
-        <v>258</v>
-      </c>
-      <c r="D166" t="n">
-        <v>258</v>
-      </c>
-      <c r="E166" t="n">
-        <v>258</v>
-      </c>
-      <c r="F166" t="n">
-        <v>523.47</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-87126.42223332429</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>251</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>258</v>
-      </c>
-      <c r="C167" t="n">
-        <v>258</v>
-      </c>
-      <c r="D167" t="n">
-        <v>258</v>
-      </c>
-      <c r="E167" t="n">
-        <v>258</v>
-      </c>
-      <c r="F167" t="n">
-        <v>50.7924</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-87126.42223332429</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>251</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>259</v>
-      </c>
-      <c r="C168" t="n">
-        <v>259</v>
-      </c>
-      <c r="D168" t="n">
-        <v>259</v>
-      </c>
-      <c r="E168" t="n">
-        <v>259</v>
-      </c>
-      <c r="F168" t="n">
-        <v>235</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-86891.42223332429</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>251</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>258</v>
-      </c>
-      <c r="C169" t="n">
-        <v>258</v>
-      </c>
-      <c r="D169" t="n">
-        <v>258</v>
-      </c>
-      <c r="E169" t="n">
-        <v>258</v>
-      </c>
-      <c r="F169" t="n">
-        <v>4126</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-91017.42223332429</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>251</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>258</v>
-      </c>
-      <c r="C170" t="n">
-        <v>258</v>
-      </c>
-      <c r="D170" t="n">
-        <v>258</v>
-      </c>
-      <c r="E170" t="n">
-        <v>258</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1020</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-91017.42223332429</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>251</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>257</v>
-      </c>
-      <c r="C171" t="n">
-        <v>257</v>
-      </c>
-      <c r="D171" t="n">
-        <v>257</v>
-      </c>
-      <c r="E171" t="n">
-        <v>257</v>
-      </c>
-      <c r="F171" t="n">
-        <v>287</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-91304.42223332429</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>251</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>256</v>
-      </c>
-      <c r="C172" t="n">
-        <v>256</v>
-      </c>
-      <c r="D172" t="n">
-        <v>256</v>
-      </c>
-      <c r="E172" t="n">
-        <v>256</v>
-      </c>
-      <c r="F172" t="n">
-        <v>144</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-91448.42223332429</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>251</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>257</v>
-      </c>
-      <c r="C173" t="n">
-        <v>257</v>
-      </c>
-      <c r="D173" t="n">
-        <v>257</v>
-      </c>
-      <c r="E173" t="n">
-        <v>257</v>
-      </c>
-      <c r="F173" t="n">
-        <v>742.8256</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-90705.5966333243</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>251</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>258</v>
-      </c>
-      <c r="C174" t="n">
-        <v>258</v>
-      </c>
-      <c r="D174" t="n">
-        <v>258</v>
-      </c>
-      <c r="E174" t="n">
-        <v>258</v>
-      </c>
-      <c r="F174" t="n">
-        <v>161.0196</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-90544.5770333243</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>251</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>258</v>
-      </c>
-      <c r="C175" t="n">
-        <v>258</v>
-      </c>
-      <c r="D175" t="n">
-        <v>258</v>
-      </c>
-      <c r="E175" t="n">
-        <v>258</v>
-      </c>
-      <c r="F175" t="n">
-        <v>71.173</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-90544.5770333243</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>251</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>259</v>
-      </c>
-      <c r="C176" t="n">
-        <v>259</v>
-      </c>
-      <c r="D176" t="n">
-        <v>259</v>
-      </c>
-      <c r="E176" t="n">
-        <v>259</v>
-      </c>
-      <c r="F176" t="n">
-        <v>7</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-90537.5770333243</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>251</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>260</v>
-      </c>
-      <c r="C177" t="n">
-        <v>260</v>
-      </c>
-      <c r="D177" t="n">
-        <v>260</v>
-      </c>
-      <c r="E177" t="n">
-        <v>260</v>
-      </c>
-      <c r="F177" t="n">
-        <v>900</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-89637.5770333243</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>251</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>261</v>
-      </c>
-      <c r="C178" t="n">
-        <v>261</v>
-      </c>
-      <c r="D178" t="n">
-        <v>261</v>
-      </c>
-      <c r="E178" t="n">
-        <v>261</v>
-      </c>
-      <c r="F178" t="n">
-        <v>143</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-89494.5770333243</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>251</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>263</v>
-      </c>
-      <c r="C179" t="n">
-        <v>263</v>
-      </c>
-      <c r="D179" t="n">
-        <v>263</v>
-      </c>
-      <c r="E179" t="n">
-        <v>263</v>
-      </c>
-      <c r="F179" t="n">
-        <v>380.2282</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-89114.3488333243</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>251</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>260</v>
-      </c>
-      <c r="C180" t="n">
-        <v>262</v>
-      </c>
-      <c r="D180" t="n">
-        <v>262</v>
-      </c>
-      <c r="E180" t="n">
-        <v>260</v>
-      </c>
-      <c r="F180" t="n">
-        <v>46.0328</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-89160.3816333243</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>251</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>262</v>
-      </c>
-      <c r="C181" t="n">
-        <v>262</v>
-      </c>
-      <c r="D181" t="n">
-        <v>262</v>
-      </c>
-      <c r="E181" t="n">
-        <v>262</v>
-      </c>
-      <c r="F181" t="n">
-        <v>558.3064000000001</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-89160.3816333243</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>251</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>260</v>
-      </c>
-      <c r="C182" t="n">
-        <v>260</v>
-      </c>
-      <c r="D182" t="n">
-        <v>260</v>
-      </c>
-      <c r="E182" t="n">
-        <v>260</v>
-      </c>
-      <c r="F182" t="n">
-        <v>668.7178</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-89829.0994333243</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>251</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>260</v>
-      </c>
-      <c r="C183" t="n">
-        <v>260</v>
-      </c>
-      <c r="D183" t="n">
-        <v>260</v>
-      </c>
-      <c r="E183" t="n">
-        <v>260</v>
-      </c>
-      <c r="F183" t="n">
-        <v>334.4828</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-89829.0994333243</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>251</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>261</v>
-      </c>
-      <c r="C184" t="n">
-        <v>261</v>
-      </c>
-      <c r="D184" t="n">
-        <v>261</v>
-      </c>
-      <c r="E184" t="n">
-        <v>261</v>
-      </c>
-      <c r="F184" t="n">
-        <v>7</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-89822.0994333243</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>251</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>263</v>
-      </c>
-      <c r="C185" t="n">
-        <v>263</v>
-      </c>
-      <c r="D185" t="n">
-        <v>263</v>
-      </c>
-      <c r="E185" t="n">
-        <v>263</v>
-      </c>
-      <c r="F185" t="n">
-        <v>2</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-89820.0994333243</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>251</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
+        <v>1.068469387755102</v>
+      </c>
+      <c r="N143" t="n">
+        <v>1.077868852459016</v>
       </c>
     </row>
   </sheetData>

--- a/BackTest/2019-11-24 BackTest BAT.xlsx
+++ b/BackTest/2019-11-24 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N143"/>
+  <dimension ref="A1:N214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C2" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D2" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E2" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F2" t="n">
-        <v>297</v>
+        <v>369</v>
       </c>
       <c r="G2" t="n">
-        <v>261.5</v>
+        <v>185225.3243119691</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C3" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D3" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E3" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F3" t="n">
-        <v>296</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>262</v>
+        <v>185227.3243119691</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C4" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D4" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E4" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F4" t="n">
-        <v>2161.8957</v>
+        <v>3.4861</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5</v>
+        <v>185230.8104119691</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -558,16 +558,16 @@
         <v>261</v>
       </c>
       <c r="F5" t="n">
-        <v>1176.2058</v>
+        <v>4500.0099</v>
       </c>
       <c r="G5" t="n">
-        <v>262</v>
+        <v>180730.8005119691</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C6" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D6" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E6" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F6" t="n">
-        <v>2159.1739</v>
+        <v>4499.99</v>
       </c>
       <c r="G6" t="n">
-        <v>260.5</v>
+        <v>180730.8005119691</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C7" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D7" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E7" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F7" t="n">
-        <v>12.7823</v>
+        <v>10165.9924</v>
       </c>
       <c r="G7" t="n">
-        <v>259.5</v>
+        <v>180730.8005119691</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C8" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D8" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E8" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F8" t="n">
-        <v>419.37</v>
+        <v>2590.79</v>
       </c>
       <c r="G8" t="n">
-        <v>258.5</v>
+        <v>180730.8005119691</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C9" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D9" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E9" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F9" t="n">
-        <v>139.1</v>
+        <v>12.3793</v>
       </c>
       <c r="G9" t="n">
-        <v>258</v>
+        <v>180730.8005119691</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C10" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D10" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E10" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F10" t="n">
-        <v>1132</v>
+        <v>2.1309</v>
       </c>
       <c r="G10" t="n">
-        <v>258</v>
+        <v>180732.9314119691</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C11" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D11" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E11" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F11" t="n">
-        <v>1897.297</v>
+        <v>3.0007</v>
       </c>
       <c r="G11" t="n">
-        <v>257.5</v>
+        <v>180735.9321119691</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C12" t="n">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="D12" t="n">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E12" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F12" t="n">
-        <v>4585</v>
+        <v>790.3299</v>
       </c>
       <c r="G12" t="n">
-        <v>257</v>
+        <v>181526.2620119691</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C13" t="n">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="D13" t="n">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E13" t="n">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F13" t="n">
-        <v>9386.393700000001</v>
+        <v>9737.8277</v>
       </c>
       <c r="G13" t="n">
-        <v>257</v>
+        <v>181526.2620119691</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C14" t="n">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="D14" t="n">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="E14" t="n">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="F14" t="n">
-        <v>721</v>
+        <v>250</v>
       </c>
       <c r="G14" t="n">
-        <v>257</v>
+        <v>181276.2620119691</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C15" t="n">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="D15" t="n">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="E15" t="n">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="F15" t="n">
-        <v>558.5524</v>
+        <v>7200.045</v>
       </c>
       <c r="G15" t="n">
-        <v>257</v>
+        <v>181276.2620119691</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C16" t="n">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="D16" t="n">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E16" t="n">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F16" t="n">
-        <v>1227.745</v>
+        <v>327.2433</v>
       </c>
       <c r="G16" t="n">
-        <v>257</v>
+        <v>181603.5053119691</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C17" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D17" t="n">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E17" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F17" t="n">
-        <v>61559.8636</v>
+        <v>12871.7843</v>
       </c>
       <c r="G17" t="n">
-        <v>258.5</v>
+        <v>168731.7210119691</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C18" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D18" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="E18" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F18" t="n">
-        <v>2971.5312</v>
+        <v>569.2429</v>
       </c>
       <c r="G18" t="n">
-        <v>258.5</v>
+        <v>168731.7210119691</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C19" t="n">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="D19" t="n">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E19" t="n">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="F19" t="n">
-        <v>675.8495</v>
+        <v>2.0447</v>
       </c>
       <c r="G19" t="n">
-        <v>257</v>
+        <v>168733.7657119691</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C20" t="n">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="D20" t="n">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="E20" t="n">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F20" t="n">
-        <v>16813.7114</v>
+        <v>100</v>
       </c>
       <c r="G20" t="n">
-        <v>257</v>
+        <v>168733.7657119691</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C21" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D21" t="n">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="E21" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F21" t="n">
-        <v>698.25</v>
+        <v>4900.0099</v>
       </c>
       <c r="G21" t="n">
-        <v>258</v>
+        <v>163833.7558119691</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C22" t="n">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D22" t="n">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="E22" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F22" t="n">
-        <v>713.4038</v>
+        <v>14.5378</v>
       </c>
       <c r="G22" t="n">
-        <v>259</v>
+        <v>163848.2936119691</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C23" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D23" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E23" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F23" t="n">
-        <v>249.9999</v>
+        <v>2944.926</v>
       </c>
       <c r="G23" t="n">
-        <v>259</v>
+        <v>160903.3676119691</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C24" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D24" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E24" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F24" t="n">
-        <v>1600</v>
+        <v>656.7892000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>259</v>
+        <v>160246.5784119691</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C25" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D25" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E25" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F25" t="n">
-        <v>4355.5125</v>
+        <v>2377.5921</v>
       </c>
       <c r="G25" t="n">
-        <v>258.5</v>
+        <v>162624.1705119691</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C26" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D26" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E26" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F26" t="n">
-        <v>773.6822</v>
+        <v>668.7868</v>
       </c>
       <c r="G26" t="n">
-        <v>258.5</v>
+        <v>162624.1705119691</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C27" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D27" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E27" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F27" t="n">
-        <v>536.91</v>
+        <v>506.1122</v>
       </c>
       <c r="G27" t="n">
-        <v>259</v>
+        <v>163130.2827119691</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C28" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D28" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E28" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F28" t="n">
-        <v>1612</v>
+        <v>188.2712</v>
       </c>
       <c r="G28" t="n">
-        <v>259</v>
+        <v>163318.5539119691</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C29" t="n">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D29" t="n">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="E29" t="n">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F29" t="n">
-        <v>20</v>
+        <v>146.7009</v>
       </c>
       <c r="G29" t="n">
-        <v>259</v>
+        <v>163465.2548119691</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C30" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D30" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E30" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F30" t="n">
-        <v>9</v>
+        <v>3235.0355</v>
       </c>
       <c r="G30" t="n">
-        <v>260</v>
+        <v>160230.2193119691</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C31" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D31" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E31" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F31" t="n">
-        <v>14880.3416</v>
+        <v>2021.8972</v>
       </c>
       <c r="G31" t="n">
-        <v>260</v>
+        <v>158208.3221119691</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C32" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D32" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E32" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F32" t="n">
-        <v>18.3536</v>
+        <v>12.1031</v>
       </c>
       <c r="G32" t="n">
-        <v>259</v>
+        <v>158208.3221119691</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C33" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D33" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E33" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F33" t="n">
-        <v>1760.5609</v>
+        <v>63.9491</v>
       </c>
       <c r="G33" t="n">
-        <v>259</v>
+        <v>158208.3221119691</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="C34" t="n">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D34" t="n">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="E34" t="n">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F34" t="n">
-        <v>2500</v>
+        <v>216.5635</v>
       </c>
       <c r="G34" t="n">
-        <v>259</v>
+        <v>158424.8856119691</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,28 +1626,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C35" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D35" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E35" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F35" t="n">
-        <v>8274.4889</v>
+        <v>1237.0848</v>
       </c>
       <c r="G35" t="n">
-        <v>259.5</v>
+        <v>157187.8008119691</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,28 +1662,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C36" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D36" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E36" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>164.923</v>
       </c>
       <c r="G36" t="n">
-        <v>260.5</v>
+        <v>157352.7238119691</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,28 +1698,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C37" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D37" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E37" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="F37" t="n">
-        <v>200</v>
+        <v>659.8630000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>259.5</v>
+        <v>157352.7238119691</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C38" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D38" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E38" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F38" t="n">
-        <v>300</v>
+        <v>1889.2203</v>
       </c>
       <c r="G38" t="n">
-        <v>258</v>
+        <v>155463.5035119691</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C39" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D39" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E39" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="F39" t="n">
-        <v>1831.4158</v>
+        <v>1190.3969</v>
       </c>
       <c r="G39" t="n">
-        <v>257.5</v>
+        <v>155463.5035119691</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,28 +1806,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C40" t="n">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="D40" t="n">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="E40" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F40" t="n">
-        <v>14</v>
+        <v>3271.4709</v>
       </c>
       <c r="G40" t="n">
-        <v>257</v>
+        <v>158734.9744119691</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1842,28 +1842,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C41" t="n">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D41" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E41" t="n">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F41" t="n">
-        <v>195251.8588</v>
+        <v>1518.8871</v>
       </c>
       <c r="G41" t="n">
-        <v>256.5</v>
+        <v>157216.0873119691</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C42" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D42" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="E42" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>943.3923</v>
       </c>
       <c r="G42" t="n">
-        <v>256.5</v>
+        <v>157216.0873119691</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,28 +1914,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C43" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D43" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E43" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="F43" t="n">
-        <v>4.3536</v>
+        <v>9875.277899999999</v>
       </c>
       <c r="G43" t="n">
-        <v>257</v>
+        <v>147340.8094119691</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1950,28 +1950,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C44" t="n">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D44" t="n">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E44" t="n">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="F44" t="n">
-        <v>2885.2935</v>
+        <v>9130.456200000001</v>
       </c>
       <c r="G44" t="n">
-        <v>256.5</v>
+        <v>147340.8094119691</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C45" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D45" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E45" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="F45" t="n">
-        <v>508.9999</v>
+        <v>6834.9941</v>
       </c>
       <c r="G45" t="n">
-        <v>256.5</v>
+        <v>147340.8094119691</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C46" t="n">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D46" t="n">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E46" t="n">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="F46" t="n">
-        <v>1094</v>
+        <v>934.0118</v>
       </c>
       <c r="G46" t="n">
-        <v>256.5</v>
+        <v>147340.8094119691</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C47" t="n">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="D47" t="n">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="E47" t="n">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="F47" t="n">
-        <v>408</v>
+        <v>3578</v>
       </c>
       <c r="G47" t="n">
-        <v>255.5</v>
+        <v>147340.8094119691</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C48" t="n">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D48" t="n">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E48" t="n">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="F48" t="n">
-        <v>413.9481</v>
+        <v>4911.2355</v>
       </c>
       <c r="G48" t="n">
-        <v>255.5</v>
+        <v>147340.8094119691</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C49" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D49" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E49" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="F49" t="n">
-        <v>310.4611</v>
+        <v>7218.0002</v>
       </c>
       <c r="G49" t="n">
-        <v>256.5</v>
+        <v>147340.8094119691</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C50" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D50" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E50" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="F50" t="n">
-        <v>8173.4448</v>
+        <v>19265.4155</v>
       </c>
       <c r="G50" t="n">
-        <v>257</v>
+        <v>147340.8094119691</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C51" t="n">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D51" t="n">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="E51" t="n">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="F51" t="n">
-        <v>4442.3411</v>
+        <v>1509.434</v>
       </c>
       <c r="G51" t="n">
-        <v>256</v>
+        <v>145831.3754119691</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C52" t="n">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D52" t="n">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="E52" t="n">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="F52" t="n">
-        <v>6965.6246</v>
+        <v>26</v>
       </c>
       <c r="G52" t="n">
-        <v>255</v>
+        <v>145805.3754119691</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C53" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D53" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="E53" t="n">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F53" t="n">
-        <v>15</v>
+        <v>12.2038</v>
       </c>
       <c r="G53" t="n">
-        <v>254.5</v>
+        <v>145793.1716119691</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C54" t="n">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D54" t="n">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E54" t="n">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F54" t="n">
-        <v>20.1584</v>
+        <v>201.4573643410853</v>
       </c>
       <c r="G54" t="n">
-        <v>253.5</v>
+        <v>145591.714247628</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C55" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D55" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E55" t="n">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F55" t="n">
-        <v>14475.5759</v>
+        <v>2929.913</v>
       </c>
       <c r="G55" t="n">
-        <v>253</v>
+        <v>142661.801247628</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C56" t="n">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D56" t="n">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E56" t="n">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F56" t="n">
-        <v>2601.3369</v>
+        <v>869</v>
       </c>
       <c r="G56" t="n">
-        <v>253</v>
+        <v>143530.801247628</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C57" t="n">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D57" t="n">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E57" t="n">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F57" t="n">
-        <v>598.3901</v>
+        <v>896.6378</v>
       </c>
       <c r="G57" t="n">
-        <v>253</v>
+        <v>143530.801247628</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C58" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D58" t="n">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E58" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F58" t="n">
-        <v>1162.1708</v>
+        <v>2003.2493</v>
       </c>
       <c r="G58" t="n">
-        <v>253</v>
+        <v>141527.551947628</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C59" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D59" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E59" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F59" t="n">
-        <v>50</v>
+        <v>25.7504</v>
       </c>
       <c r="G59" t="n">
-        <v>253.5</v>
+        <v>141527.551947628</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C60" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D60" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E60" t="n">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F60" t="n">
-        <v>82.03270000000001</v>
+        <v>64.5579</v>
       </c>
       <c r="G60" t="n">
-        <v>254</v>
+        <v>141527.551947628</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C61" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D61" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E61" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F61" t="n">
-        <v>330</v>
+        <v>3271.4709</v>
       </c>
       <c r="G61" t="n">
-        <v>253</v>
+        <v>138256.081047628</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C62" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D62" t="n">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E62" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F62" t="n">
-        <v>1401.2093</v>
+        <v>4499.9926</v>
       </c>
       <c r="G62" t="n">
-        <v>251</v>
+        <v>142756.073647628</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C63" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D63" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E63" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F63" t="n">
-        <v>2202.2162</v>
+        <v>2599.4235</v>
       </c>
       <c r="G63" t="n">
-        <v>250.5</v>
+        <v>142756.073647628</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C64" t="n">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D64" t="n">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E64" t="n">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F64" t="n">
-        <v>1498.6683</v>
+        <v>127</v>
       </c>
       <c r="G64" t="n">
-        <v>251</v>
+        <v>142883.073647628</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C65" t="n">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="D65" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E65" t="n">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="F65" t="n">
-        <v>35458.6068</v>
+        <v>111.48</v>
       </c>
       <c r="G65" t="n">
-        <v>250</v>
+        <v>142994.553647628</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C66" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D66" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="E66" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="F66" t="n">
-        <v>1891</v>
+        <v>2885.2935</v>
       </c>
       <c r="G66" t="n">
-        <v>249.5</v>
+        <v>145879.847147628</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C67" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D67" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="E67" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="F67" t="n">
-        <v>200</v>
+        <v>6499.9965</v>
       </c>
       <c r="G67" t="n">
-        <v>250</v>
+        <v>145879.847147628</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C68" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D68" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="E68" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="F68" t="n">
-        <v>2333</v>
+        <v>109.6268</v>
       </c>
       <c r="G68" t="n">
-        <v>250</v>
+        <v>145879.847147628</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C69" t="n">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="D69" t="n">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="E69" t="n">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="F69" t="n">
-        <v>1060</v>
+        <v>428</v>
       </c>
       <c r="G69" t="n">
-        <v>251</v>
+        <v>145451.847147628</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C70" t="n">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D70" t="n">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="E70" t="n">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="F70" t="n">
-        <v>3836.0195</v>
+        <v>12513.6802</v>
       </c>
       <c r="G70" t="n">
-        <v>252</v>
+        <v>132938.166947628</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C71" t="n">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="D71" t="n">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="E71" t="n">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="F71" t="n">
-        <v>20</v>
+        <v>64.5579</v>
       </c>
       <c r="G71" t="n">
-        <v>251</v>
+        <v>133002.724847628</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C72" t="n">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D72" t="n">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="E72" t="n">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="F72" t="n">
-        <v>3836.0195</v>
+        <v>1033</v>
       </c>
       <c r="G72" t="n">
-        <v>249.5</v>
+        <v>133002.724847628</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C73" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D73" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="E73" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="F73" t="n">
-        <v>12.585</v>
+        <v>297</v>
       </c>
       <c r="G73" t="n">
-        <v>249.5</v>
+        <v>133299.724847628</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C74" t="n">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="D74" t="n">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="E74" t="n">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="F74" t="n">
-        <v>613.1728000000001</v>
+        <v>296</v>
       </c>
       <c r="G74" t="n">
-        <v>249.5</v>
+        <v>133299.724847628</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C75" t="n">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="D75" t="n">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E75" t="n">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="F75" t="n">
-        <v>1813.1528</v>
+        <v>2161.8957</v>
       </c>
       <c r="G75" t="n">
-        <v>249.5</v>
+        <v>135461.620547628</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C76" t="n">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="D76" t="n">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="E76" t="n">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="F76" t="n">
-        <v>572.3179</v>
+        <v>1176.2058</v>
       </c>
       <c r="G76" t="n">
-        <v>250</v>
+        <v>134285.414747628</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C77" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D77" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E77" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="F77" t="n">
-        <v>232.8458</v>
+        <v>2159.1739</v>
       </c>
       <c r="G77" t="n">
-        <v>250</v>
+        <v>132126.240847628</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C78" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D78" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E78" t="n">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F78" t="n">
-        <v>62</v>
+        <v>12.7823</v>
       </c>
       <c r="G78" t="n">
-        <v>250</v>
+        <v>132113.458547628</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C79" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D79" t="n">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E79" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F79" t="n">
-        <v>174.7424</v>
+        <v>419.37</v>
       </c>
       <c r="G79" t="n">
-        <v>250</v>
+        <v>131694.0885476281</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C80" t="n">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D80" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E80" t="n">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F80" t="n">
-        <v>577</v>
+        <v>139.1</v>
       </c>
       <c r="G80" t="n">
-        <v>250.5</v>
+        <v>131694.0885476281</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C81" t="n">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D81" t="n">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E81" t="n">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F81" t="n">
-        <v>79.3651</v>
+        <v>1132</v>
       </c>
       <c r="G81" t="n">
-        <v>251.5</v>
+        <v>131694.0885476281</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C82" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D82" t="n">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E82" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F82" t="n">
-        <v>179.5906</v>
+        <v>1897.297</v>
       </c>
       <c r="G82" t="n">
-        <v>251.5</v>
+        <v>129796.791547628</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C83" t="n">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D83" t="n">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="E83" t="n">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F83" t="n">
-        <v>119.0476190476191</v>
+        <v>4585</v>
       </c>
       <c r="G83" t="n">
-        <v>251.5</v>
+        <v>129796.791547628</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C84" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D84" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E84" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F84" t="n">
-        <v>244</v>
+        <v>9386.393700000001</v>
       </c>
       <c r="G84" t="n">
-        <v>251.5</v>
+        <v>129796.791547628</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C85" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D85" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E85" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F85" t="n">
-        <v>63</v>
+        <v>721</v>
       </c>
       <c r="G85" t="n">
-        <v>250.5</v>
+        <v>129796.791547628</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C86" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D86" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E86" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F86" t="n">
-        <v>1702.72</v>
+        <v>558.5524</v>
       </c>
       <c r="G86" t="n">
-        <v>250</v>
+        <v>129796.791547628</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C87" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D87" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E87" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F87" t="n">
-        <v>27.5689</v>
+        <v>1227.745</v>
       </c>
       <c r="G87" t="n">
-        <v>249.5</v>
+        <v>129796.791547628</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C88" t="n">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="D88" t="n">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="E88" t="n">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="F88" t="n">
-        <v>36.9265</v>
+        <v>61559.8636</v>
       </c>
       <c r="G88" t="n">
-        <v>249</v>
+        <v>191356.655147628</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C89" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D89" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="E89" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F89" t="n">
-        <v>1655.7927</v>
+        <v>2971.5312</v>
       </c>
       <c r="G89" t="n">
-        <v>249</v>
+        <v>188385.123947628</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C90" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D90" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E90" t="n">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F90" t="n">
-        <v>1379.6883</v>
+        <v>675.8495</v>
       </c>
       <c r="G90" t="n">
-        <v>249</v>
+        <v>188385.123947628</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C91" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D91" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E91" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F91" t="n">
-        <v>17.23</v>
+        <v>16813.7114</v>
       </c>
       <c r="G91" t="n">
-        <v>249.5</v>
+        <v>188385.123947628</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C92" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="D92" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="E92" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="F92" t="n">
-        <v>332.8829</v>
+        <v>698.25</v>
       </c>
       <c r="G92" t="n">
-        <v>249</v>
+        <v>189083.373947628</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C93" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="D93" t="n">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="E93" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="F93" t="n">
-        <v>606.5692</v>
+        <v>713.4038</v>
       </c>
       <c r="G93" t="n">
-        <v>248</v>
+        <v>189083.373947628</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C94" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="D94" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="E94" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="F94" t="n">
-        <v>2832.6126</v>
+        <v>249.9999</v>
       </c>
       <c r="G94" t="n">
-        <v>248</v>
+        <v>189083.373947628</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C95" t="n">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D95" t="n">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="E95" t="n">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="F95" t="n">
-        <v>448</v>
+        <v>1600</v>
       </c>
       <c r="G95" t="n">
-        <v>248.5</v>
+        <v>189083.373947628</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C96" t="n">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="D96" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="E96" t="n">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="F96" t="n">
-        <v>22179.9495</v>
+        <v>4355.5125</v>
       </c>
       <c r="G96" t="n">
-        <v>248.5</v>
+        <v>184727.861447628</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C97" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="D97" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="E97" t="n">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="F97" t="n">
-        <v>6907.4702</v>
+        <v>773.6822</v>
       </c>
       <c r="G97" t="n">
-        <v>248</v>
+        <v>185501.543647628</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C98" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="D98" t="n">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="E98" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="F98" t="n">
-        <v>3075.2319</v>
+        <v>536.91</v>
       </c>
       <c r="G98" t="n">
-        <v>246.5</v>
+        <v>185501.543647628</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C99" t="n">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="D99" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="E99" t="n">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="F99" t="n">
-        <v>8173.4448</v>
+        <v>1612</v>
       </c>
       <c r="G99" t="n">
-        <v>244.5</v>
+        <v>185501.543647628</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C100" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="D100" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="E100" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="F100" t="n">
-        <v>468.7953</v>
+        <v>20</v>
       </c>
       <c r="G100" t="n">
-        <v>244.5</v>
+        <v>185501.543647628</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="C101" t="n">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="D101" t="n">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="E101" t="n">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="F101" t="n">
-        <v>643</v>
+        <v>9</v>
       </c>
       <c r="G101" t="n">
-        <v>245</v>
+        <v>185510.543647628</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C102" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="D102" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="E102" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="F102" t="n">
-        <v>337</v>
+        <v>14880.3416</v>
       </c>
       <c r="G102" t="n">
-        <v>245</v>
+        <v>170630.2020476281</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C103" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="D103" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="E103" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="F103" t="n">
-        <v>84.65389999999999</v>
+        <v>18.3536</v>
       </c>
       <c r="G103" t="n">
-        <v>245</v>
+        <v>170630.2020476281</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,35 +4110,31 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C104" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="D104" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="E104" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="F104" t="n">
-        <v>979.0999</v>
+        <v>1760.5609</v>
       </c>
       <c r="G104" t="n">
-        <v>245</v>
+        <v>170630.2020476281</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>245</v>
-      </c>
-      <c r="K104" t="n">
-        <v>245</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
@@ -4150,1648 +4146,4216 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C105" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="D105" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="E105" t="n">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="F105" t="n">
-        <v>4315.6003</v>
+        <v>2500</v>
       </c>
       <c r="G105" t="n">
-        <v>245</v>
+        <v>170630.2020476281</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>245</v>
-      </c>
-      <c r="K105" t="n">
-        <v>245</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>261</v>
+      </c>
+      <c r="C106" t="n">
+        <v>260</v>
+      </c>
+      <c r="D106" t="n">
+        <v>261</v>
+      </c>
+      <c r="E106" t="n">
+        <v>260</v>
+      </c>
+      <c r="F106" t="n">
+        <v>8274.4889</v>
+      </c>
+      <c r="G106" t="n">
+        <v>178904.6909476281</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>261</v>
+      </c>
+      <c r="C107" t="n">
+        <v>261</v>
+      </c>
+      <c r="D107" t="n">
+        <v>261</v>
+      </c>
+      <c r="E107" t="n">
+        <v>261</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2</v>
+      </c>
+      <c r="G107" t="n">
+        <v>178906.6909476281</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>260</v>
+      </c>
+      <c r="C108" t="n">
+        <v>258</v>
+      </c>
+      <c r="D108" t="n">
+        <v>260</v>
+      </c>
+      <c r="E108" t="n">
+        <v>258</v>
+      </c>
+      <c r="F108" t="n">
+        <v>200</v>
+      </c>
+      <c r="G108" t="n">
+        <v>178706.6909476281</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>258</v>
+      </c>
+      <c r="C109" t="n">
+        <v>258</v>
+      </c>
+      <c r="D109" t="n">
+        <v>258</v>
+      </c>
+      <c r="E109" t="n">
+        <v>258</v>
+      </c>
+      <c r="F109" t="n">
+        <v>300</v>
+      </c>
+      <c r="G109" t="n">
+        <v>178706.6909476281</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>257</v>
+      </c>
+      <c r="C110" t="n">
+        <v>257</v>
+      </c>
+      <c r="D110" t="n">
+        <v>257</v>
+      </c>
+      <c r="E110" t="n">
+        <v>257</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1831.4158</v>
+      </c>
+      <c r="G110" t="n">
+        <v>176875.2751476281</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>257</v>
+      </c>
+      <c r="C111" t="n">
+        <v>257</v>
+      </c>
+      <c r="D111" t="n">
+        <v>257</v>
+      </c>
+      <c r="E111" t="n">
+        <v>257</v>
+      </c>
+      <c r="F111" t="n">
+        <v>14</v>
+      </c>
+      <c r="G111" t="n">
+        <v>176875.2751476281</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>257</v>
+      </c>
+      <c r="C112" t="n">
+        <v>256</v>
+      </c>
+      <c r="D112" t="n">
+        <v>258</v>
+      </c>
+      <c r="E112" t="n">
+        <v>256</v>
+      </c>
+      <c r="F112" t="n">
+        <v>195251.8588</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-18376.58365237192</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>257</v>
+      </c>
+      <c r="C113" t="n">
+        <v>257</v>
+      </c>
+      <c r="D113" t="n">
+        <v>257</v>
+      </c>
+      <c r="E113" t="n">
+        <v>257</v>
+      </c>
+      <c r="F113" t="n">
+        <v>5</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-18371.58365237192</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>257</v>
+      </c>
+      <c r="C114" t="n">
+        <v>257</v>
+      </c>
+      <c r="D114" t="n">
+        <v>257</v>
+      </c>
+      <c r="E114" t="n">
+        <v>257</v>
+      </c>
+      <c r="F114" t="n">
+        <v>4.3536</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-18371.58365237192</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>256</v>
+      </c>
+      <c r="C115" t="n">
+        <v>256</v>
+      </c>
+      <c r="D115" t="n">
+        <v>256</v>
+      </c>
+      <c r="E115" t="n">
+        <v>256</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2885.2935</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-21256.87715237192</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>257</v>
+      </c>
+      <c r="C116" t="n">
+        <v>257</v>
+      </c>
+      <c r="D116" t="n">
+        <v>257</v>
+      </c>
+      <c r="E116" t="n">
+        <v>257</v>
+      </c>
+      <c r="F116" t="n">
+        <v>508.9999</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-20747.87725237192</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>256</v>
+      </c>
+      <c r="C117" t="n">
+        <v>256</v>
+      </c>
+      <c r="D117" t="n">
+        <v>256</v>
+      </c>
+      <c r="E117" t="n">
+        <v>256</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1094</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-21841.87725237192</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>255</v>
+      </c>
+      <c r="C118" t="n">
+        <v>255</v>
+      </c>
+      <c r="D118" t="n">
+        <v>255</v>
+      </c>
+      <c r="E118" t="n">
+        <v>255</v>
+      </c>
+      <c r="F118" t="n">
+        <v>408</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-22249.87725237192</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>256</v>
+      </c>
+      <c r="C119" t="n">
+        <v>256</v>
+      </c>
+      <c r="D119" t="n">
+        <v>256</v>
+      </c>
+      <c r="E119" t="n">
+        <v>256</v>
+      </c>
+      <c r="F119" t="n">
+        <v>413.9481</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-21835.92915237192</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>257</v>
+      </c>
+      <c r="C120" t="n">
+        <v>257</v>
+      </c>
+      <c r="D120" t="n">
+        <v>257</v>
+      </c>
+      <c r="E120" t="n">
+        <v>257</v>
+      </c>
+      <c r="F120" t="n">
+        <v>310.4611</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-21525.46805237192</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>257</v>
+      </c>
+      <c r="C121" t="n">
+        <v>257</v>
+      </c>
+      <c r="D121" t="n">
+        <v>257</v>
+      </c>
+      <c r="E121" t="n">
+        <v>257</v>
+      </c>
+      <c r="F121" t="n">
+        <v>8173.4448</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-21525.46805237192</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>256</v>
+      </c>
+      <c r="C122" t="n">
+        <v>255</v>
+      </c>
+      <c r="D122" t="n">
+        <v>256</v>
+      </c>
+      <c r="E122" t="n">
+        <v>255</v>
+      </c>
+      <c r="F122" t="n">
+        <v>4442.3411</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-25967.80915237192</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>255</v>
+      </c>
+      <c r="C123" t="n">
+        <v>255</v>
+      </c>
+      <c r="D123" t="n">
+        <v>255</v>
+      </c>
+      <c r="E123" t="n">
+        <v>255</v>
+      </c>
+      <c r="F123" t="n">
+        <v>6965.6246</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-25967.80915237192</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>254</v>
+      </c>
+      <c r="C124" t="n">
+        <v>254</v>
+      </c>
+      <c r="D124" t="n">
+        <v>254</v>
+      </c>
+      <c r="E124" t="n">
+        <v>254</v>
+      </c>
+      <c r="F124" t="n">
+        <v>15</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-25982.80915237192</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>254</v>
+      </c>
+      <c r="C125" t="n">
+        <v>253</v>
+      </c>
+      <c r="D125" t="n">
+        <v>254</v>
+      </c>
+      <c r="E125" t="n">
+        <v>253</v>
+      </c>
+      <c r="F125" t="n">
+        <v>20.1584</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-26002.96755237192</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>253</v>
+      </c>
+      <c r="C126" t="n">
+        <v>253</v>
+      </c>
+      <c r="D126" t="n">
+        <v>253</v>
+      </c>
+      <c r="E126" t="n">
+        <v>253</v>
+      </c>
+      <c r="F126" t="n">
+        <v>14475.5759</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-26002.96755237192</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>253</v>
+      </c>
+      <c r="C127" t="n">
+        <v>253</v>
+      </c>
+      <c r="D127" t="n">
+        <v>253</v>
+      </c>
+      <c r="E127" t="n">
+        <v>253</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2601.3369</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-26002.96755237192</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>253</v>
+      </c>
+      <c r="C128" t="n">
+        <v>253</v>
+      </c>
+      <c r="D128" t="n">
+        <v>253</v>
+      </c>
+      <c r="E128" t="n">
+        <v>253</v>
+      </c>
+      <c r="F128" t="n">
+        <v>598.3901</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-26002.96755237192</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>253</v>
+      </c>
+      <c r="C129" t="n">
+        <v>253</v>
+      </c>
+      <c r="D129" t="n">
+        <v>253</v>
+      </c>
+      <c r="E129" t="n">
+        <v>253</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1162.1708</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-26002.96755237192</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>254</v>
+      </c>
+      <c r="C130" t="n">
+        <v>254</v>
+      </c>
+      <c r="D130" t="n">
+        <v>254</v>
+      </c>
+      <c r="E130" t="n">
+        <v>254</v>
+      </c>
+      <c r="F130" t="n">
+        <v>50</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-25952.96755237192</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>254</v>
+      </c>
+      <c r="C131" t="n">
+        <v>254</v>
+      </c>
+      <c r="D131" t="n">
+        <v>254</v>
+      </c>
+      <c r="E131" t="n">
+        <v>254</v>
+      </c>
+      <c r="F131" t="n">
+        <v>82.03270000000001</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-25952.96755237192</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>252</v>
+      </c>
+      <c r="C132" t="n">
+        <v>252</v>
+      </c>
+      <c r="D132" t="n">
+        <v>252</v>
+      </c>
+      <c r="E132" t="n">
+        <v>252</v>
+      </c>
+      <c r="F132" t="n">
+        <v>330</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-26282.96755237192</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>252</v>
+      </c>
+      <c r="C133" t="n">
+        <v>250</v>
+      </c>
+      <c r="D133" t="n">
+        <v>252</v>
+      </c>
+      <c r="E133" t="n">
+        <v>250</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1401.2093</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-27684.17685237192</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>251</v>
+      </c>
+      <c r="C134" t="n">
+        <v>251</v>
+      </c>
+      <c r="D134" t="n">
+        <v>251</v>
+      </c>
+      <c r="E134" t="n">
+        <v>251</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2202.2162</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-25481.96065237192</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>251</v>
+      </c>
+      <c r="C135" t="n">
+        <v>251</v>
+      </c>
+      <c r="D135" t="n">
+        <v>251</v>
+      </c>
+      <c r="E135" t="n">
+        <v>251</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1498.6683</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-25481.96065237192</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>250</v>
+      </c>
+      <c r="C136" t="n">
+        <v>249</v>
+      </c>
+      <c r="D136" t="n">
+        <v>250</v>
+      </c>
+      <c r="E136" t="n">
+        <v>249</v>
+      </c>
+      <c r="F136" t="n">
+        <v>35458.6068</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-60940.56745237192</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>250</v>
+      </c>
+      <c r="C137" t="n">
+        <v>250</v>
+      </c>
+      <c r="D137" t="n">
+        <v>250</v>
+      </c>
+      <c r="E137" t="n">
+        <v>250</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1891</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-59049.56745237192</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>250</v>
+      </c>
+      <c r="C138" t="n">
+        <v>250</v>
+      </c>
+      <c r="D138" t="n">
+        <v>250</v>
+      </c>
+      <c r="E138" t="n">
+        <v>250</v>
+      </c>
+      <c r="F138" t="n">
+        <v>200</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-59049.56745237192</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>250</v>
+      </c>
+      <c r="C139" t="n">
+        <v>250</v>
+      </c>
+      <c r="D139" t="n">
+        <v>250</v>
+      </c>
+      <c r="E139" t="n">
+        <v>250</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2333</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-59049.56745237192</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>250</v>
+      </c>
+      <c r="C140" t="n">
+        <v>252</v>
+      </c>
+      <c r="D140" t="n">
+        <v>252</v>
+      </c>
+      <c r="E140" t="n">
+        <v>250</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1060</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-57989.56745237192</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>252</v>
+      </c>
+      <c r="C141" t="n">
+        <v>252</v>
+      </c>
+      <c r="D141" t="n">
+        <v>252</v>
+      </c>
+      <c r="E141" t="n">
+        <v>252</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3836.0195</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-57989.56745237192</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>250</v>
+      </c>
+      <c r="C142" t="n">
+        <v>250</v>
+      </c>
+      <c r="D142" t="n">
+        <v>250</v>
+      </c>
+      <c r="E142" t="n">
+        <v>250</v>
+      </c>
+      <c r="F142" t="n">
+        <v>20</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-58009.56745237192</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>250</v>
+      </c>
+      <c r="C143" t="n">
+        <v>249</v>
+      </c>
+      <c r="D143" t="n">
+        <v>250</v>
+      </c>
+      <c r="E143" t="n">
+        <v>249</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3836.0195</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-61845.58695237192</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>250</v>
+      </c>
+      <c r="C144" t="n">
+        <v>250</v>
+      </c>
+      <c r="D144" t="n">
+        <v>250</v>
+      </c>
+      <c r="E144" t="n">
+        <v>250</v>
+      </c>
+      <c r="F144" t="n">
+        <v>12.585</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-61833.00195237192</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>250</v>
+      </c>
+      <c r="C145" t="n">
+        <v>249</v>
+      </c>
+      <c r="D145" t="n">
+        <v>250</v>
+      </c>
+      <c r="E145" t="n">
+        <v>249</v>
+      </c>
+      <c r="F145" t="n">
+        <v>613.1728000000001</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-62446.17475237192</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>251</v>
+      </c>
+      <c r="C146" t="n">
+        <v>250</v>
+      </c>
+      <c r="D146" t="n">
+        <v>251</v>
+      </c>
+      <c r="E146" t="n">
+        <v>250</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1813.1528</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-60633.02195237192</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>250</v>
+      </c>
+      <c r="C147" t="n">
+        <v>250</v>
+      </c>
+      <c r="D147" t="n">
+        <v>250</v>
+      </c>
+      <c r="E147" t="n">
+        <v>250</v>
+      </c>
+      <c r="F147" t="n">
+        <v>572.3179</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-60633.02195237192</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>250</v>
+      </c>
+      <c r="C148" t="n">
+        <v>250</v>
+      </c>
+      <c r="D148" t="n">
+        <v>250</v>
+      </c>
+      <c r="E148" t="n">
+        <v>250</v>
+      </c>
+      <c r="F148" t="n">
+        <v>232.8458</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-60633.02195237192</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>250</v>
+      </c>
+      <c r="C149" t="n">
+        <v>250</v>
+      </c>
+      <c r="D149" t="n">
+        <v>250</v>
+      </c>
+      <c r="E149" t="n">
+        <v>250</v>
+      </c>
+      <c r="F149" t="n">
+        <v>62</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-60633.02195237192</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>251</v>
+      </c>
+      <c r="C150" t="n">
+        <v>250</v>
+      </c>
+      <c r="D150" t="n">
+        <v>251</v>
+      </c>
+      <c r="E150" t="n">
+        <v>250</v>
+      </c>
+      <c r="F150" t="n">
+        <v>174.7424</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-60633.02195237192</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>251</v>
+      </c>
+      <c r="C151" t="n">
+        <v>251</v>
+      </c>
+      <c r="D151" t="n">
+        <v>251</v>
+      </c>
+      <c r="E151" t="n">
+        <v>251</v>
+      </c>
+      <c r="F151" t="n">
+        <v>577</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-60056.02195237192</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>252</v>
+      </c>
+      <c r="C152" t="n">
+        <v>252</v>
+      </c>
+      <c r="D152" t="n">
+        <v>252</v>
+      </c>
+      <c r="E152" t="n">
+        <v>252</v>
+      </c>
+      <c r="F152" t="n">
+        <v>79.3651</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-59976.65685237192</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>251</v>
+      </c>
+      <c r="C153" t="n">
+        <v>251</v>
+      </c>
+      <c r="D153" t="n">
+        <v>251</v>
+      </c>
+      <c r="E153" t="n">
+        <v>251</v>
+      </c>
+      <c r="F153" t="n">
+        <v>179.5906</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-60156.24745237192</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>252</v>
+      </c>
+      <c r="C154" t="n">
+        <v>252</v>
+      </c>
+      <c r="D154" t="n">
+        <v>252</v>
+      </c>
+      <c r="E154" t="n">
+        <v>252</v>
+      </c>
+      <c r="F154" t="n">
+        <v>119.0476190476191</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-60037.1998333243</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>251</v>
+      </c>
+      <c r="C155" t="n">
+        <v>251</v>
+      </c>
+      <c r="D155" t="n">
+        <v>251</v>
+      </c>
+      <c r="E155" t="n">
+        <v>251</v>
+      </c>
+      <c r="F155" t="n">
+        <v>244</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-60281.1998333243</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>250</v>
+      </c>
+      <c r="C156" t="n">
+        <v>250</v>
+      </c>
+      <c r="D156" t="n">
+        <v>250</v>
+      </c>
+      <c r="E156" t="n">
+        <v>250</v>
+      </c>
+      <c r="F156" t="n">
+        <v>63</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-60344.1998333243</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>250</v>
+      </c>
+      <c r="C157" t="n">
+        <v>250</v>
+      </c>
+      <c r="D157" t="n">
+        <v>250</v>
+      </c>
+      <c r="E157" t="n">
+        <v>250</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1702.72</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-60344.1998333243</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>250</v>
+      </c>
+      <c r="C158" t="n">
+        <v>249</v>
+      </c>
+      <c r="D158" t="n">
+        <v>250</v>
+      </c>
+      <c r="E158" t="n">
+        <v>249</v>
+      </c>
+      <c r="F158" t="n">
+        <v>27.5689</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-60371.7687333243</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>249</v>
+      </c>
+      <c r="C159" t="n">
+        <v>249</v>
+      </c>
+      <c r="D159" t="n">
+        <v>249</v>
+      </c>
+      <c r="E159" t="n">
+        <v>249</v>
+      </c>
+      <c r="F159" t="n">
+        <v>36.9265</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-60371.7687333243</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>249</v>
+      </c>
+      <c r="C160" t="n">
+        <v>249</v>
+      </c>
+      <c r="D160" t="n">
+        <v>249</v>
+      </c>
+      <c r="E160" t="n">
+        <v>249</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1655.7927</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-60371.7687333243</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>250</v>
+      </c>
+      <c r="C161" t="n">
+        <v>249</v>
+      </c>
+      <c r="D161" t="n">
+        <v>250</v>
+      </c>
+      <c r="E161" t="n">
+        <v>249</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1379.6883</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-60371.7687333243</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>250</v>
+      </c>
+      <c r="C162" t="n">
+        <v>250</v>
+      </c>
+      <c r="D162" t="n">
+        <v>250</v>
+      </c>
+      <c r="E162" t="n">
+        <v>250</v>
+      </c>
+      <c r="F162" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-60354.5387333243</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>248</v>
+      </c>
+      <c r="C163" t="n">
+        <v>248</v>
+      </c>
+      <c r="D163" t="n">
+        <v>248</v>
+      </c>
+      <c r="E163" t="n">
+        <v>248</v>
+      </c>
+      <c r="F163" t="n">
+        <v>332.8829</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-60687.42163332429</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>248</v>
+      </c>
+      <c r="C164" t="n">
+        <v>248</v>
+      </c>
+      <c r="D164" t="n">
+        <v>248</v>
+      </c>
+      <c r="E164" t="n">
+        <v>248</v>
+      </c>
+      <c r="F164" t="n">
+        <v>606.5692</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-60687.42163332429</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>248</v>
+      </c>
+      <c r="C165" t="n">
+        <v>248</v>
+      </c>
+      <c r="D165" t="n">
+        <v>248</v>
+      </c>
+      <c r="E165" t="n">
+        <v>248</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2832.6126</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-60687.42163332429</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>249</v>
+      </c>
+      <c r="C166" t="n">
+        <v>249</v>
+      </c>
+      <c r="D166" t="n">
+        <v>249</v>
+      </c>
+      <c r="E166" t="n">
+        <v>249</v>
+      </c>
+      <c r="F166" t="n">
+        <v>448</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-60239.42163332429</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>248</v>
+      </c>
+      <c r="C167" t="n">
+        <v>248</v>
+      </c>
+      <c r="D167" t="n">
+        <v>248</v>
+      </c>
+      <c r="E167" t="n">
+        <v>248</v>
+      </c>
+      <c r="F167" t="n">
+        <v>22179.9495</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-82419.3711333243</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>248</v>
+      </c>
+      <c r="C168" t="n">
+        <v>248</v>
+      </c>
+      <c r="D168" t="n">
+        <v>248</v>
+      </c>
+      <c r="E168" t="n">
+        <v>248</v>
+      </c>
+      <c r="F168" t="n">
+        <v>6907.4702</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-82419.3711333243</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>247</v>
+      </c>
+      <c r="C169" t="n">
+        <v>245</v>
+      </c>
+      <c r="D169" t="n">
+        <v>247</v>
+      </c>
+      <c r="E169" t="n">
+        <v>245</v>
+      </c>
+      <c r="F169" t="n">
+        <v>3075.2319</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-85494.6030333243</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>245</v>
+      </c>
+      <c r="C170" t="n">
+        <v>244</v>
+      </c>
+      <c r="D170" t="n">
+        <v>245</v>
+      </c>
+      <c r="E170" t="n">
+        <v>244</v>
+      </c>
+      <c r="F170" t="n">
+        <v>8173.4448</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-93668.04783332429</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>245</v>
+      </c>
+      <c r="C171" t="n">
+        <v>245</v>
+      </c>
+      <c r="D171" t="n">
+        <v>245</v>
+      </c>
+      <c r="E171" t="n">
+        <v>245</v>
+      </c>
+      <c r="F171" t="n">
+        <v>468.7953</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-93199.2525333243</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>245</v>
+      </c>
+      <c r="C172" t="n">
+        <v>245</v>
+      </c>
+      <c r="D172" t="n">
+        <v>245</v>
+      </c>
+      <c r="E172" t="n">
+        <v>245</v>
+      </c>
+      <c r="F172" t="n">
+        <v>643</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-93199.2525333243</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>245</v>
+      </c>
+      <c r="C173" t="n">
+        <v>245</v>
+      </c>
+      <c r="D173" t="n">
+        <v>245</v>
+      </c>
+      <c r="E173" t="n">
+        <v>245</v>
+      </c>
+      <c r="F173" t="n">
+        <v>337</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-93199.2525333243</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>245</v>
+      </c>
+      <c r="C174" t="n">
+        <v>245</v>
+      </c>
+      <c r="D174" t="n">
+        <v>245</v>
+      </c>
+      <c r="E174" t="n">
+        <v>245</v>
+      </c>
+      <c r="F174" t="n">
+        <v>84.65389999999999</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-93199.2525333243</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>245</v>
+      </c>
+      <c r="K174" t="n">
+        <v>245</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>245</v>
+      </c>
+      <c r="C175" t="n">
+        <v>245</v>
+      </c>
+      <c r="D175" t="n">
+        <v>245</v>
+      </c>
+      <c r="E175" t="n">
+        <v>245</v>
+      </c>
+      <c r="F175" t="n">
+        <v>979.0999</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-93199.2525333243</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>245</v>
+      </c>
+      <c r="K175" t="n">
+        <v>245</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>245</v>
-      </c>
-      <c r="C106" t="n">
-        <v>245</v>
-      </c>
-      <c r="D106" t="n">
-        <v>245</v>
-      </c>
-      <c r="E106" t="n">
-        <v>245</v>
-      </c>
-      <c r="F106" t="n">
-        <v>3752.8204</v>
-      </c>
-      <c r="G106" t="n">
-        <v>245</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>245</v>
-      </c>
-      <c r="K106" t="n">
-        <v>245</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>245</v>
+      </c>
+      <c r="C176" t="n">
+        <v>245</v>
+      </c>
+      <c r="D176" t="n">
+        <v>245</v>
+      </c>
+      <c r="E176" t="n">
+        <v>245</v>
+      </c>
+      <c r="F176" t="n">
+        <v>4315.6003</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-93199.2525333243</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>245</v>
+      </c>
+      <c r="K176" t="n">
+        <v>245</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>245</v>
-      </c>
-      <c r="C107" t="n">
-        <v>245</v>
-      </c>
-      <c r="D107" t="n">
-        <v>245</v>
-      </c>
-      <c r="E107" t="n">
-        <v>245</v>
-      </c>
-      <c r="F107" t="n">
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>245</v>
+      </c>
+      <c r="C177" t="n">
+        <v>245</v>
+      </c>
+      <c r="D177" t="n">
+        <v>245</v>
+      </c>
+      <c r="E177" t="n">
+        <v>245</v>
+      </c>
+      <c r="F177" t="n">
+        <v>3752.8204</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-93199.2525333243</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>245</v>
+      </c>
+      <c r="K177" t="n">
+        <v>245</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>245</v>
+      </c>
+      <c r="C178" t="n">
+        <v>245</v>
+      </c>
+      <c r="D178" t="n">
+        <v>245</v>
+      </c>
+      <c r="E178" t="n">
+        <v>245</v>
+      </c>
+      <c r="F178" t="n">
         <v>362.8524</v>
       </c>
-      <c r="G107" t="n">
-        <v>245</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>245</v>
-      </c>
-      <c r="K107" t="n">
-        <v>245</v>
-      </c>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>245</v>
-      </c>
-      <c r="C108" t="n">
+      <c r="G178" t="n">
+        <v>-93199.2525333243</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>245</v>
+      </c>
+      <c r="K178" t="n">
+        <v>245</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>245</v>
+      </c>
+      <c r="C179" t="n">
         <v>246</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D179" t="n">
         <v>246</v>
       </c>
-      <c r="E108" t="n">
-        <v>245</v>
-      </c>
-      <c r="F108" t="n">
+      <c r="E179" t="n">
+        <v>245</v>
+      </c>
+      <c r="F179" t="n">
         <v>364.3033</v>
       </c>
-      <c r="G108" t="n">
-        <v>245.5</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>245</v>
-      </c>
-      <c r="K108" t="n">
-        <v>245</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="G179" t="n">
+        <v>-92834.9492333243</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>245</v>
+      </c>
+      <c r="K179" t="n">
+        <v>245</v>
+      </c>
+      <c r="L179" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
         <v>246</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C180" t="n">
         <v>246</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D180" t="n">
         <v>246</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E180" t="n">
         <v>246</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F180" t="n">
         <v>1981.6102</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G180" t="n">
+        <v>-92834.9492333243</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
         <v>246</v>
       </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>246</v>
-      </c>
-      <c r="K109" t="n">
-        <v>245</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="K180" t="n">
+        <v>245</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
         <v>250</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C181" t="n">
         <v>250</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D181" t="n">
         <v>250</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E181" t="n">
         <v>250</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F181" t="n">
         <v>1188.5245</v>
       </c>
-      <c r="G110" t="n">
-        <v>248</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
+      <c r="G181" t="n">
+        <v>-91646.4247333243</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
         <v>246</v>
       </c>
-      <c r="K110" t="n">
-        <v>245</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="K181" t="n">
+        <v>245</v>
+      </c>
+      <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
         <v>252</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C182" t="n">
         <v>253</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D182" t="n">
         <v>253</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E182" t="n">
         <v>252</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F182" t="n">
         <v>4</v>
       </c>
-      <c r="G111" t="n">
-        <v>251.5</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>245</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="G182" t="n">
+        <v>-91642.4247333243</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>250</v>
+      </c>
+      <c r="K182" t="n">
+        <v>245</v>
+      </c>
+      <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
         <v>254</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C183" t="n">
         <v>255</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D183" t="n">
         <v>255</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E183" t="n">
         <v>254</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F183" t="n">
         <v>4</v>
       </c>
-      <c r="G112" t="n">
-        <v>254</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>245</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="G183" t="n">
+        <v>-91638.4247333243</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>245</v>
+      </c>
+      <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
         <v>254</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C184" t="n">
         <v>254</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D184" t="n">
         <v>254</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E184" t="n">
         <v>254</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F184" t="n">
         <v>25.2383</v>
       </c>
-      <c r="G113" t="n">
-        <v>254.5</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>245</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="G184" t="n">
+        <v>-91663.66303332429</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>245</v>
+      </c>
+      <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
         <v>255</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C185" t="n">
         <v>255</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D185" t="n">
         <v>255</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E185" t="n">
         <v>255</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F185" t="n">
         <v>101</v>
       </c>
-      <c r="G114" t="n">
-        <v>254.5</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>245</v>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="G185" t="n">
+        <v>-91562.66303332429</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>245</v>
+      </c>
+      <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
         <v>256</v>
       </c>
-      <c r="C115" t="n">
-        <v>257</v>
-      </c>
-      <c r="D115" t="n">
-        <v>257</v>
-      </c>
-      <c r="E115" t="n">
+      <c r="C186" t="n">
+        <v>257</v>
+      </c>
+      <c r="D186" t="n">
+        <v>257</v>
+      </c>
+      <c r="E186" t="n">
         <v>256</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F186" t="n">
         <v>19.5213</v>
       </c>
-      <c r="G115" t="n">
-        <v>256</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>245</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="G186" t="n">
+        <v>-91543.1417333243</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>245</v>
+      </c>
+      <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>259</v>
-      </c>
-      <c r="C116" t="n">
-        <v>259</v>
-      </c>
-      <c r="D116" t="n">
-        <v>259</v>
-      </c>
-      <c r="E116" t="n">
-        <v>259</v>
-      </c>
-      <c r="F116" t="n">
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>259</v>
+      </c>
+      <c r="C187" t="n">
+        <v>259</v>
+      </c>
+      <c r="D187" t="n">
+        <v>259</v>
+      </c>
+      <c r="E187" t="n">
+        <v>259</v>
+      </c>
+      <c r="F187" t="n">
         <v>4651.7195</v>
       </c>
-      <c r="G116" t="n">
-        <v>258</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>245</v>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="G187" t="n">
+        <v>-86891.42223332429</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>245</v>
+      </c>
+      <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>259</v>
-      </c>
-      <c r="C117" t="n">
-        <v>259</v>
-      </c>
-      <c r="D117" t="n">
-        <v>259</v>
-      </c>
-      <c r="E117" t="n">
-        <v>259</v>
-      </c>
-      <c r="F117" t="n">
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>259</v>
+      </c>
+      <c r="C188" t="n">
+        <v>259</v>
+      </c>
+      <c r="D188" t="n">
+        <v>259</v>
+      </c>
+      <c r="E188" t="n">
+        <v>259</v>
+      </c>
+      <c r="F188" t="n">
         <v>4286.0219</v>
       </c>
-      <c r="G117" t="n">
-        <v>259</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>245</v>
-      </c>
-      <c r="L117" t="inlineStr">
+      <c r="G188" t="n">
+        <v>-86891.42223332429</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>245</v>
+      </c>
+      <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>259</v>
-      </c>
-      <c r="C118" t="n">
-        <v>259</v>
-      </c>
-      <c r="D118" t="n">
-        <v>259</v>
-      </c>
-      <c r="E118" t="n">
-        <v>259</v>
-      </c>
-      <c r="F118" t="n">
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>259</v>
+      </c>
+      <c r="C189" t="n">
+        <v>259</v>
+      </c>
+      <c r="D189" t="n">
+        <v>259</v>
+      </c>
+      <c r="E189" t="n">
+        <v>259</v>
+      </c>
+      <c r="F189" t="n">
         <v>1765.72</v>
       </c>
-      <c r="G118" t="n">
-        <v>259</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>245</v>
-      </c>
-      <c r="L118" t="inlineStr">
+      <c r="G189" t="n">
+        <v>-86891.42223332429</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>245</v>
+      </c>
+      <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>259</v>
-      </c>
-      <c r="C119" t="n">
-        <v>259</v>
-      </c>
-      <c r="D119" t="n">
-        <v>259</v>
-      </c>
-      <c r="E119" t="n">
-        <v>259</v>
-      </c>
-      <c r="F119" t="n">
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>259</v>
+      </c>
+      <c r="C190" t="n">
+        <v>259</v>
+      </c>
+      <c r="D190" t="n">
+        <v>259</v>
+      </c>
+      <c r="E190" t="n">
+        <v>259</v>
+      </c>
+      <c r="F190" t="n">
         <v>342.8818</v>
       </c>
-      <c r="G119" t="n">
-        <v>259</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>245</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="G190" t="n">
+        <v>-86891.42223332429</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>245</v>
+      </c>
+      <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>259</v>
-      </c>
-      <c r="C120" t="n">
-        <v>259</v>
-      </c>
-      <c r="D120" t="n">
-        <v>259</v>
-      </c>
-      <c r="E120" t="n">
-        <v>259</v>
-      </c>
-      <c r="F120" t="n">
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>259</v>
+      </c>
+      <c r="C191" t="n">
+        <v>259</v>
+      </c>
+      <c r="D191" t="n">
+        <v>259</v>
+      </c>
+      <c r="E191" t="n">
+        <v>259</v>
+      </c>
+      <c r="F191" t="n">
         <v>29.8158</v>
       </c>
-      <c r="G120" t="n">
-        <v>259</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>245</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="G191" t="n">
+        <v>-86891.42223332429</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>245</v>
+      </c>
+      <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>259</v>
-      </c>
-      <c r="C121" t="n">
-        <v>259</v>
-      </c>
-      <c r="D121" t="n">
-        <v>259</v>
-      </c>
-      <c r="E121" t="n">
-        <v>259</v>
-      </c>
-      <c r="F121" t="n">
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>259</v>
+      </c>
+      <c r="C192" t="n">
+        <v>259</v>
+      </c>
+      <c r="D192" t="n">
+        <v>259</v>
+      </c>
+      <c r="E192" t="n">
+        <v>259</v>
+      </c>
+      <c r="F192" t="n">
         <v>339.9999</v>
       </c>
-      <c r="G121" t="n">
-        <v>259</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>245</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="G192" t="n">
+        <v>-86891.42223332429</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>245</v>
+      </c>
+      <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>259</v>
-      </c>
-      <c r="C122" t="n">
-        <v>259</v>
-      </c>
-      <c r="D122" t="n">
-        <v>259</v>
-      </c>
-      <c r="E122" t="n">
-        <v>259</v>
-      </c>
-      <c r="F122" t="n">
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>259</v>
+      </c>
+      <c r="C193" t="n">
+        <v>259</v>
+      </c>
+      <c r="D193" t="n">
+        <v>259</v>
+      </c>
+      <c r="E193" t="n">
+        <v>259</v>
+      </c>
+      <c r="F193" t="n">
         <v>4475.9713</v>
       </c>
-      <c r="G122" t="n">
-        <v>259</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>245</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="G193" t="n">
+        <v>-86891.42223332429</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>245</v>
+      </c>
+      <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
         <v>258</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C194" t="n">
         <v>258</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D194" t="n">
         <v>258</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E194" t="n">
         <v>258</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F194" t="n">
         <v>235</v>
       </c>
-      <c r="G123" t="n">
-        <v>258.5</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>245</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="G194" t="n">
+        <v>-87126.42223332429</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>245</v>
+      </c>
+      <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
         <v>258</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C195" t="n">
         <v>258</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D195" t="n">
         <v>258</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E195" t="n">
         <v>258</v>
       </c>
-      <c r="F124" t="n">
+      <c r="F195" t="n">
         <v>523.47</v>
       </c>
-      <c r="G124" t="n">
-        <v>258</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>245</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="G195" t="n">
+        <v>-87126.42223332429</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>245</v>
+      </c>
+      <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
         <v>258</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C196" t="n">
         <v>258</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D196" t="n">
         <v>258</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E196" t="n">
         <v>258</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F196" t="n">
         <v>50.7924</v>
       </c>
-      <c r="G125" t="n">
-        <v>258</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>245</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="G196" t="n">
+        <v>-87126.42223332429</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>245</v>
+      </c>
+      <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>259</v>
-      </c>
-      <c r="C126" t="n">
-        <v>259</v>
-      </c>
-      <c r="D126" t="n">
-        <v>259</v>
-      </c>
-      <c r="E126" t="n">
-        <v>259</v>
-      </c>
-      <c r="F126" t="n">
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>259</v>
+      </c>
+      <c r="C197" t="n">
+        <v>259</v>
+      </c>
+      <c r="D197" t="n">
+        <v>259</v>
+      </c>
+      <c r="E197" t="n">
+        <v>259</v>
+      </c>
+      <c r="F197" t="n">
         <v>235</v>
       </c>
-      <c r="G126" t="n">
-        <v>258.5</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>245</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="G197" t="n">
+        <v>-86891.42223332429</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>245</v>
+      </c>
+      <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
         <v>258</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C198" t="n">
         <v>258</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D198" t="n">
         <v>258</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E198" t="n">
         <v>258</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F198" t="n">
         <v>4126</v>
       </c>
-      <c r="G127" t="n">
-        <v>258.5</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>245</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="G198" t="n">
+        <v>-91017.42223332429</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>245</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
         <v>258</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C199" t="n">
         <v>258</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D199" t="n">
         <v>258</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E199" t="n">
         <v>258</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F199" t="n">
         <v>1020</v>
       </c>
-      <c r="G128" t="n">
-        <v>258</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>245</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="G199" t="n">
+        <v>-91017.42223332429</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>245</v>
+      </c>
+      <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>257</v>
-      </c>
-      <c r="C129" t="n">
-        <v>257</v>
-      </c>
-      <c r="D129" t="n">
-        <v>257</v>
-      </c>
-      <c r="E129" t="n">
-        <v>257</v>
-      </c>
-      <c r="F129" t="n">
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>257</v>
+      </c>
+      <c r="C200" t="n">
+        <v>257</v>
+      </c>
+      <c r="D200" t="n">
+        <v>257</v>
+      </c>
+      <c r="E200" t="n">
+        <v>257</v>
+      </c>
+      <c r="F200" t="n">
         <v>287</v>
       </c>
-      <c r="G129" t="n">
-        <v>257.5</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>245</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="G200" t="n">
+        <v>-91304.42223332429</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>245</v>
+      </c>
+      <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
         <v>256</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C201" t="n">
         <v>256</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D201" t="n">
         <v>256</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E201" t="n">
         <v>256</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F201" t="n">
         <v>144</v>
       </c>
-      <c r="G130" t="n">
-        <v>256.5</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>245</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="G201" t="n">
+        <v>-91448.42223332429</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>245</v>
+      </c>
+      <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>257</v>
-      </c>
-      <c r="C131" t="n">
-        <v>257</v>
-      </c>
-      <c r="D131" t="n">
-        <v>257</v>
-      </c>
-      <c r="E131" t="n">
-        <v>257</v>
-      </c>
-      <c r="F131" t="n">
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>257</v>
+      </c>
+      <c r="C202" t="n">
+        <v>257</v>
+      </c>
+      <c r="D202" t="n">
+        <v>257</v>
+      </c>
+      <c r="E202" t="n">
+        <v>257</v>
+      </c>
+      <c r="F202" t="n">
         <v>742.8256</v>
       </c>
-      <c r="G131" t="n">
-        <v>256.5</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>245</v>
-      </c>
-      <c r="L131" t="inlineStr">
+      <c r="G202" t="n">
+        <v>-90705.5966333243</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>245</v>
+      </c>
+      <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
         <v>258</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C203" t="n">
         <v>258</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D203" t="n">
         <v>258</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E203" t="n">
         <v>258</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F203" t="n">
         <v>161.0196</v>
       </c>
-      <c r="G132" t="n">
-        <v>257.5</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>245</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="G203" t="n">
+        <v>-90544.5770333243</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>245</v>
+      </c>
+      <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
         <v>258</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C204" t="n">
         <v>258</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D204" t="n">
         <v>258</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E204" t="n">
         <v>258</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F204" t="n">
         <v>71.173</v>
       </c>
-      <c r="G133" t="n">
-        <v>258</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>245</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="G204" t="n">
+        <v>-90544.5770333243</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>245</v>
+      </c>
+      <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>259</v>
-      </c>
-      <c r="C134" t="n">
-        <v>259</v>
-      </c>
-      <c r="D134" t="n">
-        <v>259</v>
-      </c>
-      <c r="E134" t="n">
-        <v>259</v>
-      </c>
-      <c r="F134" t="n">
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>259</v>
+      </c>
+      <c r="C205" t="n">
+        <v>259</v>
+      </c>
+      <c r="D205" t="n">
+        <v>259</v>
+      </c>
+      <c r="E205" t="n">
+        <v>259</v>
+      </c>
+      <c r="F205" t="n">
         <v>7</v>
       </c>
-      <c r="G134" t="n">
-        <v>258.5</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>245</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="G205" t="n">
+        <v>-90537.5770333243</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>245</v>
+      </c>
+      <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
         <v>260</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C206" t="n">
         <v>260</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D206" t="n">
         <v>260</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E206" t="n">
         <v>260</v>
       </c>
-      <c r="F135" t="n">
+      <c r="F206" t="n">
         <v>900</v>
       </c>
-      <c r="G135" t="n">
-        <v>259.5</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>245</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="G206" t="n">
+        <v>-89637.5770333243</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>245</v>
+      </c>
+      <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
         <v>261</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C207" t="n">
         <v>261</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D207" t="n">
         <v>261</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E207" t="n">
         <v>261</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F207" t="n">
         <v>143</v>
       </c>
-      <c r="G136" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>245</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="G207" t="n">
+        <v>-89494.5770333243</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>245</v>
+      </c>
+      <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
         <v>263</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C208" t="n">
         <v>263</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D208" t="n">
         <v>263</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E208" t="n">
         <v>263</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F208" t="n">
         <v>380.2282</v>
       </c>
-      <c r="G137" t="n">
-        <v>262</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>245</v>
-      </c>
-      <c r="L137" t="inlineStr">
+      <c r="G208" t="n">
+        <v>-89114.3488333243</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>245</v>
+      </c>
+      <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
         <v>260</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C209" t="n">
         <v>262</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D209" t="n">
         <v>262</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E209" t="n">
         <v>260</v>
       </c>
-      <c r="F138" t="n">
+      <c r="F209" t="n">
         <v>46.0328</v>
       </c>
-      <c r="G138" t="n">
-        <v>262.5</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>245</v>
-      </c>
-      <c r="L138" t="inlineStr">
+      <c r="G209" t="n">
+        <v>-89160.3816333243</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>245</v>
+      </c>
+      <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
         <v>262</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C210" t="n">
         <v>262</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D210" t="n">
         <v>262</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E210" t="n">
         <v>262</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F210" t="n">
         <v>558.3064000000001</v>
       </c>
-      <c r="G139" t="n">
-        <v>262</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>245</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="G210" t="n">
+        <v>-89160.3816333243</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>245</v>
+      </c>
+      <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
         <v>260</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C211" t="n">
         <v>260</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D211" t="n">
         <v>260</v>
       </c>
-      <c r="E140" t="n">
+      <c r="E211" t="n">
         <v>260</v>
       </c>
-      <c r="F140" t="n">
+      <c r="F211" t="n">
         <v>668.7178</v>
       </c>
-      <c r="G140" t="n">
-        <v>261</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>245</v>
-      </c>
-      <c r="L140" t="inlineStr">
+      <c r="G211" t="n">
+        <v>-89829.0994333243</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>245</v>
+      </c>
+      <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
         <v>260</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C212" t="n">
         <v>260</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D212" t="n">
         <v>260</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E212" t="n">
         <v>260</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F212" t="n">
         <v>334.4828</v>
       </c>
-      <c r="G141" t="n">
-        <v>260</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>245</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="G212" t="n">
+        <v>-89829.0994333243</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>245</v>
+      </c>
+      <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
         <v>261</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C213" t="n">
         <v>261</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D213" t="n">
         <v>261</v>
       </c>
-      <c r="E142" t="n">
+      <c r="E213" t="n">
         <v>261</v>
       </c>
-      <c r="F142" t="n">
+      <c r="F213" t="n">
         <v>7</v>
       </c>
-      <c r="G142" t="n">
-        <v>260.5</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>245</v>
-      </c>
-      <c r="L142" t="inlineStr">
+      <c r="G213" t="n">
+        <v>-89822.0994333243</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>245</v>
+      </c>
+      <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
         <v>263</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C214" t="n">
         <v>263</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D214" t="n">
         <v>263</v>
       </c>
-      <c r="E143" t="n">
+      <c r="E214" t="n">
         <v>263</v>
       </c>
-      <c r="F143" t="n">
+      <c r="F214" t="n">
         <v>2</v>
       </c>
-      <c r="G143" t="n">
-        <v>262</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>245</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="G214" t="n">
+        <v>-89820.0994333243</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>245</v>
+      </c>
+      <c r="L214" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1.068469387755102</v>
-      </c>
-      <c r="N143" t="n">
-        <v>1.077868852459016</v>
-      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-24 BackTest BAT.xlsx
+++ b/BackTest/2019-11-24 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N214"/>
+  <dimension ref="A1:M214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>181276.2620119691</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>181603.5053119691</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>168731.7210119691</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>168731.7210119691</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>168733.7657119691</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>168733.7657119691</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>142756.073647628</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>142756.073647628</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>142883.073647628</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>145879.847147628</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>145451.847147628</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>132938.166947628</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2728,15 @@
         <v>133002.724847628</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6648,22 +6127,15 @@
         <v>-93199.2525333243</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>245</v>
-      </c>
-      <c r="K174" t="n">
-        <v>245</v>
-      </c>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6688,154 +6160,134 @@
         <v>-93199.2525333243</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>245</v>
-      </c>
-      <c r="K175" t="n">
-        <v>245</v>
-      </c>
-      <c r="L175" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>245</v>
+      </c>
+      <c r="C176" t="n">
+        <v>245</v>
+      </c>
+      <c r="D176" t="n">
+        <v>245</v>
+      </c>
+      <c r="E176" t="n">
+        <v>245</v>
+      </c>
+      <c r="F176" t="n">
+        <v>4315.6003</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-93199.2525333243</v>
+      </c>
+      <c r="H176" t="n">
+        <v>2</v>
+      </c>
+      <c r="I176" t="n">
+        <v>245</v>
+      </c>
+      <c r="J176" t="n">
+        <v>245</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>245</v>
+      </c>
+      <c r="C177" t="n">
+        <v>245</v>
+      </c>
+      <c r="D177" t="n">
+        <v>245</v>
+      </c>
+      <c r="E177" t="n">
+        <v>245</v>
+      </c>
+      <c r="F177" t="n">
+        <v>3752.8204</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-93199.2525333243</v>
+      </c>
+      <c r="H177" t="n">
+        <v>2</v>
+      </c>
+      <c r="I177" t="n">
+        <v>245</v>
+      </c>
+      <c r="J177" t="n">
+        <v>245</v>
+      </c>
+      <c r="K177" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>245</v>
-      </c>
-      <c r="C176" t="n">
-        <v>245</v>
-      </c>
-      <c r="D176" t="n">
-        <v>245</v>
-      </c>
-      <c r="E176" t="n">
-        <v>245</v>
-      </c>
-      <c r="F176" t="n">
-        <v>4315.6003</v>
-      </c>
-      <c r="G176" t="n">
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>245</v>
+      </c>
+      <c r="C178" t="n">
+        <v>245</v>
+      </c>
+      <c r="D178" t="n">
+        <v>245</v>
+      </c>
+      <c r="E178" t="n">
+        <v>245</v>
+      </c>
+      <c r="F178" t="n">
+        <v>362.8524</v>
+      </c>
+      <c r="G178" t="n">
         <v>-93199.2525333243</v>
       </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>245</v>
-      </c>
-      <c r="K176" t="n">
-        <v>245</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="H178" t="n">
+        <v>2</v>
+      </c>
+      <c r="I178" t="n">
+        <v>245</v>
+      </c>
+      <c r="J178" t="n">
+        <v>245</v>
+      </c>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>245</v>
-      </c>
-      <c r="C177" t="n">
-        <v>245</v>
-      </c>
-      <c r="D177" t="n">
-        <v>245</v>
-      </c>
-      <c r="E177" t="n">
-        <v>245</v>
-      </c>
-      <c r="F177" t="n">
-        <v>3752.8204</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-93199.2525333243</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>245</v>
-      </c>
-      <c r="K177" t="n">
-        <v>245</v>
-      </c>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>245</v>
-      </c>
-      <c r="C178" t="n">
-        <v>245</v>
-      </c>
-      <c r="D178" t="n">
-        <v>245</v>
-      </c>
-      <c r="E178" t="n">
-        <v>245</v>
-      </c>
-      <c r="F178" t="n">
-        <v>362.8524</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-93199.2525333243</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>245</v>
-      </c>
-      <c r="K178" t="n">
-        <v>245</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6860,26 +6312,23 @@
         <v>-92834.9492333243</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="J179" t="n">
         <v>245</v>
       </c>
-      <c r="K179" t="n">
-        <v>245</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="K179" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6904,26 +6353,23 @@
         <v>-92834.9492333243</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="J180" t="n">
-        <v>246</v>
-      </c>
-      <c r="K180" t="n">
-        <v>245</v>
-      </c>
-      <c r="L180" t="inlineStr">
+        <v>245</v>
+      </c>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6948,26 +6394,23 @@
         <v>-91646.4247333243</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="J181" t="n">
-        <v>246</v>
-      </c>
-      <c r="K181" t="n">
-        <v>245</v>
-      </c>
-      <c r="L181" t="inlineStr">
+        <v>245</v>
+      </c>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6992,26 +6435,23 @@
         <v>-91642.4247333243</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="J182" t="n">
-        <v>250</v>
-      </c>
-      <c r="K182" t="n">
-        <v>245</v>
-      </c>
-      <c r="L182" t="inlineStr">
+        <v>245</v>
+      </c>
+      <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7038,22 +6478,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>245</v>
-      </c>
-      <c r="L183" t="inlineStr">
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>245</v>
+      </c>
+      <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7080,22 +6517,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>245</v>
-      </c>
-      <c r="L184" t="inlineStr">
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>245</v>
+      </c>
+      <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7122,22 +6556,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>245</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>245</v>
+      </c>
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7164,22 +6595,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>245</v>
-      </c>
-      <c r="L186" t="inlineStr">
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>245</v>
+      </c>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7206,22 +6634,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>245</v>
-      </c>
-      <c r="L187" t="inlineStr">
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>245</v>
+      </c>
+      <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7248,22 +6673,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>245</v>
-      </c>
-      <c r="L188" t="inlineStr">
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>245</v>
+      </c>
+      <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7290,22 +6712,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>245</v>
-      </c>
-      <c r="L189" t="inlineStr">
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>245</v>
+      </c>
+      <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7332,22 +6751,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>245</v>
-      </c>
-      <c r="L190" t="inlineStr">
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>245</v>
+      </c>
+      <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7374,22 +6790,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>245</v>
-      </c>
-      <c r="L191" t="inlineStr">
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>245</v>
+      </c>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7416,22 +6829,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>245</v>
-      </c>
-      <c r="L192" t="inlineStr">
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>245</v>
+      </c>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7458,22 +6868,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>245</v>
-      </c>
-      <c r="L193" t="inlineStr">
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>245</v>
+      </c>
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7500,22 +6907,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>245</v>
-      </c>
-      <c r="L194" t="inlineStr">
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>245</v>
+      </c>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7542,22 +6946,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>245</v>
-      </c>
-      <c r="L195" t="inlineStr">
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>245</v>
+      </c>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7584,22 +6985,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>245</v>
-      </c>
-      <c r="L196" t="inlineStr">
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>245</v>
+      </c>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7626,22 +7024,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>245</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>245</v>
+      </c>
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7668,22 +7063,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>245</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>245</v>
+      </c>
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7710,22 +7102,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>245</v>
-      </c>
-      <c r="L199" t="inlineStr">
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>245</v>
+      </c>
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7752,22 +7141,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>245</v>
-      </c>
-      <c r="L200" t="inlineStr">
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>245</v>
+      </c>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7794,22 +7180,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>245</v>
-      </c>
-      <c r="L201" t="inlineStr">
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>245</v>
+      </c>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7836,22 +7219,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>245</v>
-      </c>
-      <c r="L202" t="inlineStr">
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>245</v>
+      </c>
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7878,22 +7258,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>245</v>
-      </c>
-      <c r="L203" t="inlineStr">
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>245</v>
+      </c>
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7920,22 +7297,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>245</v>
-      </c>
-      <c r="L204" t="inlineStr">
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>245</v>
+      </c>
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7962,22 +7336,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>245</v>
-      </c>
-      <c r="L205" t="inlineStr">
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>245</v>
+      </c>
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8004,22 +7375,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>245</v>
-      </c>
-      <c r="L206" t="inlineStr">
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>245</v>
+      </c>
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8046,22 +7414,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>245</v>
-      </c>
-      <c r="L207" t="inlineStr">
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>245</v>
+      </c>
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8088,22 +7453,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>245</v>
-      </c>
-      <c r="L208" t="inlineStr">
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>245</v>
+      </c>
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8130,22 +7492,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>245</v>
-      </c>
-      <c r="L209" t="inlineStr">
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>245</v>
+      </c>
+      <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8172,22 +7531,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>245</v>
-      </c>
-      <c r="L210" t="inlineStr">
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>245</v>
+      </c>
+      <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8214,22 +7570,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>245</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>245</v>
+      </c>
+      <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8256,22 +7609,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>245</v>
-      </c>
-      <c r="L212" t="inlineStr">
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>245</v>
+      </c>
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8298,22 +7648,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>245</v>
-      </c>
-      <c r="L213" t="inlineStr">
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>245</v>
+      </c>
+      <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8340,24 +7687,21 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>245</v>
-      </c>
-      <c r="L214" t="inlineStr">
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>245</v>
+      </c>
+      <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-24 BackTest BAT.xlsx
+++ b/BackTest/2019-11-24 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -847,7 +847,7 @@
         <v>181276.2620119691</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>181603.5053119691</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>168731.7210119691</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>168731.7210119691</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>168733.7657119691</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>168733.7657119691</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>160903.3676119691</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>160246.5784119691</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>162624.1705119691</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>162624.1705119691</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>163130.2827119691</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>163318.5539119691</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>163465.2548119691</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>160230.2193119691</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>158208.3221119691</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>158208.3221119691</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>158208.3221119691</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>158424.8856119691</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>157187.8008119691</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>142661.801247628</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>143530.801247628</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>143530.801247628</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>141527.551947628</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>141527.551947628</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>141527.551947628</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>138256.081047628</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>142756.073647628</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>142756.073647628</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>142883.073647628</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>142994.553647628</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>145879.847147628</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>145879.847147628</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>145451.847147628</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>132938.166947628</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>133002.724847628</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-18376.58365237192</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -6028,10 +6028,14 @@
         <v>-93199.2525333243</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>244</v>
+      </c>
+      <c r="J171" t="n">
+        <v>244</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
@@ -6061,11 +6065,19 @@
         <v>-93199.2525333243</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>245</v>
+      </c>
+      <c r="J172" t="n">
+        <v>244</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6106,19 @@
         <v>-93199.2525333243</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>245</v>
+      </c>
+      <c r="J173" t="n">
+        <v>244</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6127,10 +6147,14 @@
         <v>-93199.2525333243</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>245</v>
+      </c>
+      <c r="J174" t="n">
+        <v>245</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
@@ -6160,11 +6184,19 @@
         <v>-93199.2525333243</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>245</v>
+      </c>
+      <c r="J175" t="n">
+        <v>245</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,7 +6225,7 @@
         <v>-93199.2525333243</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>245</v>
@@ -6201,7 +6233,11 @@
       <c r="J176" t="n">
         <v>245</v>
       </c>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6230,7 +6266,7 @@
         <v>-93199.2525333243</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>245</v>
@@ -6238,11 +6274,7 @@
       <c r="J177" t="n">
         <v>245</v>
       </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6271,7 +6303,7 @@
         <v>-93199.2525333243</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>245</v>
@@ -6312,7 +6344,7 @@
         <v>-92834.9492333243</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>245</v>
@@ -6353,7 +6385,7 @@
         <v>-92834.9492333243</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>246</v>
@@ -6394,7 +6426,7 @@
         <v>-91646.4247333243</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>246</v>
@@ -6435,7 +6467,7 @@
         <v>-91642.4247333243</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>250</v>
@@ -7685,9 +7717,11 @@
         <v>-89820.0994333243</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>261</v>
+      </c>
       <c r="J214" t="n">
         <v>245</v>
       </c>
@@ -7702,6 +7736,6 @@
       <c r="M214" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-24 BackTest BAT.xlsx
+++ b/BackTest/2019-11-24 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>185225.3243119691</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>185227.3243119691</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>185230.8104119691</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>160903.3676119691</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>160246.5784119691</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>162624.1705119691</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>162624.1705119691</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>163130.2827119691</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>163318.5539119691</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>163465.2548119691</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>160230.2193119691</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>158208.3221119691</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>158208.3221119691</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>158208.3221119691</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>158424.8856119691</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>157187.8008119691</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>142661.801247628</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>143530.801247628</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>143530.801247628</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>141527.551947628</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>141527.551947628</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>141527.551947628</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>138256.081047628</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>142756.073647628</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>142756.073647628</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>142883.073647628</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>142994.553647628</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>145879.847147628</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-18376.58365237192</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -6467,11 +6467,9 @@
         <v>-91642.4247333243</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
         <v>245</v>
       </c>
@@ -6703,7 +6701,7 @@
         <v>-86891.42223332429</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
@@ -6742,7 +6740,7 @@
         <v>-86891.42223332429</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
@@ -6781,7 +6779,7 @@
         <v>-86891.42223332429</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
@@ -6789,13 +6787,15 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>1.052142857142857</v>
+      </c>
+      <c r="M190" t="n">
+        <v>1.094262295081967</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6820,17 +6820,11 @@
         <v>-86891.42223332429</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>245</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6859,17 +6853,11 @@
         <v>-86891.42223332429</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>245</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6898,17 +6886,11 @@
         <v>-86891.42223332429</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>245</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6937,17 +6919,11 @@
         <v>-87126.42223332429</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>245</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6979,14 +6955,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>245</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7018,14 +6988,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>245</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7057,14 +7021,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>245</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7096,14 +7054,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>245</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7135,14 +7087,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>245</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7174,14 +7120,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>245</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7213,14 +7153,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>245</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7252,14 +7186,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>245</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7291,14 +7219,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>245</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7330,14 +7252,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>245</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7369,14 +7285,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>245</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7408,14 +7318,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>245</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7447,14 +7351,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>245</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7486,14 +7384,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>245</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7525,14 +7417,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>245</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7564,14 +7450,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>245</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7603,14 +7483,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>245</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7642,14 +7516,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>245</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7681,14 +7549,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>245</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7717,25 +7579,17 @@
         <v>-89820.0994333243</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>261</v>
-      </c>
-      <c r="J214" t="n">
-        <v>245</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
       <c r="M214" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-24 BackTest BAT.xlsx
+++ b/BackTest/2019-11-24 BackTest BAT.xlsx
@@ -451,7 +451,7 @@
         <v>185225.3243119691</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>185227.3243119691</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>185230.8104119691</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>181276.2620119691</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>181276.2620119691</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>181603.5053119691</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>168731.7210119691</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>168731.7210119691</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>168733.7657119691</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>168733.7657119691</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>163833.7558119691</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>163848.2936119691</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>160903.3676119691</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>160246.5784119691</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>162624.1705119691</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>162624.1705119691</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>163130.2827119691</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>163318.5539119691</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>163465.2548119691</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>160230.2193119691</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>158208.3221119691</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>158208.3221119691</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>158208.3221119691</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>158424.8856119691</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>157187.8008119691</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>157352.7238119691</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>157352.7238119691</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>155463.5035119691</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>155463.5035119691</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>158734.9744119691</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>157216.0873119691</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>157216.0873119691</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>147340.8094119691</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>147340.8094119691</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>147340.8094119691</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>147340.8094119691</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>147340.8094119691</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>147340.8094119691</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>147340.8094119691</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>147340.8094119691</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>145831.3754119691</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>145805.3754119691</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -6028,14 +6028,10 @@
         <v>-93199.2525333243</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>244</v>
-      </c>
-      <c r="J171" t="n">
-        <v>244</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
@@ -6065,19 +6061,11 @@
         <v>-93199.2525333243</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>245</v>
-      </c>
-      <c r="J172" t="n">
-        <v>244</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6106,19 +6094,11 @@
         <v>-93199.2525333243</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>245</v>
-      </c>
-      <c r="J173" t="n">
-        <v>244</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6147,14 +6127,10 @@
         <v>-93199.2525333243</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>245</v>
-      </c>
-      <c r="J174" t="n">
-        <v>245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
@@ -6192,11 +6168,7 @@
       <c r="J175" t="n">
         <v>245</v>
       </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6274,7 +6246,11 @@
       <c r="J177" t="n">
         <v>245</v>
       </c>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6311,11 +6287,7 @@
       <c r="J178" t="n">
         <v>245</v>
       </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6467,9 +6439,11 @@
         <v>-91642.4247333243</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>250</v>
+      </c>
       <c r="J182" t="n">
         <v>245</v>
       </c>
@@ -6701,7 +6675,7 @@
         <v>-86891.42223332429</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
@@ -6740,7 +6714,7 @@
         <v>-86891.42223332429</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
@@ -6779,7 +6753,7 @@
         <v>-86891.42223332429</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
@@ -6787,15 +6761,13 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L190" t="n">
-        <v>1.052142857142857</v>
-      </c>
-      <c r="M190" t="n">
-        <v>1.094262295081967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6820,11 +6792,17 @@
         <v>-86891.42223332429</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>245</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6853,11 +6831,17 @@
         <v>-86891.42223332429</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>245</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6886,11 +6870,17 @@
         <v>-86891.42223332429</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>245</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6919,11 +6909,17 @@
         <v>-87126.42223332429</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>245</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6955,8 +6951,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>245</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6988,8 +6990,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>245</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7021,8 +7029,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>245</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7054,8 +7068,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>245</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7087,8 +7107,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>245</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7120,8 +7146,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>245</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7153,8 +7185,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>245</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7186,8 +7224,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>245</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7219,8 +7263,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>245</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7252,8 +7302,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>245</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7285,8 +7341,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>245</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7318,8 +7380,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>245</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7351,8 +7419,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>245</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7384,8 +7458,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>245</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7417,8 +7497,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>245</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7450,8 +7536,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>245</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7483,8 +7575,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>245</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7516,8 +7614,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>245</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7549,8 +7653,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>245</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7582,8 +7692,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>245</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-24 BackTest BAT.xlsx
+++ b/BackTest/2019-11-24 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M214"/>
+  <dimension ref="A1:L214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>369</v>
       </c>
       <c r="G2" t="n">
-        <v>185225.3243119691</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>185227.3243119691</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>3.4861</v>
       </c>
       <c r="G4" t="n">
-        <v>185230.8104119691</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>4500.0099</v>
       </c>
       <c r="G5" t="n">
-        <v>180730.8005119691</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>4499.99</v>
       </c>
       <c r="G6" t="n">
-        <v>180730.8005119691</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>10165.9924</v>
       </c>
       <c r="G7" t="n">
-        <v>180730.8005119691</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>2590.79</v>
       </c>
       <c r="G8" t="n">
-        <v>180730.8005119691</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>12.3793</v>
       </c>
       <c r="G9" t="n">
-        <v>180730.8005119691</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>2.1309</v>
       </c>
       <c r="G10" t="n">
-        <v>180732.9314119691</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>3.0007</v>
       </c>
       <c r="G11" t="n">
-        <v>180735.9321119691</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>790.3299</v>
       </c>
       <c r="G12" t="n">
-        <v>181526.2620119691</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>9737.8277</v>
       </c>
       <c r="G13" t="n">
-        <v>181526.2620119691</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>250</v>
       </c>
       <c r="G14" t="n">
-        <v>181276.2620119691</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>7200.045</v>
       </c>
       <c r="G15" t="n">
-        <v>181276.2620119691</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>327.2433</v>
       </c>
       <c r="G16" t="n">
-        <v>181603.5053119691</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>12871.7843</v>
       </c>
       <c r="G17" t="n">
-        <v>168731.7210119691</v>
-      </c>
-      <c r="H17" t="n">
         <v>2</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>569.2429</v>
       </c>
       <c r="G18" t="n">
-        <v>168731.7210119691</v>
-      </c>
-      <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>2.0447</v>
       </c>
       <c r="G19" t="n">
-        <v>168733.7657119691</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>100</v>
       </c>
       <c r="G20" t="n">
-        <v>168733.7657119691</v>
-      </c>
-      <c r="H20" t="n">
         <v>2</v>
       </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>4900.0099</v>
       </c>
       <c r="G21" t="n">
-        <v>163833.7558119691</v>
-      </c>
-      <c r="H21" t="n">
         <v>2</v>
       </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>14.5378</v>
       </c>
       <c r="G22" t="n">
-        <v>163848.2936119691</v>
-      </c>
-      <c r="H22" t="n">
         <v>2</v>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>2944.926</v>
       </c>
       <c r="G23" t="n">
-        <v>160903.3676119691</v>
-      </c>
-      <c r="H23" t="n">
         <v>2</v>
       </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>656.7892000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>160246.5784119691</v>
-      </c>
-      <c r="H24" t="n">
         <v>2</v>
       </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>2377.5921</v>
       </c>
       <c r="G25" t="n">
-        <v>162624.1705119691</v>
-      </c>
-      <c r="H25" t="n">
         <v>2</v>
       </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>668.7868</v>
       </c>
       <c r="G26" t="n">
-        <v>162624.1705119691</v>
-      </c>
-      <c r="H26" t="n">
         <v>2</v>
       </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>506.1122</v>
       </c>
       <c r="G27" t="n">
-        <v>163130.2827119691</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>188.2712</v>
       </c>
       <c r="G28" t="n">
-        <v>163318.5539119691</v>
-      </c>
-      <c r="H28" t="n">
         <v>2</v>
       </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>146.7009</v>
       </c>
       <c r="G29" t="n">
-        <v>163465.2548119691</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>3235.0355</v>
       </c>
       <c r="G30" t="n">
-        <v>160230.2193119691</v>
-      </c>
-      <c r="H30" t="n">
         <v>2</v>
       </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>2021.8972</v>
       </c>
       <c r="G31" t="n">
-        <v>158208.3221119691</v>
-      </c>
-      <c r="H31" t="n">
         <v>2</v>
       </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>12.1031</v>
       </c>
       <c r="G32" t="n">
-        <v>158208.3221119691</v>
-      </c>
-      <c r="H32" t="n">
         <v>2</v>
       </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>63.9491</v>
       </c>
       <c r="G33" t="n">
-        <v>158208.3221119691</v>
-      </c>
-      <c r="H33" t="n">
         <v>2</v>
       </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>216.5635</v>
       </c>
       <c r="G34" t="n">
-        <v>158424.8856119691</v>
-      </c>
-      <c r="H34" t="n">
         <v>2</v>
       </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>1237.0848</v>
       </c>
       <c r="G35" t="n">
-        <v>157187.8008119691</v>
-      </c>
-      <c r="H35" t="n">
         <v>2</v>
       </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>164.923</v>
       </c>
       <c r="G36" t="n">
-        <v>157352.7238119691</v>
-      </c>
-      <c r="H36" t="n">
         <v>2</v>
       </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>659.8630000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>157352.7238119691</v>
-      </c>
-      <c r="H37" t="n">
         <v>2</v>
       </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>1889.2203</v>
       </c>
       <c r="G38" t="n">
-        <v>155463.5035119691</v>
-      </c>
-      <c r="H38" t="n">
         <v>2</v>
       </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>1190.3969</v>
       </c>
       <c r="G39" t="n">
-        <v>155463.5035119691</v>
-      </c>
-      <c r="H39" t="n">
         <v>2</v>
       </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>3271.4709</v>
       </c>
       <c r="G40" t="n">
-        <v>158734.9744119691</v>
-      </c>
-      <c r="H40" t="n">
         <v>2</v>
       </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>1518.8871</v>
       </c>
       <c r="G41" t="n">
-        <v>157216.0873119691</v>
-      </c>
-      <c r="H41" t="n">
         <v>2</v>
       </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>943.3923</v>
       </c>
       <c r="G42" t="n">
-        <v>157216.0873119691</v>
-      </c>
-      <c r="H42" t="n">
         <v>2</v>
       </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>9875.277899999999</v>
       </c>
       <c r="G43" t="n">
-        <v>147340.8094119691</v>
-      </c>
-      <c r="H43" t="n">
         <v>2</v>
       </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>9130.456200000001</v>
       </c>
       <c r="G44" t="n">
-        <v>147340.8094119691</v>
-      </c>
-      <c r="H44" t="n">
         <v>2</v>
       </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>6834.9941</v>
       </c>
       <c r="G45" t="n">
-        <v>147340.8094119691</v>
-      </c>
-      <c r="H45" t="n">
         <v>2</v>
       </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>934.0118</v>
       </c>
       <c r="G46" t="n">
-        <v>147340.8094119691</v>
-      </c>
-      <c r="H46" t="n">
         <v>2</v>
       </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>3578</v>
       </c>
       <c r="G47" t="n">
-        <v>147340.8094119691</v>
-      </c>
-      <c r="H47" t="n">
         <v>2</v>
       </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>4911.2355</v>
       </c>
       <c r="G48" t="n">
-        <v>147340.8094119691</v>
-      </c>
-      <c r="H48" t="n">
         <v>2</v>
       </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>7218.0002</v>
       </c>
       <c r="G49" t="n">
-        <v>147340.8094119691</v>
-      </c>
-      <c r="H49" t="n">
         <v>2</v>
       </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>19265.4155</v>
       </c>
       <c r="G50" t="n">
-        <v>147340.8094119691</v>
-      </c>
-      <c r="H50" t="n">
         <v>2</v>
       </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>1509.434</v>
       </c>
       <c r="G51" t="n">
-        <v>145831.3754119691</v>
-      </c>
-      <c r="H51" t="n">
         <v>2</v>
       </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>26</v>
       </c>
       <c r="G52" t="n">
-        <v>145805.3754119691</v>
-      </c>
-      <c r="H52" t="n">
         <v>2</v>
       </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>12.2038</v>
       </c>
       <c r="G53" t="n">
-        <v>145793.1716119691</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>201.4573643410853</v>
       </c>
       <c r="G54" t="n">
-        <v>145591.714247628</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>2929.913</v>
       </c>
       <c r="G55" t="n">
-        <v>142661.801247628</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>869</v>
       </c>
       <c r="G56" t="n">
-        <v>143530.801247628</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>896.6378</v>
       </c>
       <c r="G57" t="n">
-        <v>143530.801247628</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>2003.2493</v>
       </c>
       <c r="G58" t="n">
-        <v>141527.551947628</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>25.7504</v>
       </c>
       <c r="G59" t="n">
-        <v>141527.551947628</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>64.5579</v>
       </c>
       <c r="G60" t="n">
-        <v>141527.551947628</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>3271.4709</v>
       </c>
       <c r="G61" t="n">
-        <v>138256.081047628</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>4499.9926</v>
       </c>
       <c r="G62" t="n">
-        <v>142756.073647628</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>2599.4235</v>
       </c>
       <c r="G63" t="n">
-        <v>142756.073647628</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>127</v>
       </c>
       <c r="G64" t="n">
-        <v>142883.073647628</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>111.48</v>
       </c>
       <c r="G65" t="n">
-        <v>142994.553647628</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>2885.2935</v>
       </c>
       <c r="G66" t="n">
-        <v>145879.847147628</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>6499.9965</v>
       </c>
       <c r="G67" t="n">
-        <v>145879.847147628</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>109.6268</v>
       </c>
       <c r="G68" t="n">
-        <v>145879.847147628</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>428</v>
       </c>
       <c r="G69" t="n">
-        <v>145451.847147628</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>12513.6802</v>
       </c>
       <c r="G70" t="n">
-        <v>132938.166947628</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>64.5579</v>
       </c>
       <c r="G71" t="n">
-        <v>133002.724847628</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>1033</v>
       </c>
       <c r="G72" t="n">
-        <v>133002.724847628</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>297</v>
       </c>
       <c r="G73" t="n">
-        <v>133299.724847628</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>296</v>
       </c>
       <c r="G74" t="n">
-        <v>133299.724847628</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>2161.8957</v>
       </c>
       <c r="G75" t="n">
-        <v>135461.620547628</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>1176.2058</v>
       </c>
       <c r="G76" t="n">
-        <v>134285.414747628</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>2159.1739</v>
       </c>
       <c r="G77" t="n">
-        <v>132126.240847628</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>12.7823</v>
       </c>
       <c r="G78" t="n">
-        <v>132113.458547628</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>419.37</v>
       </c>
       <c r="G79" t="n">
-        <v>131694.0885476281</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>139.1</v>
       </c>
       <c r="G80" t="n">
-        <v>131694.0885476281</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>1132</v>
       </c>
       <c r="G81" t="n">
-        <v>131694.0885476281</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>1897.297</v>
       </c>
       <c r="G82" t="n">
-        <v>129796.791547628</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>4585</v>
       </c>
       <c r="G83" t="n">
-        <v>129796.791547628</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>9386.393700000001</v>
       </c>
       <c r="G84" t="n">
-        <v>129796.791547628</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>721</v>
       </c>
       <c r="G85" t="n">
-        <v>129796.791547628</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>558.5524</v>
       </c>
       <c r="G86" t="n">
-        <v>129796.791547628</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>1227.745</v>
       </c>
       <c r="G87" t="n">
-        <v>129796.791547628</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>61559.8636</v>
       </c>
       <c r="G88" t="n">
-        <v>191356.655147628</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>2971.5312</v>
       </c>
       <c r="G89" t="n">
-        <v>188385.123947628</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>675.8495</v>
       </c>
       <c r="G90" t="n">
-        <v>188385.123947628</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>16813.7114</v>
       </c>
       <c r="G91" t="n">
-        <v>188385.123947628</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>698.25</v>
       </c>
       <c r="G92" t="n">
-        <v>189083.373947628</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>713.4038</v>
       </c>
       <c r="G93" t="n">
-        <v>189083.373947628</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>249.9999</v>
       </c>
       <c r="G94" t="n">
-        <v>189083.373947628</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>1600</v>
       </c>
       <c r="G95" t="n">
-        <v>189083.373947628</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>4355.5125</v>
       </c>
       <c r="G96" t="n">
-        <v>184727.861447628</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>773.6822</v>
       </c>
       <c r="G97" t="n">
-        <v>185501.543647628</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>536.91</v>
       </c>
       <c r="G98" t="n">
-        <v>185501.543647628</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>1612</v>
       </c>
       <c r="G99" t="n">
-        <v>185501.543647628</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>20</v>
       </c>
       <c r="G100" t="n">
-        <v>185501.543647628</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>9</v>
       </c>
       <c r="G101" t="n">
-        <v>185510.543647628</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>14880.3416</v>
       </c>
       <c r="G102" t="n">
-        <v>170630.2020476281</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>18.3536</v>
       </c>
       <c r="G103" t="n">
-        <v>170630.2020476281</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>1760.5609</v>
       </c>
       <c r="G104" t="n">
-        <v>170630.2020476281</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>2500</v>
       </c>
       <c r="G105" t="n">
-        <v>170630.2020476281</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>8274.4889</v>
       </c>
       <c r="G106" t="n">
-        <v>178904.6909476281</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>2</v>
       </c>
       <c r="G107" t="n">
-        <v>178906.6909476281</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>200</v>
       </c>
       <c r="G108" t="n">
-        <v>178706.6909476281</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>300</v>
       </c>
       <c r="G109" t="n">
-        <v>178706.6909476281</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>1831.4158</v>
       </c>
       <c r="G110" t="n">
-        <v>176875.2751476281</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>14</v>
       </c>
       <c r="G111" t="n">
-        <v>176875.2751476281</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>195251.8588</v>
       </c>
       <c r="G112" t="n">
-        <v>-18376.58365237192</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>5</v>
       </c>
       <c r="G113" t="n">
-        <v>-18371.58365237192</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>4.3536</v>
       </c>
       <c r="G114" t="n">
-        <v>-18371.58365237192</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>2885.2935</v>
       </c>
       <c r="G115" t="n">
-        <v>-21256.87715237192</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>508.9999</v>
       </c>
       <c r="G116" t="n">
-        <v>-20747.87725237192</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>1094</v>
       </c>
       <c r="G117" t="n">
-        <v>-21841.87725237192</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>408</v>
       </c>
       <c r="G118" t="n">
-        <v>-22249.87725237192</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>413.9481</v>
       </c>
       <c r="G119" t="n">
-        <v>-21835.92915237192</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>310.4611</v>
       </c>
       <c r="G120" t="n">
-        <v>-21525.46805237192</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>8173.4448</v>
       </c>
       <c r="G121" t="n">
-        <v>-21525.46805237192</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>4442.3411</v>
       </c>
       <c r="G122" t="n">
-        <v>-25967.80915237192</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>6965.6246</v>
       </c>
       <c r="G123" t="n">
-        <v>-25967.80915237192</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>15</v>
       </c>
       <c r="G124" t="n">
-        <v>-25982.80915237192</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>20.1584</v>
       </c>
       <c r="G125" t="n">
-        <v>-26002.96755237192</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>14475.5759</v>
       </c>
       <c r="G126" t="n">
-        <v>-26002.96755237192</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>2601.3369</v>
       </c>
       <c r="G127" t="n">
-        <v>-26002.96755237192</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>598.3901</v>
       </c>
       <c r="G128" t="n">
-        <v>-26002.96755237192</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>1162.1708</v>
       </c>
       <c r="G129" t="n">
-        <v>-26002.96755237192</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>50</v>
       </c>
       <c r="G130" t="n">
-        <v>-25952.96755237192</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>82.03270000000001</v>
       </c>
       <c r="G131" t="n">
-        <v>-25952.96755237192</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>330</v>
       </c>
       <c r="G132" t="n">
-        <v>-26282.96755237192</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>1401.2093</v>
       </c>
       <c r="G133" t="n">
-        <v>-27684.17685237192</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>2202.2162</v>
       </c>
       <c r="G134" t="n">
-        <v>-25481.96065237192</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>1498.6683</v>
       </c>
       <c r="G135" t="n">
-        <v>-25481.96065237192</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>35458.6068</v>
       </c>
       <c r="G136" t="n">
-        <v>-60940.56745237192</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>1891</v>
       </c>
       <c r="G137" t="n">
-        <v>-59049.56745237192</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>200</v>
       </c>
       <c r="G138" t="n">
-        <v>-59049.56745237192</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>2333</v>
       </c>
       <c r="G139" t="n">
-        <v>-59049.56745237192</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>1060</v>
       </c>
       <c r="G140" t="n">
-        <v>-57989.56745237192</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>3836.0195</v>
       </c>
       <c r="G141" t="n">
-        <v>-57989.56745237192</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>20</v>
       </c>
       <c r="G142" t="n">
-        <v>-58009.56745237192</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>3836.0195</v>
       </c>
       <c r="G143" t="n">
-        <v>-61845.58695237192</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>12.585</v>
       </c>
       <c r="G144" t="n">
-        <v>-61833.00195237192</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>613.1728000000001</v>
       </c>
       <c r="G145" t="n">
-        <v>-62446.17475237192</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>1813.1528</v>
       </c>
       <c r="G146" t="n">
-        <v>-60633.02195237192</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>572.3179</v>
       </c>
       <c r="G147" t="n">
-        <v>-60633.02195237192</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>232.8458</v>
       </c>
       <c r="G148" t="n">
-        <v>-60633.02195237192</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>62</v>
       </c>
       <c r="G149" t="n">
-        <v>-60633.02195237192</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>174.7424</v>
       </c>
       <c r="G150" t="n">
-        <v>-60633.02195237192</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>577</v>
       </c>
       <c r="G151" t="n">
-        <v>-60056.02195237192</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>79.3651</v>
       </c>
       <c r="G152" t="n">
-        <v>-59976.65685237192</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>179.5906</v>
       </c>
       <c r="G153" t="n">
-        <v>-60156.24745237192</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>119.0476190476191</v>
       </c>
       <c r="G154" t="n">
-        <v>-60037.1998333243</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>244</v>
       </c>
       <c r="G155" t="n">
-        <v>-60281.1998333243</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>63</v>
       </c>
       <c r="G156" t="n">
-        <v>-60344.1998333243</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>1702.72</v>
       </c>
       <c r="G157" t="n">
-        <v>-60344.1998333243</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>27.5689</v>
       </c>
       <c r="G158" t="n">
-        <v>-60371.7687333243</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>36.9265</v>
       </c>
       <c r="G159" t="n">
-        <v>-60371.7687333243</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>1655.7927</v>
       </c>
       <c r="G160" t="n">
-        <v>-60371.7687333243</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>1379.6883</v>
       </c>
       <c r="G161" t="n">
-        <v>-60371.7687333243</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>17.23</v>
       </c>
       <c r="G162" t="n">
-        <v>-60354.5387333243</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>332.8829</v>
       </c>
       <c r="G163" t="n">
-        <v>-60687.42163332429</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>606.5692</v>
       </c>
       <c r="G164" t="n">
-        <v>-60687.42163332429</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>2832.6126</v>
       </c>
       <c r="G165" t="n">
-        <v>-60687.42163332429</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>448</v>
       </c>
       <c r="G166" t="n">
-        <v>-60239.42163332429</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>22179.9495</v>
       </c>
       <c r="G167" t="n">
-        <v>-82419.3711333243</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>6907.4702</v>
       </c>
       <c r="G168" t="n">
-        <v>-82419.3711333243</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>3075.2319</v>
       </c>
       <c r="G169" t="n">
-        <v>-85494.6030333243</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>8173.4448</v>
       </c>
       <c r="G170" t="n">
-        <v>-93668.04783332429</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>468.7953</v>
       </c>
       <c r="G171" t="n">
-        <v>-93199.2525333243</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>643</v>
       </c>
       <c r="G172" t="n">
-        <v>-93199.2525333243</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>337</v>
       </c>
       <c r="G173" t="n">
-        <v>-93199.2525333243</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>84.65389999999999</v>
       </c>
       <c r="G174" t="n">
-        <v>-93199.2525333243</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,22 +5633,15 @@
         <v>979.0999</v>
       </c>
       <c r="G175" t="n">
-        <v>-93199.2525333243</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>245</v>
-      </c>
-      <c r="J175" t="n">
-        <v>245</v>
-      </c>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6194,26 +5663,15 @@
         <v>4315.6003</v>
       </c>
       <c r="G176" t="n">
-        <v>-93199.2525333243</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>245</v>
-      </c>
-      <c r="J176" t="n">
-        <v>245</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6235,26 +5693,15 @@
         <v>3752.8204</v>
       </c>
       <c r="G177" t="n">
-        <v>-93199.2525333243</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>245</v>
-      </c>
-      <c r="J177" t="n">
-        <v>245</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6276,22 +5723,19 @@
         <v>362.8524</v>
       </c>
       <c r="G178" t="n">
-        <v>-93199.2525333243</v>
+        <v>1</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>245</v>
       </c>
       <c r="I178" t="n">
         <v>245</v>
       </c>
-      <c r="J178" t="n">
-        <v>245</v>
-      </c>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6313,26 +5757,23 @@
         <v>364.3033</v>
       </c>
       <c r="G179" t="n">
-        <v>-92834.9492333243</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>245</v>
       </c>
       <c r="I179" t="n">
         <v>245</v>
       </c>
-      <c r="J179" t="n">
-        <v>245</v>
-      </c>
-      <c r="K179" t="inlineStr">
+      <c r="J179" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6354,26 +5795,23 @@
         <v>1981.6102</v>
       </c>
       <c r="G180" t="n">
-        <v>-92834.9492333243</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>246</v>
       </c>
       <c r="I180" t="n">
-        <v>246</v>
-      </c>
-      <c r="J180" t="n">
         <v>245</v>
       </c>
-      <c r="K180" t="inlineStr">
+      <c r="J180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6395,26 +5833,23 @@
         <v>1188.5245</v>
       </c>
       <c r="G181" t="n">
-        <v>-91646.4247333243</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>246</v>
       </c>
       <c r="I181" t="n">
-        <v>246</v>
-      </c>
-      <c r="J181" t="n">
         <v>245</v>
       </c>
-      <c r="K181" t="inlineStr">
+      <c r="J181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6436,26 +5871,23 @@
         <v>4</v>
       </c>
       <c r="G182" t="n">
-        <v>-91642.4247333243</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="I182" t="n">
-        <v>250</v>
-      </c>
-      <c r="J182" t="n">
         <v>245</v>
       </c>
-      <c r="K182" t="inlineStr">
+      <c r="J182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6477,24 +5909,21 @@
         <v>4</v>
       </c>
       <c r="G183" t="n">
-        <v>-91638.4247333243</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
         <v>245</v>
       </c>
-      <c r="K183" t="inlineStr">
+      <c r="J183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6516,24 +5945,21 @@
         <v>25.2383</v>
       </c>
       <c r="G184" t="n">
-        <v>-91663.66303332429</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
         <v>245</v>
       </c>
-      <c r="K184" t="inlineStr">
+      <c r="J184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6555,24 +5981,21 @@
         <v>101</v>
       </c>
       <c r="G185" t="n">
-        <v>-91562.66303332429</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
         <v>245</v>
       </c>
-      <c r="K185" t="inlineStr">
+      <c r="J185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6594,24 +6017,21 @@
         <v>19.5213</v>
       </c>
       <c r="G186" t="n">
-        <v>-91543.1417333243</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
         <v>245</v>
       </c>
-      <c r="K186" t="inlineStr">
+      <c r="J186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6633,24 +6053,21 @@
         <v>4651.7195</v>
       </c>
       <c r="G187" t="n">
-        <v>-86891.42223332429</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
         <v>245</v>
       </c>
-      <c r="K187" t="inlineStr">
+      <c r="J187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6672,24 +6089,21 @@
         <v>4286.0219</v>
       </c>
       <c r="G188" t="n">
-        <v>-86891.42223332429</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
         <v>245</v>
       </c>
-      <c r="K188" t="inlineStr">
+      <c r="J188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6711,24 +6125,21 @@
         <v>1765.72</v>
       </c>
       <c r="G189" t="n">
-        <v>-86891.42223332429</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
         <v>245</v>
       </c>
-      <c r="K189" t="inlineStr">
+      <c r="J189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6750,24 +6161,21 @@
         <v>342.8818</v>
       </c>
       <c r="G190" t="n">
-        <v>-86891.42223332429</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
         <v>245</v>
       </c>
-      <c r="K190" t="inlineStr">
+      <c r="J190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6789,24 +6197,21 @@
         <v>29.8158</v>
       </c>
       <c r="G191" t="n">
-        <v>-86891.42223332429</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
         <v>245</v>
       </c>
-      <c r="K191" t="inlineStr">
+      <c r="J191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6828,24 +6233,21 @@
         <v>339.9999</v>
       </c>
       <c r="G192" t="n">
-        <v>-86891.42223332429</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
         <v>245</v>
       </c>
-      <c r="K192" t="inlineStr">
+      <c r="J192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6867,24 +6269,21 @@
         <v>4475.9713</v>
       </c>
       <c r="G193" t="n">
-        <v>-86891.42223332429</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
         <v>245</v>
       </c>
-      <c r="K193" t="inlineStr">
+      <c r="J193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6906,24 +6305,21 @@
         <v>235</v>
       </c>
       <c r="G194" t="n">
-        <v>-87126.42223332429</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
         <v>245</v>
       </c>
-      <c r="K194" t="inlineStr">
+      <c r="J194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6945,24 +6341,21 @@
         <v>523.47</v>
       </c>
       <c r="G195" t="n">
-        <v>-87126.42223332429</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
         <v>245</v>
       </c>
-      <c r="K195" t="inlineStr">
+      <c r="J195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6984,24 +6377,21 @@
         <v>50.7924</v>
       </c>
       <c r="G196" t="n">
-        <v>-87126.42223332429</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
         <v>245</v>
       </c>
-      <c r="K196" t="inlineStr">
+      <c r="J196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7023,24 +6413,23 @@
         <v>235</v>
       </c>
       <c r="G197" t="n">
-        <v>-86891.42223332429</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
+        <v>2</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
         <v>245</v>
       </c>
-      <c r="K197" t="inlineStr">
+      <c r="J197" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
+      <c r="K197" t="n">
+        <v>1.052142857142857</v>
+      </c>
       <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>1.094262295081967</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7062,24 +6451,15 @@
         <v>4126</v>
       </c>
       <c r="G198" t="n">
-        <v>-91017.42223332429</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>245</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7101,24 +6481,15 @@
         <v>1020</v>
       </c>
       <c r="G199" t="n">
-        <v>-91017.42223332429</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>245</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7140,24 +6511,15 @@
         <v>287</v>
       </c>
       <c r="G200" t="n">
-        <v>-91304.42223332429</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>245</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7179,24 +6541,15 @@
         <v>144</v>
       </c>
       <c r="G201" t="n">
-        <v>-91448.42223332429</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>245</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7218,24 +6571,15 @@
         <v>742.8256</v>
       </c>
       <c r="G202" t="n">
-        <v>-90705.5966333243</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>245</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7257,24 +6601,15 @@
         <v>161.0196</v>
       </c>
       <c r="G203" t="n">
-        <v>-90544.5770333243</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>245</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7296,24 +6631,15 @@
         <v>71.173</v>
       </c>
       <c r="G204" t="n">
-        <v>-90544.5770333243</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>245</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7335,24 +6661,15 @@
         <v>7</v>
       </c>
       <c r="G205" t="n">
-        <v>-90537.5770333243</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>245</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7374,24 +6691,15 @@
         <v>900</v>
       </c>
       <c r="G206" t="n">
-        <v>-89637.5770333243</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>245</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7413,24 +6721,15 @@
         <v>143</v>
       </c>
       <c r="G207" t="n">
-        <v>-89494.5770333243</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>245</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7452,24 +6751,15 @@
         <v>380.2282</v>
       </c>
       <c r="G208" t="n">
-        <v>-89114.3488333243</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>245</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7491,24 +6781,15 @@
         <v>46.0328</v>
       </c>
       <c r="G209" t="n">
-        <v>-89160.3816333243</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>245</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7530,24 +6811,15 @@
         <v>558.3064000000001</v>
       </c>
       <c r="G210" t="n">
-        <v>-89160.3816333243</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>245</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7569,24 +6841,15 @@
         <v>668.7178</v>
       </c>
       <c r="G211" t="n">
-        <v>-89829.0994333243</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>245</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7608,24 +6871,15 @@
         <v>334.4828</v>
       </c>
       <c r="G212" t="n">
-        <v>-89829.0994333243</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>245</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7647,24 +6901,15 @@
         <v>7</v>
       </c>
       <c r="G213" t="n">
-        <v>-89822.0994333243</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>245</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7686,24 +6931,15 @@
         <v>2</v>
       </c>
       <c r="G214" t="n">
-        <v>-89820.0994333243</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>245</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
